--- a/referidos.xlsx
+++ b/referidos.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdalv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48825250-DF1E-44DB-A942-9D7D49037A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="991">
   <si>
     <t>nombre_del_cliente_referidor</t>
   </si>
@@ -67,6 +61,438 @@
     <t>David Vasquez</t>
   </si>
   <si>
+    <t>Nathalia Giraldo Ramirez</t>
+  </si>
+  <si>
+    <t>Mateo Salazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Barragán </t>
+  </si>
+  <si>
+    <t>Johan Orlando Correa Restrepo</t>
+  </si>
+  <si>
+    <t>María Isabel Espina Pirela</t>
+  </si>
+  <si>
+    <t>Jaime Andrés Giraldo</t>
+  </si>
+  <si>
+    <t>Mateo Bolivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos  Achipis Badillo </t>
+  </si>
+  <si>
+    <t>Fernando Javier Romero Pomareda</t>
+  </si>
+  <si>
+    <t>Juan Camilo Salazar Rivera</t>
+  </si>
+  <si>
+    <t>Marcela Lopez Pulgarin</t>
+  </si>
+  <si>
+    <t>Daniel Herrera</t>
+  </si>
+  <si>
+    <t>Claudia ARBOLEDA S</t>
+  </si>
+  <si>
+    <t>sara pineda</t>
+  </si>
+  <si>
+    <t>Camilo Velasquez Palacio</t>
+  </si>
+  <si>
+    <t>María Camila Chaparro Rueda</t>
+  </si>
+  <si>
+    <t>Ricardo Jose Vezga Rueda</t>
+  </si>
+  <si>
+    <t>Juan Duke</t>
+  </si>
+  <si>
+    <t>Misael Armando  Martinez Otero</t>
+  </si>
+  <si>
+    <t>Armando Esteban Sanchez Torres</t>
+  </si>
+  <si>
+    <t>Gustavo  Gil</t>
+  </si>
+  <si>
+    <t>Andres Felipe Builes Ordoñez</t>
+  </si>
+  <si>
+    <t>María paz  Bedoya</t>
+  </si>
+  <si>
+    <t>Dayana  Arias Quintero</t>
+  </si>
+  <si>
+    <t>Jesus  Cruz</t>
+  </si>
+  <si>
+    <t>Albeiro Antonio Hernández Giraldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo  Mazo escobar </t>
+  </si>
+  <si>
+    <t>Sergio Maya</t>
+  </si>
+  <si>
+    <t>Javier  Aparicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Ramon Pelaez Gaviria </t>
+  </si>
+  <si>
+    <t>Ledi Johanna Gracia Rivera</t>
+  </si>
+  <si>
+    <t>Andres Cardona</t>
+  </si>
+  <si>
+    <t>Cristian Fabian Cadena Duran</t>
+  </si>
+  <si>
+    <t>Luis Miguel Verbel</t>
+  </si>
+  <si>
+    <t>Carolina Coll</t>
+  </si>
+  <si>
+    <t>Juan David  Rueda Marceles</t>
+  </si>
+  <si>
+    <t>Guillermo Andres  Cubillos Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés Camilo  Castro </t>
+  </si>
+  <si>
+    <t>Natalia  Larrea Zapata</t>
+  </si>
+  <si>
+    <t>José Leonardo Gutiérrez Morales</t>
+  </si>
+  <si>
+    <t>Claudia  Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Mauricio Serna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Ruiz </t>
+  </si>
+  <si>
+    <t>jhon  tirado</t>
+  </si>
+  <si>
+    <t>Jose Aldemar  Cortes Meneses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sara Cristina Giraldo Velilla</t>
+  </si>
+  <si>
+    <t>Mateo  Valencia Londoño</t>
+  </si>
+  <si>
+    <t>Daniela Herrera Buritica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Maria Barrientos </t>
+  </si>
+  <si>
+    <t>Juan David  ZAPATA</t>
+  </si>
+  <si>
+    <t>Yenny Alejandra Prada Bonilla</t>
+  </si>
+  <si>
+    <t>Daniel  Hoyos Rave</t>
+  </si>
+  <si>
+    <t>fernando roa</t>
+  </si>
+  <si>
+    <t>Juan Sebastian Lozano Tapias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Leonardo  Sanin Saldarriaga </t>
+  </si>
+  <si>
+    <t>Sebastián Mejia Bolivar</t>
+  </si>
+  <si>
+    <t>Oliver Rubio Maya</t>
+  </si>
+  <si>
+    <t>Jorge Enrique   Basto Aluja</t>
+  </si>
+  <si>
+    <t>Laura Fernanda Vargas rueda</t>
+  </si>
+  <si>
+    <t>Valeria  Manrique Aristizabal</t>
+  </si>
+  <si>
+    <t>Anni  Lotero</t>
+  </si>
+  <si>
+    <t>Mauricio  Castañeda</t>
+  </si>
+  <si>
+    <t>John arley Yepes patiño</t>
+  </si>
+  <si>
+    <t>Luis Albeiro Sanchez ospina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor  Garcia </t>
+  </si>
+  <si>
+    <t>Simon  Olaya vargas</t>
+  </si>
+  <si>
+    <t>edgar nieto</t>
+  </si>
+  <si>
+    <t>Donaldo Alonso Benitez Santamaría</t>
+  </si>
+  <si>
+    <t>María Helena Parra Cárdenas</t>
+  </si>
+  <si>
+    <t>Daniel Mira</t>
+  </si>
+  <si>
+    <t>FERNANDO  LOPEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristian  Martinez </t>
+  </si>
+  <si>
+    <t>Julian Vanegas</t>
+  </si>
+  <si>
+    <t>Sebastian  Agudelo Vasquez</t>
+  </si>
+  <si>
+    <t>Francisco Javier Gaviria Sierra</t>
+  </si>
+  <si>
+    <t>Miguel Molina</t>
+  </si>
+  <si>
+    <t>Mariana Perez</t>
+  </si>
+  <si>
+    <t>Mauricio Marzan</t>
+  </si>
+  <si>
+    <t>Daniel Estiben Gutierrez Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Esteban Botero </t>
+  </si>
+  <si>
+    <t>GERARDO ANDRES AGUILAR NAVARRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edwin Madrid </t>
+  </si>
+  <si>
+    <t>Vanessa Diez Bedoya</t>
+  </si>
+  <si>
+    <t>juanita valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVIER DARIO  RAMIREZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlos  Mosquera Mosquera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos  Delgado </t>
+  </si>
+  <si>
+    <t>Jorge Ignacio Velez Perez</t>
+  </si>
+  <si>
+    <t>Juan Esteban Giraldo Echeverri</t>
+  </si>
+  <si>
+    <t>Juan Guillermo Tirado Carvajal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelica  Cardona gallego </t>
+  </si>
+  <si>
+    <t>Carlos Andres Villa Gonzalez</t>
+  </si>
+  <si>
+    <t>Huber Duvier Acevedo Hernandez</t>
+  </si>
+  <si>
+    <t>Wilder  Lopez zapata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Gutiérrez </t>
+  </si>
+  <si>
+    <t>Abdel hamid hatem</t>
+  </si>
+  <si>
+    <t>Sandra del socorro Zapata Suarez</t>
+  </si>
+  <si>
+    <t>Pedro  Vergara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz Elena Rico Castaño </t>
+  </si>
+  <si>
+    <t>Carlos David Gil Cuartas</t>
+  </si>
+  <si>
+    <t>Edwin Castellar</t>
+  </si>
+  <si>
+    <t>Paola Andrea Lopez Gutierrez</t>
+  </si>
+  <si>
+    <t>Juan Jose Sanchez Sala</t>
+  </si>
+  <si>
+    <t>María alejandra  Velásquez Zapata</t>
+  </si>
+  <si>
+    <t>Enith Andrea Diaz Hernandez</t>
+  </si>
+  <si>
+    <t>Michel Alejandra Rodas Osorio</t>
+  </si>
+  <si>
+    <t>Julio Cesar Correa Garcia</t>
+  </si>
+  <si>
+    <t>Edison E Bedoya Morales</t>
+  </si>
+  <si>
+    <t>Juan Pablo  Correa garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elkin Enrique  Vargas Beltrán </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juan David  Montoya Vasquez</t>
+  </si>
+  <si>
+    <t>Jorge Armando Susa Martinez</t>
+  </si>
+  <si>
+    <t>Miguel Horacio Londoño Lopez</t>
+  </si>
+  <si>
+    <t>Julio araujo</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO VARGAS DIAZ</t>
+  </si>
+  <si>
+    <t>Wilber Mejia</t>
+  </si>
+  <si>
+    <t>Martha Liliana Patiño</t>
+  </si>
+  <si>
+    <t>Juan David Agudelo</t>
+  </si>
+  <si>
+    <t>Juan Diego Restrepo Villegas</t>
+  </si>
+  <si>
+    <t>Alex Martin Atehortua</t>
+  </si>
+  <si>
+    <t>Miguel Barrero Manzano</t>
+  </si>
+  <si>
+    <t>Miguel Eduardo  Triana Devia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Alfredo Portillo Castillo </t>
+  </si>
+  <si>
+    <t>Laura Cuentas</t>
+  </si>
+  <si>
+    <t>Andrea Arango</t>
+  </si>
+  <si>
+    <t>Ana Serna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inti David   Patiño Agreda</t>
+  </si>
+  <si>
+    <t>David Alejandro Uribe Puerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelica  Angulo </t>
+  </si>
+  <si>
+    <t>Natalia Loaiza Villa</t>
+  </si>
+  <si>
+    <t>Juan Pablo Cespedes Prieto</t>
+  </si>
+  <si>
+    <t>Roberto  Mosquera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Alejandro  Ramirez </t>
+  </si>
+  <si>
+    <t>Jordys Javier Henao Altamiranda</t>
+  </si>
+  <si>
+    <t>Diana Patricia Fadul Campiño</t>
+  </si>
+  <si>
+    <t>Daniela Andrea  Monterrosa Alvarez</t>
+  </si>
+  <si>
+    <t>JORGE I. Sanchez</t>
+  </si>
+  <si>
+    <t>Alejandro  Salazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy  Astrid  Tobon  </t>
+  </si>
+  <si>
+    <t>JUAN DAVID ZULUAGA ARBOLEDA</t>
+  </si>
+  <si>
+    <t>Julio César Garzon</t>
+  </si>
+  <si>
+    <t>Lina Maria  Salazar Lopez</t>
+  </si>
+  <si>
+    <t>Catalina Alvarez Valencia</t>
+  </si>
+  <si>
+    <t>Elizabeth Mejia Charry</t>
+  </si>
+  <si>
     <t>rodamer123@gmail.com</t>
   </si>
   <si>
@@ -85,6 +511,438 @@
     <t>vasquez228@hotmail.com</t>
   </si>
   <si>
+    <t>nathalia_giraldo@hotmail.com</t>
+  </si>
+  <si>
+    <t>salazar.mateo@hotmail.com</t>
+  </si>
+  <si>
+    <t>lilibarragan0905@gmail.com</t>
+  </si>
+  <si>
+    <t>johancorreare@hotmail.com</t>
+  </si>
+  <si>
+    <t>mariaespinap@gmail.com</t>
+  </si>
+  <si>
+    <t>jaimeagiraldo@me.com</t>
+  </si>
+  <si>
+    <t>mateo0322@hotmail.com</t>
+  </si>
+  <si>
+    <t>carlosachipis@gmail.com</t>
+  </si>
+  <si>
+    <t>fernandojr9208@gmail.com</t>
+  </si>
+  <si>
+    <t>juacasari@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelp17@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel960119@hotmail.com</t>
+  </si>
+  <si>
+    <t>cpas13@hotmail.com</t>
+  </si>
+  <si>
+    <t>saraisabelpc20@gmail.com</t>
+  </si>
+  <si>
+    <t>velaspala@outlook.com</t>
+  </si>
+  <si>
+    <t>camilachaparro1985@gmail.com</t>
+  </si>
+  <si>
+    <t>riverock86@hotmail.com</t>
+  </si>
+  <si>
+    <t>juanseduke@gmail.com</t>
+  </si>
+  <si>
+    <t>martinezotero@gmail.com</t>
+  </si>
+  <si>
+    <t>Esteban147@live.com</t>
+  </si>
+  <si>
+    <t>gustavogrpo@gmail.com</t>
+  </si>
+  <si>
+    <t>andresb696@hotmail.com</t>
+  </si>
+  <si>
+    <t>bedoyamariapaz96@gmail.com</t>
+  </si>
+  <si>
+    <t>Dayanaariasqu@gmail.com</t>
+  </si>
+  <si>
+    <t>jacruzsan@gmail.com</t>
+  </si>
+  <si>
+    <t>albeirodcristo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Guillescobar1@gmail.com</t>
+  </si>
+  <si>
+    <t>chechomaya@hotmail.com</t>
+  </si>
+  <si>
+    <t>japariciortiz@hotmail.com</t>
+  </si>
+  <si>
+    <t>jpelaezg@hotmail.com</t>
+  </si>
+  <si>
+    <t>leidigari@gmail.com</t>
+  </si>
+  <si>
+    <t>andres.felipe.cardona@gmail.com</t>
+  </si>
+  <si>
+    <t>cristian.cadena@udea.edu.co</t>
+  </si>
+  <si>
+    <t>luismiguelverbelc@hotmail.com</t>
+  </si>
+  <si>
+    <t>ccolltorres@hotmail.com</t>
+  </si>
+  <si>
+    <t>jdavidrueda@gmail.com</t>
+  </si>
+  <si>
+    <t>ing.gacr@gmail.com</t>
+  </si>
+  <si>
+    <t>casandez@gmail.com</t>
+  </si>
+  <si>
+    <t>natalia.larrea2@gmail.com</t>
+  </si>
+  <si>
+    <t>leogm19@gmail.com</t>
+  </si>
+  <si>
+    <t>csorayaperez@gmail.com</t>
+  </si>
+  <si>
+    <t>mauricioserna123@gmail.com</t>
+  </si>
+  <si>
+    <t>Alexzander15@gmail.com</t>
+  </si>
+  <si>
+    <t>jalejot@gmail.com</t>
+  </si>
+  <si>
+    <t>jacormen@gmail.com</t>
+  </si>
+  <si>
+    <t>saragirald@hotmail.com</t>
+  </si>
+  <si>
+    <t>mateovalencia27@gmail.com</t>
+  </si>
+  <si>
+    <t>dani6760@hotmail.com</t>
+  </si>
+  <si>
+    <t>angelabar34@hotmail.com</t>
+  </si>
+  <si>
+    <t>juandavidzr@hotmail.com</t>
+  </si>
+  <si>
+    <t>ypradaperiodista@gmail.com</t>
+  </si>
+  <si>
+    <t>danielhfrm10000@hotmail.com</t>
+  </si>
+  <si>
+    <t>fernancho45@gmail.com</t>
+  </si>
+  <si>
+    <t>juansebastiantapias14@gmail.com</t>
+  </si>
+  <si>
+    <t>saninconsultor@gmail.com</t>
+  </si>
+  <si>
+    <t>sebastian.mejiab8911@gmail.com</t>
+  </si>
+  <si>
+    <t>olimaya@yahoo.com</t>
+  </si>
+  <si>
+    <t>jorge.basto.aluja@gmail.com</t>
+  </si>
+  <si>
+    <t>lauraf.vargas@udea.edu.co</t>
+  </si>
+  <si>
+    <t>valeriam1014@gmail.com</t>
+  </si>
+  <si>
+    <t>ann_sanz@hotmail.com</t>
+  </si>
+  <si>
+    <t>macale2005@gmail.com</t>
+  </si>
+  <si>
+    <t>yepesjonny11@gmail.com</t>
+  </si>
+  <si>
+    <t>luis-s570@hotmail.com</t>
+  </si>
+  <si>
+    <t>vjgm72@gmail.com</t>
+  </si>
+  <si>
+    <t>simonolaya@gmail.com</t>
+  </si>
+  <si>
+    <t>edgarnieto923@gmail.com</t>
+  </si>
+  <si>
+    <t>donaldobenitezsa@gmail.com</t>
+  </si>
+  <si>
+    <t>mahelenaparra@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel.mr@live.com</t>
+  </si>
+  <si>
+    <t>ferlopezrami@gmail.com</t>
+  </si>
+  <si>
+    <t>criscamilox@gmail.com</t>
+  </si>
+  <si>
+    <t>ovanegasvb@gmail.com</t>
+  </si>
+  <si>
+    <t>md.sebax@hotmail.com</t>
+  </si>
+  <si>
+    <t>fxiajavier@gmail.com</t>
+  </si>
+  <si>
+    <t>miguelcolo1@gmail.com</t>
+  </si>
+  <si>
+    <t>Marianaperezgomez2@gmail.com</t>
+  </si>
+  <si>
+    <t>mauromarzan@gmail.com</t>
+  </si>
+  <si>
+    <t>dgutierrezmarin@gmail.com</t>
+  </si>
+  <si>
+    <t>Jp8070@gmail.com</t>
+  </si>
+  <si>
+    <t>andresaguilar80@yahoo.com</t>
+  </si>
+  <si>
+    <t>edwindj18@hotmail.com</t>
+  </si>
+  <si>
+    <t>Vanedb97@hotmail.com</t>
+  </si>
+  <si>
+    <t>juanita.valencia.acosta@hotmail.com</t>
+  </si>
+  <si>
+    <t>Javierdario57@hotmail.com</t>
+  </si>
+  <si>
+    <t>cyeman@gmail.com</t>
+  </si>
+  <si>
+    <t>camario.dt.132@gmail.com</t>
+  </si>
+  <si>
+    <t>jvelezp88@hotmail.com</t>
+  </si>
+  <si>
+    <t>jegiralde@gmail.com</t>
+  </si>
+  <si>
+    <t>juantirado@lafundacion.co</t>
+  </si>
+  <si>
+    <t>mariangel79@outlook.es</t>
+  </si>
+  <si>
+    <t>cvillag1@gmail.com</t>
+  </si>
+  <si>
+    <t>huberacevedo@gmail.com</t>
+  </si>
+  <si>
+    <t>wlopez64@gmail.com</t>
+  </si>
+  <si>
+    <t>warepazo@gmail.com</t>
+  </si>
+  <si>
+    <t>abdodaher.ad@gmail.com</t>
+  </si>
+  <si>
+    <t>sandrazapatas@hotmail.com</t>
+  </si>
+  <si>
+    <t>Covarachia@hotmail.com</t>
+  </si>
+  <si>
+    <t>Luzrico225@gmail.com</t>
+  </si>
+  <si>
+    <t>davidgilcuartas@gmail.com</t>
+  </si>
+  <si>
+    <t>ejcastellarq@gmail.com</t>
+  </si>
+  <si>
+    <t>paola_andrea21@hotmail.com</t>
+  </si>
+  <si>
+    <t>jjsasa@gmail.com</t>
+  </si>
+  <si>
+    <t>alejamve@gmail.com</t>
+  </si>
+  <si>
+    <t>enith.andrea.diazh@gmail.com</t>
+  </si>
+  <si>
+    <t>alejiitha65@gmail.com</t>
+  </si>
+  <si>
+    <t>jcorreag55@msn.com</t>
+  </si>
+  <si>
+    <t>edison@artedinamico.com</t>
+  </si>
+  <si>
+    <t>juanpcorrea69@gmail.com</t>
+  </si>
+  <si>
+    <t>elkin.v.b@gmail.com</t>
+  </si>
+  <si>
+    <t>juandavidmontoyav@gmail.com</t>
+  </si>
+  <si>
+    <t>jorsussa@hotmail.com</t>
+  </si>
+  <si>
+    <t>flialondonoz@gmail.com</t>
+  </si>
+  <si>
+    <t>araujo147258369@gmail.com</t>
+  </si>
+  <si>
+    <t>hola@alejovargas.co</t>
+  </si>
+  <si>
+    <t>ingwilbermejia@gmail.com</t>
+  </si>
+  <si>
+    <t>Lianpatty@hotmail.com</t>
+  </si>
+  <si>
+    <t>jagudelo@piedadbotero.com</t>
+  </si>
+  <si>
+    <t>jdiegorpo@hotmail.com</t>
+  </si>
+  <si>
+    <t>alexmartin714@hotmail.com</t>
+  </si>
+  <si>
+    <t>mbarrero@gmail.com</t>
+  </si>
+  <si>
+    <t>miguelmetd@gmail.com</t>
+  </si>
+  <si>
+    <t>luisport91@gmail.com</t>
+  </si>
+  <si>
+    <t>lauracuentas1@gmail.com</t>
+  </si>
+  <si>
+    <t>Andrearangom@gmail.com</t>
+  </si>
+  <si>
+    <t>serbotana@gmail.com</t>
+  </si>
+  <si>
+    <t>indapa6@gmail.com</t>
+  </si>
+  <si>
+    <t>Davidaup93@gmail.com</t>
+  </si>
+  <si>
+    <t>Aangulo0327@gmail.com</t>
+  </si>
+  <si>
+    <t>Nathyloloaiza@gmail.com</t>
+  </si>
+  <si>
+    <t>cespedesp.juan@gmail.com</t>
+  </si>
+  <si>
+    <t>roberthomosquera@gmail.com</t>
+  </si>
+  <si>
+    <t>ramirezmanuel@outlook.com</t>
+  </si>
+  <si>
+    <t>jojaheal@gmail.com</t>
+  </si>
+  <si>
+    <t>diana.fadul@gmail.com</t>
+  </si>
+  <si>
+    <t>daniela14monterrosa@gmail.com</t>
+  </si>
+  <si>
+    <t>nachosanchezo@gmail.com</t>
+  </si>
+  <si>
+    <t>asalaza6@gmail.com</t>
+  </si>
+  <si>
+    <t>Tobon.lucy@gmail.com</t>
+  </si>
+  <si>
+    <t>jzulu2000@gmail.com</t>
+  </si>
+  <si>
+    <t>julio.angelito1982@gmail.com</t>
+  </si>
+  <si>
+    <t>linams92@hotmail.com</t>
+  </si>
+  <si>
+    <t>catalina.alvarez.valencia@hotmail.com</t>
+  </si>
+  <si>
+    <t>elimejia_24@msn.com</t>
+  </si>
+  <si>
     <t>2023-02-03</t>
   </si>
   <si>
@@ -109,6 +967,231 @@
     <t>2022-11-21</t>
   </si>
   <si>
+    <t>2023-01-21</t>
+  </si>
+  <si>
+    <t>2023-03-12</t>
+  </si>
+  <si>
+    <t>2023-02-16</t>
+  </si>
+  <si>
+    <t>2023-02-19</t>
+  </si>
+  <si>
+    <t>2023-02-14</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2023-03-10</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2023-01-27</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-19</t>
+  </si>
+  <si>
+    <t>2023-01-22</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-01-25</t>
+  </si>
+  <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
+    <t>2023-02-25</t>
+  </si>
+  <si>
+    <t>2023-02-08</t>
+  </si>
+  <si>
+    <t>2023-01-13</t>
+  </si>
+  <si>
+    <t>2022-12-27</t>
+  </si>
+  <si>
+    <t>2023-01-29</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>2023-03-01</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>2022-12-18</t>
+  </si>
+  <si>
+    <t>2023-02-15</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-18</t>
+  </si>
+  <si>
+    <t>2023-03-09</t>
+  </si>
+  <si>
+    <t>2023-01-06</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-02-17</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-01-24</t>
+  </si>
+  <si>
+    <t>2023-01-31</t>
+  </si>
+  <si>
+    <t>2022-11-26</t>
+  </si>
+  <si>
+    <t>2022-12-11</t>
+  </si>
+  <si>
+    <t>2023-02-22</t>
+  </si>
+  <si>
+    <t>2022-12-29</t>
+  </si>
+  <si>
+    <t>2023-01-14</t>
+  </si>
+  <si>
+    <t>2023-02-23</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>2023-03-04</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2023-01-26</t>
+  </si>
+  <si>
+    <t>2023-02-07</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
+  </si>
+  <si>
+    <t>2023-03-07</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-12</t>
+  </si>
+  <si>
+    <t>2022-11-16</t>
+  </si>
+  <si>
+    <t>2023-02-05</t>
+  </si>
+  <si>
+    <t>2022-12-28</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>2023-02-04</t>
+  </si>
+  <si>
+    <t>2023-01-15</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>2022-12-03</t>
+  </si>
+  <si>
+    <t>2023-01-08</t>
+  </si>
+  <si>
+    <t>2022-12-16</t>
+  </si>
+  <si>
+    <t>2022-12-21</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-04</t>
+  </si>
+  <si>
+    <t>2022-11-17</t>
+  </si>
+  <si>
+    <t>2023-01-07</t>
+  </si>
+  <si>
     <t>ANDERSON ANDERSON</t>
   </si>
   <si>
@@ -133,6 +1216,606 @@
     <t xml:space="preserve">Laura  Vasquez </t>
   </si>
   <si>
+    <t>Patricia Ramirez</t>
+  </si>
+  <si>
+    <t>Mayde Giraldo</t>
+  </si>
+  <si>
+    <t>ANA CATALINA JARAMILLO</t>
+  </si>
+  <si>
+    <t>Wilmar Ignacio  Garzón Lopez</t>
+  </si>
+  <si>
+    <t>Luz Dary Restrepo Franco</t>
+  </si>
+  <si>
+    <t>Luis Espina</t>
+  </si>
+  <si>
+    <t>Isabel Sanchez Uribe</t>
+  </si>
+  <si>
+    <t>Johanna Andrea López Macías</t>
+  </si>
+  <si>
+    <t>Tatiana Aristizabal</t>
+  </si>
+  <si>
+    <t>MARIA JOSE HERNANDEZ GENES</t>
+  </si>
+  <si>
+    <t>Eduardo Parra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myriam Pulgarin </t>
+  </si>
+  <si>
+    <t>Juan Deossa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura  Zapata Franco </t>
+  </si>
+  <si>
+    <t>Martha Cataño</t>
+  </si>
+  <si>
+    <t>Jhonny  Henao</t>
+  </si>
+  <si>
+    <t>Catalina Vélez</t>
+  </si>
+  <si>
+    <t>Ronald Vezga</t>
+  </si>
+  <si>
+    <t>Paul SALAZAR</t>
+  </si>
+  <si>
+    <t>Claudia  Cano</t>
+  </si>
+  <si>
+    <t>Natalia Agudelo</t>
+  </si>
+  <si>
+    <t>Carmen Otero</t>
+  </si>
+  <si>
+    <t>Santiago Morales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darwin  Marín </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Enrique Zuleta Cardona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Enrique  Zuleta Cardona </t>
+  </si>
+  <si>
+    <t>Carlos Enrique  Zuleta Cardona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blanca  Ordoñez </t>
+  </si>
+  <si>
+    <t>Dayana Arias</t>
+  </si>
+  <si>
+    <t>luis gonzalo  montoya</t>
+  </si>
+  <si>
+    <t>Claudia  Alzate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albeiro Hernández </t>
+  </si>
+  <si>
+    <t>SANTIAGO SALDARRIAGA</t>
+  </si>
+  <si>
+    <t>Ana maria Pulgarin sanchez</t>
+  </si>
+  <si>
+    <t>Juan Camilo Cogollo Marin</t>
+  </si>
+  <si>
+    <t>Diego Ramirez</t>
+  </si>
+  <si>
+    <t>PAOLA  OCAMPO</t>
+  </si>
+  <si>
+    <t>Sergio Escobar</t>
+  </si>
+  <si>
+    <t>Sonia Dorado</t>
+  </si>
+  <si>
+    <t>Camilo Restrepo</t>
+  </si>
+  <si>
+    <t>David Monsalve</t>
+  </si>
+  <si>
+    <t>David  Venegas</t>
+  </si>
+  <si>
+    <t>Natalia Jimenez Marin</t>
+  </si>
+  <si>
+    <t>john lozano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia  Larrea Zapata </t>
+  </si>
+  <si>
+    <t>Carlos  Fonseca</t>
+  </si>
+  <si>
+    <t>William  Valencia</t>
+  </si>
+  <si>
+    <t>Carmen  Rico</t>
+  </si>
+  <si>
+    <t>José Bernardo Rueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenny María  Estrada </t>
+  </si>
+  <si>
+    <t>Marcela  Otero</t>
+  </si>
+  <si>
+    <t>MILDREY ZAPATA</t>
+  </si>
+  <si>
+    <t>Leidi Maryori  Torres Ortiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marbin  Alvarez </t>
+  </si>
+  <si>
+    <t>Maria Elena Mejia</t>
+  </si>
+  <si>
+    <t>FRANK DAVID SOTO CANO</t>
+  </si>
+  <si>
+    <t>Seneida  Castrillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia  Cataño </t>
+  </si>
+  <si>
+    <t>Camilo Botello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Alejandra  González Martínez </t>
+  </si>
+  <si>
+    <t>Andrea Londoño</t>
+  </si>
+  <si>
+    <t>Carolina Herrera</t>
+  </si>
+  <si>
+    <t>Rosalba Flores</t>
+  </si>
+  <si>
+    <t>Andrea calderon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julián  Caro Gómez </t>
+  </si>
+  <si>
+    <t>Andres Gonzalez</t>
+  </si>
+  <si>
+    <t>Elkin Henao</t>
+  </si>
+  <si>
+    <t>Luz Orozco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Montoya Perez </t>
+  </si>
+  <si>
+    <t>David Tovar</t>
+  </si>
+  <si>
+    <t>Efraín  Vanegas</t>
+  </si>
+  <si>
+    <t>Luis Guillermo Parra Palacios</t>
+  </si>
+  <si>
+    <t>Alexandra  Patiño</t>
+  </si>
+  <si>
+    <t>Julio  Mejia</t>
+  </si>
+  <si>
+    <t>DANIEL ESPITIA</t>
+  </si>
+  <si>
+    <t>Jaime Echavarria</t>
+  </si>
+  <si>
+    <t>Manuel Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Narváez </t>
+  </si>
+  <si>
+    <t>Manuela  Herrera Quiñones</t>
+  </si>
+  <si>
+    <t>Johan sebastian Zuluaga quiceno</t>
+  </si>
+  <si>
+    <t>Johana Rodríguez</t>
+  </si>
+  <si>
+    <t>LuisFer  Munoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biviana  Yepes Grajales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yonathan Prada </t>
+  </si>
+  <si>
+    <t>Juan Andrés Velásquez Gómez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia  Vélez </t>
+  </si>
+  <si>
+    <t>Luz Marina  Vélez Corrales no</t>
+  </si>
+  <si>
+    <t>PILAR  ARRIETA</t>
+  </si>
+  <si>
+    <t>David De los Rios Sierra</t>
+  </si>
+  <si>
+    <t>Edgar daniel Nieto tomas</t>
+  </si>
+  <si>
+    <t>Christian  Sierra Calle</t>
+  </si>
+  <si>
+    <t>Gabriel Cadavid</t>
+  </si>
+  <si>
+    <t>Jaime Trujillo</t>
+  </si>
+  <si>
+    <t>Ariel Gomez Ruiz</t>
+  </si>
+  <si>
+    <t>Melisa  Arcila</t>
+  </si>
+  <si>
+    <t>Eliana Caicedo</t>
+  </si>
+  <si>
+    <t>Daniel Buitrago</t>
+  </si>
+  <si>
+    <t>Juan Felipe Tamayo Acevedo</t>
+  </si>
+  <si>
+    <t>Solandy Vejar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María  Tabares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra  Agudelo </t>
+  </si>
+  <si>
+    <t>Diego Vi</t>
+  </si>
+  <si>
+    <t>Carlos  Noreña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilder Uribe </t>
+  </si>
+  <si>
+    <t>Eliana Marulanda Gómez</t>
+  </si>
+  <si>
+    <t>Julian David Giraldo Castaño</t>
+  </si>
+  <si>
+    <t>Luz marina  Alzate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Mario Zapata Ochoa </t>
+  </si>
+  <si>
+    <t>JORGE PICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz albany  Arredondo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jezreel  Gutierrez Lora </t>
+  </si>
+  <si>
+    <t>Andrea  Sanchez</t>
+  </si>
+  <si>
+    <t>Catalina Martinez</t>
+  </si>
+  <si>
+    <t>Vanesa Castaño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia Gaviria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camilo Gallego </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesica González </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando  Galvis </t>
+  </si>
+  <si>
+    <t>Sara Lopera Rendon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro  Berrnal </t>
+  </si>
+  <si>
+    <t>Wilfer Quintero</t>
+  </si>
+  <si>
+    <t>Yenith  Arias</t>
+  </si>
+  <si>
+    <t>Carlos Arturo Ospina Restrepo</t>
+  </si>
+  <si>
+    <t>Carlos Solano</t>
+  </si>
+  <si>
+    <t>Deily Selene Acevedo Hernández</t>
+  </si>
+  <si>
+    <t>Wendy Zuluaga</t>
+  </si>
+  <si>
+    <t>Azucena Correa</t>
+  </si>
+  <si>
+    <t>Bassel Gebara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruby Botero Pulgarín </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Érika Alejandra  Jimenez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn katherine Rodriguez agudelo </t>
+  </si>
+  <si>
+    <t>Alexandra Conde</t>
+  </si>
+  <si>
+    <t>Pedro Perez</t>
+  </si>
+  <si>
+    <t>Daniel Alejandro Garcia Giraldo</t>
+  </si>
+  <si>
+    <t>Jorge Estupiñan</t>
+  </si>
+  <si>
+    <t>Leidy Cortes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonel  Montero </t>
+  </si>
+  <si>
+    <t>Elisa Pulgarin</t>
+  </si>
+  <si>
+    <t>DANIEL RINCON</t>
+  </si>
+  <si>
+    <t>Manuel Giraldo</t>
+  </si>
+  <si>
+    <t>Alma Quiroz Donado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Enrique  Del campo </t>
+  </si>
+  <si>
+    <t>Janeth Salas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge  Zapata </t>
+  </si>
+  <si>
+    <t>Juan Pablo Correa Escobar</t>
+  </si>
+  <si>
+    <t>John Alexander Zapata Rojas</t>
+  </si>
+  <si>
+    <t>Luz Marina Garcés Maya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés  Arboleda </t>
+  </si>
+  <si>
+    <t>Francisco Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz Helena  Vargas Cifuentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Orlando  Vargas Castro </t>
+  </si>
+  <si>
+    <t>Angela Osorio</t>
+  </si>
+  <si>
+    <t>Andrea Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Correa </t>
+  </si>
+  <si>
+    <t>Andres Medina</t>
+  </si>
+  <si>
+    <t>OSCAR DARIO FLOREZ BEDOYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melania  Espinosa </t>
+  </si>
+  <si>
+    <t>Santiago  Torres</t>
+  </si>
+  <si>
+    <t>Marín Santiago Muñoz</t>
+  </si>
+  <si>
+    <t>Johana  Suaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matiluz Bocanegra </t>
+  </si>
+  <si>
+    <t>Eliana Ramirez</t>
+  </si>
+  <si>
+    <t>Nidia  Arango</t>
+  </si>
+  <si>
+    <t>Daniela Cartagena</t>
+  </si>
+  <si>
+    <t>Yuli Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarita  Montoya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katerine  Cañola López </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz adriana Puerta </t>
+  </si>
+  <si>
+    <t>Maritza Alejandra Sepulveda Estrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Diego  Molina Pulgarin </t>
+  </si>
+  <si>
+    <t>Camila  Velez</t>
+  </si>
+  <si>
+    <t>Maria Isabel Palacio Rivas</t>
+  </si>
+  <si>
+    <t>Laura Restrepo</t>
+  </si>
+  <si>
+    <t>Andreas Gluch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena  Bocci </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian  Manrique </t>
+  </si>
+  <si>
+    <t>Ana María Arango</t>
+  </si>
+  <si>
+    <t>Sandra Milena Mora</t>
+  </si>
+  <si>
+    <t>Karen Suarez</t>
+  </si>
+  <si>
+    <t>Margarita Moreno</t>
+  </si>
+  <si>
+    <t>Camilo Metrio Sánchez</t>
+  </si>
+  <si>
+    <t>andres agudelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina  Cortes velez </t>
+  </si>
+  <si>
+    <t>Leydy Arenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Angel  Angulo Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana  Loaiza </t>
+  </si>
+  <si>
+    <t>Andres Ospina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Eduardo  Giraldo Mosquera </t>
+  </si>
+  <si>
+    <t>Juan Pablo Avalos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yenifer  Támara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Cardona </t>
+  </si>
+  <si>
+    <t>Yulieth Alvarez</t>
+  </si>
+  <si>
+    <t>Liliana Betancur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LORENA Osorio </t>
+  </si>
+  <si>
+    <t>EIDER ANDRES MONTOYA DAVID</t>
+  </si>
+  <si>
+    <t>NORA PATRICIA OROZCO MARIN</t>
+  </si>
+  <si>
+    <t>Laura López toro</t>
+  </si>
+  <si>
+    <t>Maria  Restrepo</t>
+  </si>
+  <si>
+    <t>Rosse Mary Charry</t>
+  </si>
+  <si>
+    <t>Rafael Mesa</t>
+  </si>
+  <si>
     <t>3175039040</t>
   </si>
   <si>
@@ -157,6 +1840,621 @@
     <t>3122574761</t>
   </si>
   <si>
+    <t>3118477586</t>
+  </si>
+  <si>
+    <t>3103122921</t>
+  </si>
+  <si>
+    <t>3006329368</t>
+  </si>
+  <si>
+    <t>3217564212</t>
+  </si>
+  <si>
+    <t>3116169461</t>
+  </si>
+  <si>
+    <t>3104709057</t>
+  </si>
+  <si>
+    <t>3104420491</t>
+  </si>
+  <si>
+    <t>3042923000</t>
+  </si>
+  <si>
+    <t>3127231113</t>
+  </si>
+  <si>
+    <t>3206331894</t>
+  </si>
+  <si>
+    <t>3157423054</t>
+  </si>
+  <si>
+    <t>3113935884</t>
+  </si>
+  <si>
+    <t>3007802997</t>
+  </si>
+  <si>
+    <t>3108476292</t>
+  </si>
+  <si>
+    <t>3013494287</t>
+  </si>
+  <si>
+    <t>3136854490</t>
+  </si>
+  <si>
+    <t>3006376416</t>
+  </si>
+  <si>
+    <t>3182433174</t>
+  </si>
+  <si>
+    <t>3153296774</t>
+  </si>
+  <si>
+    <t>3160429565</t>
+  </si>
+  <si>
+    <t>3183632513</t>
+  </si>
+  <si>
+    <t>3122586681</t>
+  </si>
+  <si>
+    <t>3148140704</t>
+  </si>
+  <si>
+    <t>3167556578</t>
+  </si>
+  <si>
+    <t>3045475820</t>
+  </si>
+  <si>
+    <t>3042473004</t>
+  </si>
+  <si>
+    <t>3122874214</t>
+  </si>
+  <si>
+    <t>3508069882</t>
+  </si>
+  <si>
+    <t>3163255274</t>
+  </si>
+  <si>
+    <t>3197825366</t>
+  </si>
+  <si>
+    <t>3002410821</t>
+  </si>
+  <si>
+    <t>3176645419</t>
+  </si>
+  <si>
+    <t>3006558770</t>
+  </si>
+  <si>
+    <t>3046674829</t>
+  </si>
+  <si>
+    <t>3104001085</t>
+  </si>
+  <si>
+    <t>3004673940</t>
+  </si>
+  <si>
+    <t>3504663274</t>
+  </si>
+  <si>
+    <t>3164340170</t>
+  </si>
+  <si>
+    <t>3182599500</t>
+  </si>
+  <si>
+    <t>3007847558</t>
+  </si>
+  <si>
+    <t>3122834822</t>
+  </si>
+  <si>
+    <t>3164938636</t>
+  </si>
+  <si>
+    <t>3113730026</t>
+  </si>
+  <si>
+    <t>3013622702</t>
+  </si>
+  <si>
+    <t>3152592893</t>
+  </si>
+  <si>
+    <t>3016527258</t>
+  </si>
+  <si>
+    <t>3006129530</t>
+  </si>
+  <si>
+    <t>3147994084</t>
+  </si>
+  <si>
+    <t>3173763544</t>
+  </si>
+  <si>
+    <t>3184975648</t>
+  </si>
+  <si>
+    <t>3186051297</t>
+  </si>
+  <si>
+    <t>3155871144</t>
+  </si>
+  <si>
+    <t>3148239698</t>
+  </si>
+  <si>
+    <t>3013687836</t>
+  </si>
+  <si>
+    <t>3148420500</t>
+  </si>
+  <si>
+    <t>3017599930</t>
+  </si>
+  <si>
+    <t>3188488659</t>
+  </si>
+  <si>
+    <t>3212039044</t>
+  </si>
+  <si>
+    <t>3135869912</t>
+  </si>
+  <si>
+    <t>3142519287</t>
+  </si>
+  <si>
+    <t>3132413954</t>
+  </si>
+  <si>
+    <t>3116923580</t>
+  </si>
+  <si>
+    <t>3165271768</t>
+  </si>
+  <si>
+    <t>3174381024</t>
+  </si>
+  <si>
+    <t>3157562146</t>
+  </si>
+  <si>
+    <t>3105263671</t>
+  </si>
+  <si>
+    <t>3043767613</t>
+  </si>
+  <si>
+    <t>3006021999</t>
+  </si>
+  <si>
+    <t>3128718803</t>
+  </si>
+  <si>
+    <t>3146399636</t>
+  </si>
+  <si>
+    <t>3112033880</t>
+  </si>
+  <si>
+    <t>3014435630</t>
+  </si>
+  <si>
+    <t>3128788505</t>
+  </si>
+  <si>
+    <t>3136525779</t>
+  </si>
+  <si>
+    <t>3246513664</t>
+  </si>
+  <si>
+    <t>3124263175</t>
+  </si>
+  <si>
+    <t>3208252077</t>
+  </si>
+  <si>
+    <t>3043806221</t>
+  </si>
+  <si>
+    <t>3007772423</t>
+  </si>
+  <si>
+    <t>3002676708</t>
+  </si>
+  <si>
+    <t>3006655577</t>
+  </si>
+  <si>
+    <t>3153675792</t>
+  </si>
+  <si>
+    <t>7864100094</t>
+  </si>
+  <si>
+    <t>3007865035</t>
+  </si>
+  <si>
+    <t>3103391692</t>
+  </si>
+  <si>
+    <t>3136995666</t>
+  </si>
+  <si>
+    <t>3147733846</t>
+  </si>
+  <si>
+    <t>3155703251</t>
+  </si>
+  <si>
+    <t>3015513894</t>
+  </si>
+  <si>
+    <t>3005255744</t>
+  </si>
+  <si>
+    <t>3023682315</t>
+  </si>
+  <si>
+    <t>3208220813</t>
+  </si>
+  <si>
+    <t>3197094414</t>
+  </si>
+  <si>
+    <t>3164900431</t>
+  </si>
+  <si>
+    <t>3005632211</t>
+  </si>
+  <si>
+    <t>3194655121</t>
+  </si>
+  <si>
+    <t>3502672533</t>
+  </si>
+  <si>
+    <t>3176180229</t>
+  </si>
+  <si>
+    <t>3192409342</t>
+  </si>
+  <si>
+    <t>3208539269</t>
+  </si>
+  <si>
+    <t>3166979797</t>
+  </si>
+  <si>
+    <t>3128342465</t>
+  </si>
+  <si>
+    <t>3136448461</t>
+  </si>
+  <si>
+    <t>3012431035</t>
+  </si>
+  <si>
+    <t>3116723137</t>
+  </si>
+  <si>
+    <t>3242689700</t>
+  </si>
+  <si>
+    <t>3138798565</t>
+  </si>
+  <si>
+    <t>3005976123</t>
+  </si>
+  <si>
+    <t>3014624968</t>
+  </si>
+  <si>
+    <t>3138547701</t>
+  </si>
+  <si>
+    <t>3014305115</t>
+  </si>
+  <si>
+    <t>3108999229</t>
+  </si>
+  <si>
+    <t>3103582575</t>
+  </si>
+  <si>
+    <t>3137917511</t>
+  </si>
+  <si>
+    <t>3155434093</t>
+  </si>
+  <si>
+    <t>3123555737</t>
+  </si>
+  <si>
+    <t>3015848746</t>
+  </si>
+  <si>
+    <t>3013753737</t>
+  </si>
+  <si>
+    <t>3103899919</t>
+  </si>
+  <si>
+    <t>3214539137</t>
+  </si>
+  <si>
+    <t>3122113534</t>
+  </si>
+  <si>
+    <t>3103278304</t>
+  </si>
+  <si>
+    <t>3188271594</t>
+  </si>
+  <si>
+    <t>3102278304</t>
+  </si>
+  <si>
+    <t>3003562337</t>
+  </si>
+  <si>
+    <t>3042100333</t>
+  </si>
+  <si>
+    <t>3127357256</t>
+  </si>
+  <si>
+    <t>3103706233</t>
+  </si>
+  <si>
+    <t>3003569974</t>
+  </si>
+  <si>
+    <t>3146606338</t>
+  </si>
+  <si>
+    <t>3023767514</t>
+  </si>
+  <si>
+    <t>3128165388</t>
+  </si>
+  <si>
+    <t>3014083089</t>
+  </si>
+  <si>
+    <t>3003997810</t>
+  </si>
+  <si>
+    <t>3124783327</t>
+  </si>
+  <si>
+    <t>3023340249</t>
+  </si>
+  <si>
+    <t>3148202982</t>
+  </si>
+  <si>
+    <t>3006813638</t>
+  </si>
+  <si>
+    <t>3022647725</t>
+  </si>
+  <si>
+    <t>3182260783</t>
+  </si>
+  <si>
+    <t>3184635112</t>
+  </si>
+  <si>
+    <t>3044615859</t>
+  </si>
+  <si>
+    <t>3008032813</t>
+  </si>
+  <si>
+    <t>3106134361</t>
+  </si>
+  <si>
+    <t>3012077824</t>
+  </si>
+  <si>
+    <t>3214505101</t>
+  </si>
+  <si>
+    <t>3206937585</t>
+  </si>
+  <si>
+    <t>3045420600</t>
+  </si>
+  <si>
+    <t>3113039862</t>
+  </si>
+  <si>
+    <t>3216561978</t>
+  </si>
+  <si>
+    <t>3117863236</t>
+  </si>
+  <si>
+    <t>3117897533</t>
+  </si>
+  <si>
+    <t>3013105441</t>
+  </si>
+  <si>
+    <t>3504873918</t>
+  </si>
+  <si>
+    <t>3113849804</t>
+  </si>
+  <si>
+    <t>3042920574</t>
+  </si>
+  <si>
+    <t>3207251352</t>
+  </si>
+  <si>
+    <t>3046244828</t>
+  </si>
+  <si>
+    <t>3007849735</t>
+  </si>
+  <si>
+    <t>3112939408</t>
+  </si>
+  <si>
+    <t>3218858473</t>
+  </si>
+  <si>
+    <t>3246795888</t>
+  </si>
+  <si>
+    <t>3114452822</t>
+  </si>
+  <si>
+    <t>3132082996</t>
+  </si>
+  <si>
+    <t>3193341572</t>
+  </si>
+  <si>
+    <t>3003598580</t>
+  </si>
+  <si>
+    <t>3126485228</t>
+  </si>
+  <si>
+    <t>3017939171</t>
+  </si>
+  <si>
+    <t>3226544228</t>
+  </si>
+  <si>
+    <t>3143043272</t>
+  </si>
+  <si>
+    <t>3108451569</t>
+  </si>
+  <si>
+    <t>3136753998</t>
+  </si>
+  <si>
+    <t>3016641802</t>
+  </si>
+  <si>
+    <t>3014617600</t>
+  </si>
+  <si>
+    <t>3002990192</t>
+  </si>
+  <si>
+    <t>3024240708</t>
+  </si>
+  <si>
+    <t>3014090445</t>
+  </si>
+  <si>
+    <t>3245971172</t>
+  </si>
+  <si>
+    <t>3106399382</t>
+  </si>
+  <si>
+    <t>3215089418</t>
+  </si>
+  <si>
+    <t>3207187108</t>
+  </si>
+  <si>
+    <t>3134206717</t>
+  </si>
+  <si>
+    <t>3154081005</t>
+  </si>
+  <si>
+    <t>3017701216</t>
+  </si>
+  <si>
+    <t>3216445261</t>
+  </si>
+  <si>
+    <t>3206724101</t>
+  </si>
+  <si>
+    <t>3147514050</t>
+  </si>
+  <si>
+    <t>3128968941</t>
+  </si>
+  <si>
+    <t>3205470389</t>
+  </si>
+  <si>
+    <t>3004617306</t>
+  </si>
+  <si>
+    <t>3013479288</t>
+  </si>
+  <si>
+    <t>3013396180</t>
+  </si>
+  <si>
+    <t>3204278859</t>
+  </si>
+  <si>
+    <t>3104977628</t>
+  </si>
+  <si>
+    <t>3002196102</t>
+  </si>
+  <si>
+    <t>3007634068</t>
+  </si>
+  <si>
+    <t>3127677469</t>
+  </si>
+  <si>
+    <t>3043275675</t>
+  </si>
+  <si>
+    <t>3197703000</t>
+  </si>
+  <si>
+    <t>3113593396</t>
+  </si>
+  <si>
+    <t>3185186681</t>
+  </si>
+  <si>
+    <t>3005550599</t>
+  </si>
+  <si>
+    <t>3147589191</t>
+  </si>
+  <si>
+    <t>3137374368</t>
+  </si>
+  <si>
+    <t>3147565482</t>
+  </si>
+  <si>
     <t>WilPol8009</t>
   </si>
   <si>
@@ -175,23 +2473,527 @@
     <t>DavVas1525</t>
   </si>
   <si>
+    <t>NatGir1296</t>
+  </si>
+  <si>
+    <t>MatSal1782</t>
+  </si>
+  <si>
+    <t>LilBar1129</t>
+  </si>
+  <si>
+    <t>JohCor8390</t>
+  </si>
+  <si>
+    <t>MarEsp4924</t>
+  </si>
+  <si>
+    <t>JaiGir3252</t>
+  </si>
+  <si>
+    <t>MatBol5669</t>
+  </si>
+  <si>
+    <t>CarAch9089</t>
+  </si>
+  <si>
+    <t>FerRom6638</t>
+  </si>
+  <si>
+    <t>JuaSal1367</t>
+  </si>
+  <si>
+    <t>MarLop2043</t>
+  </si>
+  <si>
+    <t>DanHer4407</t>
+  </si>
+  <si>
+    <t>ClaArb1615</t>
+  </si>
+  <si>
+    <t>SarPin3897</t>
+  </si>
+  <si>
+    <t>CamVel0174</t>
+  </si>
+  <si>
+    <t>MarCha4737</t>
+  </si>
+  <si>
+    <t>RicVez3521</t>
+  </si>
+  <si>
+    <t>JuaDuk9996</t>
+  </si>
+  <si>
+    <t>MisMar0314</t>
+  </si>
+  <si>
+    <t>ArmSan3828</t>
+  </si>
+  <si>
+    <t>GusGil0578</t>
+  </si>
+  <si>
+    <t>AndBui9243</t>
+  </si>
+  <si>
+    <t>MarBed8250</t>
+  </si>
+  <si>
+    <t>DayAri5448</t>
+  </si>
+  <si>
+    <t>JesCru3713</t>
+  </si>
+  <si>
+    <t>AlbHer4791</t>
+  </si>
+  <si>
+    <t>GuiMaz3795</t>
+  </si>
+  <si>
+    <t>SerMay6103</t>
+  </si>
+  <si>
+    <t>JavApa3210</t>
+  </si>
+  <si>
+    <t>JuaPel5094</t>
+  </si>
+  <si>
+    <t>LedGra2222</t>
+  </si>
+  <si>
+    <t>AndCar8869</t>
+  </si>
+  <si>
+    <t>CriCad8446</t>
+  </si>
+  <si>
+    <t>LuiVer8524</t>
+  </si>
+  <si>
+    <t>CarCol2977</t>
+  </si>
+  <si>
+    <t>JuaRue5202</t>
+  </si>
+  <si>
+    <t>GuiCub8201</t>
+  </si>
+  <si>
+    <t>AndCas6807</t>
+  </si>
+  <si>
+    <t>NatLar0612</t>
+  </si>
+  <si>
+    <t>JosGut0392</t>
+  </si>
+  <si>
+    <t>ClaPer3858</t>
+  </si>
+  <si>
+    <t>AndSer4624</t>
+  </si>
+  <si>
+    <t>AleRui9686</t>
+  </si>
+  <si>
+    <t>JhoTir3975</t>
+  </si>
+  <si>
+    <t>JosCor6548</t>
+  </si>
+  <si>
+    <t>SarGir2502</t>
+  </si>
+  <si>
+    <t>MatVal7268</t>
+  </si>
+  <si>
+    <t>DanHer1149</t>
+  </si>
+  <si>
+    <t>AngBar4940</t>
+  </si>
+  <si>
+    <t>JuaZap8070</t>
+  </si>
+  <si>
+    <t>YenPra3261</t>
+  </si>
+  <si>
+    <t>DanHoy0224</t>
+  </si>
+  <si>
+    <t>FerRoa4292</t>
+  </si>
+  <si>
+    <t>JuaLoz2407</t>
+  </si>
+  <si>
+    <t>JosSan3591</t>
+  </si>
+  <si>
+    <t>SebMej3993</t>
+  </si>
+  <si>
+    <t>OliRub6037</t>
+  </si>
+  <si>
+    <t>JorBas1637</t>
+  </si>
+  <si>
+    <t>LauVar9668</t>
+  </si>
+  <si>
+    <t>ValMan4103</t>
+  </si>
+  <si>
+    <t>AnnLot7538</t>
+  </si>
+  <si>
+    <t>MauCas0176</t>
+  </si>
+  <si>
+    <t>JohYep5980</t>
+  </si>
+  <si>
+    <t>LuiSan5010</t>
+  </si>
+  <si>
+    <t>VicGar5273</t>
+  </si>
+  <si>
+    <t>SimOla8263</t>
+  </si>
+  <si>
+    <t>EdgNie0434</t>
+  </si>
+  <si>
+    <t>DonBen1361</t>
+  </si>
+  <si>
+    <t>MarPar7689</t>
+  </si>
+  <si>
+    <t>DanMir7913</t>
+  </si>
+  <si>
+    <t>FerLop5419</t>
+  </si>
+  <si>
+    <t>CriMar5673</t>
+  </si>
+  <si>
+    <t>JulVan9460</t>
+  </si>
+  <si>
+    <t>SebAgu0826</t>
+  </si>
+  <si>
+    <t>FraGav3047</t>
+  </si>
+  <si>
+    <t>MigMol0200</t>
+  </si>
+  <si>
+    <t>MarPer6381</t>
+  </si>
+  <si>
+    <t>MauMar0128</t>
+  </si>
+  <si>
+    <t>DanGut9510</t>
+  </si>
+  <si>
+    <t>JuaBot3319</t>
+  </si>
+  <si>
+    <t>GerAgu1264</t>
+  </si>
+  <si>
+    <t>EdwMad9061</t>
+  </si>
+  <si>
+    <t>VanDie1977</t>
+  </si>
+  <si>
+    <t>JuaVal6865</t>
+  </si>
+  <si>
+    <t>JavRam8654</t>
+  </si>
+  <si>
+    <t>CarMos4706</t>
+  </si>
+  <si>
+    <t>CarDel1456</t>
+  </si>
+  <si>
+    <t>JorVel5561</t>
+  </si>
+  <si>
+    <t>JuaGir9702</t>
+  </si>
+  <si>
+    <t>JuaTir7001</t>
+  </si>
+  <si>
+    <t>AngCar1075</t>
+  </si>
+  <si>
+    <t>CarVil4707</t>
+  </si>
+  <si>
+    <t>HubAce7446</t>
+  </si>
+  <si>
+    <t>WilLop9021</t>
+  </si>
+  <si>
+    <t>DavGut6669</t>
+  </si>
+  <si>
+    <t>AbdHat0524</t>
+  </si>
+  <si>
+    <t>SanZap0455</t>
+  </si>
+  <si>
+    <t>PedVer2338</t>
+  </si>
+  <si>
+    <t>LuzRic1865</t>
+  </si>
+  <si>
+    <t>CarGil8597</t>
+  </si>
+  <si>
+    <t>EdwCas9371</t>
+  </si>
+  <si>
+    <t>PaoLop1055</t>
+  </si>
+  <si>
+    <t>JuaSan1138</t>
+  </si>
+  <si>
+    <t>MarVel6364</t>
+  </si>
+  <si>
+    <t>EniDia8648</t>
+  </si>
+  <si>
+    <t>MicRod7093</t>
+  </si>
+  <si>
+    <t>JulCor4250</t>
+  </si>
+  <si>
+    <t>EdiBed1555</t>
+  </si>
+  <si>
+    <t>JuaCor0890</t>
+  </si>
+  <si>
+    <t>ElkVar3266</t>
+  </si>
+  <si>
+    <t>JuaMon9693</t>
+  </si>
+  <si>
+    <t>JorSus7570</t>
+  </si>
+  <si>
+    <t>MigLon5323</t>
+  </si>
+  <si>
+    <t>JulAra0748</t>
+  </si>
+  <si>
+    <t>JosVar5450</t>
+  </si>
+  <si>
+    <t>WilMej9724</t>
+  </si>
+  <si>
+    <t>MarPat2931</t>
+  </si>
+  <si>
+    <t>JuaAgu0315</t>
+  </si>
+  <si>
+    <t>JuaRes4718</t>
+  </si>
+  <si>
+    <t>AleMar4161</t>
+  </si>
+  <si>
+    <t>MigBar0899</t>
+  </si>
+  <si>
+    <t>MigTri1396</t>
+  </si>
+  <si>
+    <t>LuiPor8558</t>
+  </si>
+  <si>
+    <t>LauCue3534</t>
+  </si>
+  <si>
+    <t>AndAra6769</t>
+  </si>
+  <si>
+    <t>AnaSer1687</t>
+  </si>
+  <si>
+    <t>IntPat6306</t>
+  </si>
+  <si>
+    <t>DavUri1768</t>
+  </si>
+  <si>
+    <t>AngAng7660</t>
+  </si>
+  <si>
+    <t>NatLoa0330</t>
+  </si>
+  <si>
+    <t>JuaCes0806</t>
+  </si>
+  <si>
+    <t>RobMos3602</t>
+  </si>
+  <si>
+    <t>ManRam0071</t>
+  </si>
+  <si>
+    <t>JorHen3923</t>
+  </si>
+  <si>
+    <t>DiaFad6535</t>
+  </si>
+  <si>
+    <t>DanMon8143</t>
+  </si>
+  <si>
+    <t>JorI.s6544</t>
+  </si>
+  <si>
+    <t>AleSal2973</t>
+  </si>
+  <si>
+    <t>LucTob6819</t>
+  </si>
+  <si>
+    <t>JuaZul2697</t>
+  </si>
+  <si>
+    <t>JulGar9122</t>
+  </si>
+  <si>
+    <t>LinSal8112</t>
+  </si>
+  <si>
+    <t>CatAlv7646</t>
+  </si>
+  <si>
+    <t>EliMej4656</t>
+  </si>
+  <si>
     <t>2023-02-10</t>
   </si>
   <si>
+    <t>2022-12-13</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2022-12-15</t>
+  </si>
+  <si>
+    <t>2022-10-11</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-20</t>
+  </si>
+  <si>
+    <t>2022-09-21</t>
+  </si>
+  <si>
+    <t>2023-02-18</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2023-02-02</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2023-03-08</t>
+  </si>
+  <si>
+    <t>2022-07-07</t>
+  </si>
+  <si>
+    <t>2022-12-06</t>
+  </si>
+  <si>
+    <t>2022-05-14</t>
+  </si>
+  <si>
+    <t>2022-11-22</t>
+  </si>
+  <si>
     <t>nan</t>
   </si>
   <si>
     <t>completa</t>
   </si>
   <si>
+    <t>invalida</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>Retirado</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,19 +3056,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,7 +3102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,27 +3134,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,24 +3168,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,16 +3343,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD241"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,215 +3379,6556 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>392</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>813</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>983</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>310</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>393</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>601</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>814</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>963</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>984</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>602</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>815</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>983</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>603</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>815</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>983</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>396</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>604</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>815</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>983</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>397</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>605</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>816</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>983</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>398</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>606</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>817</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>983</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" t="s">
+        <v>607</v>
+      </c>
+      <c r="F9" t="s">
+        <v>818</v>
+      </c>
+      <c r="H9" t="s">
+        <v>983</v>
+      </c>
+      <c r="I9" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" t="s">
+        <v>608</v>
+      </c>
+      <c r="F10" t="s">
+        <v>819</v>
+      </c>
+      <c r="G10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" t="s">
+        <v>984</v>
+      </c>
+      <c r="I10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F11" t="s">
+        <v>819</v>
+      </c>
+      <c r="H11" t="s">
+        <v>983</v>
+      </c>
+      <c r="I11" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" t="s">
+        <v>610</v>
+      </c>
+      <c r="F12" t="s">
+        <v>820</v>
+      </c>
+      <c r="H12" t="s">
+        <v>985</v>
+      </c>
+      <c r="I12" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E13" t="s">
+        <v>610</v>
+      </c>
+      <c r="F13" t="s">
+        <v>820</v>
+      </c>
+      <c r="G13" t="s">
+        <v>361</v>
+      </c>
+      <c r="H13" t="s">
+        <v>984</v>
+      </c>
+      <c r="I13" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E14" t="s">
+        <v>611</v>
+      </c>
+      <c r="F14" t="s">
+        <v>821</v>
+      </c>
+      <c r="H14" t="s">
+        <v>983</v>
+      </c>
+      <c r="I14" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F15" t="s">
+        <v>822</v>
+      </c>
+      <c r="H15" t="s">
+        <v>983</v>
+      </c>
+      <c r="I15" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" t="s">
+        <v>613</v>
+      </c>
+      <c r="F16" t="s">
+        <v>823</v>
+      </c>
+      <c r="G16" t="s">
+        <v>964</v>
+      </c>
+      <c r="H16" t="s">
+        <v>984</v>
+      </c>
+      <c r="I16" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" t="s">
+        <v>406</v>
+      </c>
+      <c r="E17" t="s">
+        <v>614</v>
+      </c>
+      <c r="F17" t="s">
+        <v>824</v>
+      </c>
+      <c r="G17" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" t="s">
+        <v>984</v>
+      </c>
+      <c r="I17" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" t="s">
+        <v>614</v>
+      </c>
+      <c r="F18" t="s">
+        <v>824</v>
+      </c>
+      <c r="G18" t="s">
+        <v>388</v>
+      </c>
+      <c r="H18" t="s">
+        <v>985</v>
+      </c>
+      <c r="I18" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>323</v>
+      </c>
+      <c r="D19" t="s">
+        <v>407</v>
+      </c>
+      <c r="E19" t="s">
+        <v>615</v>
+      </c>
+      <c r="F19" t="s">
+        <v>825</v>
+      </c>
+      <c r="H19" t="s">
+        <v>983</v>
+      </c>
+      <c r="I19" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F20" t="s">
+        <v>826</v>
+      </c>
+      <c r="H20" t="s">
+        <v>983</v>
+      </c>
+      <c r="I20" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>617</v>
+      </c>
+      <c r="F21" t="s">
+        <v>827</v>
+      </c>
+      <c r="G21" t="s">
+        <v>370</v>
+      </c>
+      <c r="H21" t="s">
+        <v>984</v>
+      </c>
+      <c r="I21" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" t="s">
+        <v>618</v>
+      </c>
+      <c r="F22" t="s">
+        <v>828</v>
+      </c>
+      <c r="G22" t="s">
+        <v>311</v>
+      </c>
+      <c r="H22" t="s">
+        <v>984</v>
+      </c>
+      <c r="I22" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F23" t="s">
+        <v>828</v>
+      </c>
+      <c r="G23" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" t="s">
+        <v>984</v>
+      </c>
+      <c r="I23" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" t="s">
+        <v>619</v>
+      </c>
+      <c r="F24" t="s">
+        <v>829</v>
+      </c>
+      <c r="H24" t="s">
+        <v>983</v>
+      </c>
+      <c r="I24" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E25" t="s">
+        <v>620</v>
+      </c>
+      <c r="F25" t="s">
+        <v>829</v>
+      </c>
+      <c r="G25" t="s">
+        <v>349</v>
+      </c>
+      <c r="H25" t="s">
+        <v>984</v>
+      </c>
+      <c r="I25" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D26" t="s">
+        <v>412</v>
+      </c>
+      <c r="E26" t="s">
+        <v>621</v>
+      </c>
+      <c r="F26" t="s">
+        <v>830</v>
+      </c>
+      <c r="H26" t="s">
+        <v>983</v>
+      </c>
+      <c r="I26" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E27" t="s">
+        <v>622</v>
+      </c>
+      <c r="F27" t="s">
+        <v>831</v>
+      </c>
+      <c r="H27" t="s">
+        <v>983</v>
+      </c>
+      <c r="I27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s">
+        <v>329</v>
+      </c>
+      <c r="D28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" t="s">
+        <v>623</v>
+      </c>
+      <c r="F28" t="s">
+        <v>832</v>
+      </c>
+      <c r="G28" t="s">
+        <v>965</v>
+      </c>
+      <c r="H28" t="s">
+        <v>984</v>
+      </c>
+      <c r="I28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" t="s">
+        <v>415</v>
+      </c>
+      <c r="E29" t="s">
+        <v>624</v>
+      </c>
+      <c r="F29" t="s">
+        <v>833</v>
+      </c>
+      <c r="H29" t="s">
+        <v>983</v>
+      </c>
+      <c r="I29" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" t="s">
+        <v>416</v>
+      </c>
+      <c r="E30" t="s">
+        <v>625</v>
+      </c>
+      <c r="F30" t="s">
+        <v>834</v>
+      </c>
+      <c r="G30" t="s">
+        <v>966</v>
+      </c>
+      <c r="H30" t="s">
+        <v>986</v>
+      </c>
+      <c r="I30" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E31" t="s">
+        <v>626</v>
+      </c>
+      <c r="F31" t="s">
+        <v>835</v>
+      </c>
+      <c r="G31" t="s">
+        <v>311</v>
+      </c>
+      <c r="H31" t="s">
+        <v>985</v>
+      </c>
+      <c r="I31" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" t="s">
+        <v>418</v>
+      </c>
+      <c r="E32" t="s">
+        <v>627</v>
+      </c>
+      <c r="F32" t="s">
+        <v>835</v>
+      </c>
+      <c r="G32" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" t="s">
+        <v>984</v>
+      </c>
+      <c r="I32" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>331</v>
+      </c>
+      <c r="D33" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" t="s">
+        <v>628</v>
+      </c>
+      <c r="F33" t="s">
+        <v>836</v>
+      </c>
+      <c r="G33" t="s">
+        <v>966</v>
+      </c>
+      <c r="H33" t="s">
+        <v>986</v>
+      </c>
+      <c r="I33" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" t="s">
+        <v>420</v>
+      </c>
+      <c r="E34" t="s">
+        <v>629</v>
+      </c>
+      <c r="F34" t="s">
+        <v>837</v>
+      </c>
+      <c r="H34" t="s">
+        <v>983</v>
+      </c>
+      <c r="I34" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
+      <c r="D35" t="s">
+        <v>421</v>
+      </c>
+      <c r="E35" t="s">
+        <v>630</v>
+      </c>
+      <c r="F35" t="s">
+        <v>837</v>
+      </c>
+      <c r="H35" t="s">
+        <v>983</v>
+      </c>
+      <c r="I35" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D36" t="s">
+        <v>422</v>
+      </c>
+      <c r="E36" t="s">
+        <v>631</v>
+      </c>
+      <c r="F36" t="s">
+        <v>837</v>
+      </c>
+      <c r="G36" t="s">
+        <v>374</v>
+      </c>
+      <c r="H36" t="s">
+        <v>984</v>
+      </c>
+      <c r="I36" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" t="s">
+        <v>333</v>
+      </c>
+      <c r="D37" t="s">
+        <v>423</v>
+      </c>
+      <c r="E37" t="s">
+        <v>632</v>
+      </c>
+      <c r="F37" t="s">
+        <v>838</v>
+      </c>
+      <c r="H37" t="s">
+        <v>985</v>
+      </c>
+      <c r="I37" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" t="s">
+        <v>423</v>
+      </c>
+      <c r="E38" t="s">
+        <v>632</v>
+      </c>
+      <c r="F38" t="s">
+        <v>838</v>
+      </c>
+      <c r="G38" t="s">
+        <v>967</v>
+      </c>
+      <c r="H38" t="s">
+        <v>984</v>
+      </c>
+      <c r="I38" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" t="s">
+        <v>334</v>
+      </c>
+      <c r="D39" t="s">
+        <v>424</v>
+      </c>
+      <c r="E39" t="s">
+        <v>633</v>
+      </c>
+      <c r="F39" t="s">
+        <v>839</v>
+      </c>
+      <c r="H39" t="s">
+        <v>983</v>
+      </c>
+      <c r="I39" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>335</v>
+      </c>
+      <c r="D40" t="s">
+        <v>425</v>
+      </c>
+      <c r="E40" t="s">
+        <v>633</v>
+      </c>
+      <c r="F40" t="s">
+        <v>839</v>
+      </c>
+      <c r="H40" t="s">
+        <v>983</v>
+      </c>
+      <c r="I40" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="s">
+        <v>335</v>
+      </c>
+      <c r="D41" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" t="s">
+        <v>633</v>
+      </c>
+      <c r="F41" t="s">
+        <v>839</v>
+      </c>
+      <c r="H41" t="s">
+        <v>983</v>
+      </c>
+      <c r="I41" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>427</v>
+      </c>
+      <c r="E42" t="s">
+        <v>634</v>
+      </c>
+      <c r="F42" t="s">
+        <v>840</v>
+      </c>
+      <c r="G42" t="s">
+        <v>360</v>
+      </c>
+      <c r="H42" t="s">
+        <v>984</v>
+      </c>
+      <c r="I42" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" t="s">
+        <v>317</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>635</v>
+      </c>
+      <c r="F43" t="s">
+        <v>841</v>
+      </c>
+      <c r="G43" t="s">
+        <v>968</v>
+      </c>
+      <c r="H43" t="s">
+        <v>984</v>
+      </c>
+      <c r="I43" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>635</v>
+      </c>
+      <c r="F44" t="s">
+        <v>841</v>
+      </c>
+      <c r="G44" t="s">
+        <v>374</v>
+      </c>
+      <c r="H44" t="s">
+        <v>984</v>
+      </c>
+      <c r="I44" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" t="s">
+        <v>428</v>
+      </c>
+      <c r="E45" t="s">
+        <v>636</v>
+      </c>
+      <c r="F45" t="s">
+        <v>842</v>
+      </c>
+      <c r="G45" t="s">
+        <v>969</v>
+      </c>
+      <c r="H45" t="s">
+        <v>987</v>
+      </c>
+      <c r="I45" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" t="s">
+        <v>429</v>
+      </c>
+      <c r="E46" t="s">
+        <v>637</v>
+      </c>
+      <c r="F46" t="s">
+        <v>843</v>
+      </c>
+      <c r="H46" t="s">
+        <v>983</v>
+      </c>
+      <c r="I46" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" t="s">
+        <v>430</v>
+      </c>
+      <c r="E47" t="s">
+        <v>638</v>
+      </c>
+      <c r="F47" t="s">
+        <v>843</v>
+      </c>
+      <c r="H47" t="s">
+        <v>983</v>
+      </c>
+      <c r="I47" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" t="s">
+        <v>431</v>
+      </c>
+      <c r="E48" t="s">
+        <v>639</v>
+      </c>
+      <c r="F48" t="s">
+        <v>844</v>
+      </c>
+      <c r="G48" t="s">
+        <v>970</v>
+      </c>
+      <c r="H48" t="s">
+        <v>984</v>
+      </c>
+      <c r="I48" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>340</v>
+      </c>
+      <c r="D49" t="s">
+        <v>432</v>
+      </c>
+      <c r="E49" t="s">
+        <v>640</v>
+      </c>
+      <c r="F49" t="s">
+        <v>845</v>
+      </c>
+      <c r="H49" t="s">
+        <v>983</v>
+      </c>
+      <c r="I49" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D50" t="s">
+        <v>432</v>
+      </c>
+      <c r="E50" t="s">
+        <v>640</v>
+      </c>
+      <c r="F50" t="s">
+        <v>845</v>
+      </c>
+      <c r="H50" t="s">
+        <v>983</v>
+      </c>
+      <c r="I50" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" t="s">
+        <v>342</v>
+      </c>
+      <c r="D51" t="s">
+        <v>433</v>
+      </c>
+      <c r="E51" t="s">
+        <v>641</v>
+      </c>
+      <c r="F51" t="s">
+        <v>846</v>
+      </c>
+      <c r="G51" t="s">
+        <v>971</v>
+      </c>
+      <c r="H51" t="s">
+        <v>984</v>
+      </c>
+      <c r="I51" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>343</v>
+      </c>
+      <c r="D52" t="s">
+        <v>434</v>
+      </c>
+      <c r="E52" t="s">
+        <v>642</v>
+      </c>
+      <c r="F52" t="s">
+        <v>847</v>
+      </c>
+      <c r="G52" t="s">
+        <v>972</v>
+      </c>
+      <c r="H52" t="s">
+        <v>984</v>
+      </c>
+      <c r="I52" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
+        <v>332</v>
+      </c>
+      <c r="D53" t="s">
+        <v>435</v>
+      </c>
+      <c r="E53" t="s">
+        <v>643</v>
+      </c>
+      <c r="F53" t="s">
+        <v>848</v>
+      </c>
+      <c r="H53" t="s">
+        <v>983</v>
+      </c>
+      <c r="I53" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" t="s">
+        <v>436</v>
+      </c>
+      <c r="E54" t="s">
+        <v>644</v>
+      </c>
+      <c r="F54" t="s">
+        <v>849</v>
+      </c>
+      <c r="H54" t="s">
+        <v>983</v>
+      </c>
+      <c r="I54" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D55" t="s">
+        <v>437</v>
+      </c>
+      <c r="E55" t="s">
+        <v>645</v>
+      </c>
+      <c r="F55" t="s">
+        <v>850</v>
+      </c>
+      <c r="H55" t="s">
+        <v>983</v>
+      </c>
+      <c r="I55" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" t="s">
+        <v>438</v>
+      </c>
+      <c r="E56" t="s">
+        <v>646</v>
+      </c>
+      <c r="F56" t="s">
+        <v>851</v>
+      </c>
+      <c r="G56" t="s">
+        <v>334</v>
+      </c>
+      <c r="H56" t="s">
+        <v>984</v>
+      </c>
+      <c r="I56" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" t="s">
+        <v>439</v>
+      </c>
+      <c r="E57" t="s">
+        <v>647</v>
+      </c>
+      <c r="F57" t="s">
+        <v>852</v>
+      </c>
+      <c r="H57" t="s">
+        <v>983</v>
+      </c>
+      <c r="I57" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>199</v>
+      </c>
+      <c r="C58" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" t="s">
+        <v>440</v>
+      </c>
+      <c r="E58" t="s">
+        <v>648</v>
+      </c>
+      <c r="F58" t="s">
+        <v>853</v>
+      </c>
+      <c r="H58" t="s">
+        <v>983</v>
+      </c>
+      <c r="I58" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="B59" t="s">
+        <v>200</v>
+      </c>
+      <c r="C59" t="s">
+        <v>346</v>
+      </c>
+      <c r="D59" t="s">
+        <v>441</v>
+      </c>
+      <c r="E59" t="s">
+        <v>649</v>
+      </c>
+      <c r="F59" t="s">
+        <v>854</v>
+      </c>
+      <c r="H59" t="s">
+        <v>983</v>
+      </c>
+      <c r="I59" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D60" t="s">
+        <v>442</v>
+      </c>
+      <c r="E60" t="s">
+        <v>650</v>
+      </c>
+      <c r="F60" t="s">
+        <v>855</v>
+      </c>
+      <c r="G60" t="s">
+        <v>355</v>
+      </c>
+      <c r="H60" t="s">
+        <v>984</v>
+      </c>
+      <c r="I60" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="I9" t="s">
-        <v>52</v>
+      <c r="B61" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" t="s">
+        <v>348</v>
+      </c>
+      <c r="D61" t="s">
+        <v>443</v>
+      </c>
+      <c r="E61" t="s">
+        <v>651</v>
+      </c>
+      <c r="F61" t="s">
+        <v>856</v>
+      </c>
+      <c r="H61" t="s">
+        <v>983</v>
+      </c>
+      <c r="I61" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" t="s">
+        <v>349</v>
+      </c>
+      <c r="D62" t="s">
+        <v>444</v>
+      </c>
+      <c r="E62" t="s">
+        <v>652</v>
+      </c>
+      <c r="F62" t="s">
+        <v>857</v>
+      </c>
+      <c r="G62" t="s">
+        <v>346</v>
+      </c>
+      <c r="H62" t="s">
+        <v>984</v>
+      </c>
+      <c r="I62" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" t="s">
+        <v>444</v>
+      </c>
+      <c r="E63" t="s">
+        <v>652</v>
+      </c>
+      <c r="F63" t="s">
+        <v>857</v>
+      </c>
+      <c r="G63" t="s">
+        <v>973</v>
+      </c>
+      <c r="H63" t="s">
+        <v>984</v>
+      </c>
+      <c r="I63" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" t="s">
+        <v>445</v>
+      </c>
+      <c r="E64" t="s">
+        <v>653</v>
+      </c>
+      <c r="F64" t="s">
+        <v>858</v>
+      </c>
+      <c r="G64" t="s">
+        <v>329</v>
+      </c>
+      <c r="H64" t="s">
+        <v>984</v>
+      </c>
+      <c r="I64" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" t="s">
+        <v>350</v>
+      </c>
+      <c r="D65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E65" t="s">
+        <v>654</v>
+      </c>
+      <c r="F65" t="s">
+        <v>858</v>
+      </c>
+      <c r="H65" t="s">
+        <v>983</v>
+      </c>
+      <c r="I65" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" t="s">
+        <v>447</v>
+      </c>
+      <c r="E66" t="s">
+        <v>655</v>
+      </c>
+      <c r="F66" t="s">
+        <v>859</v>
+      </c>
+      <c r="G66" t="s">
+        <v>375</v>
+      </c>
+      <c r="H66" t="s">
+        <v>984</v>
+      </c>
+      <c r="I66" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" t="s">
+        <v>448</v>
+      </c>
+      <c r="E67" t="s">
+        <v>656</v>
+      </c>
+      <c r="F67" t="s">
+        <v>860</v>
+      </c>
+      <c r="G67" t="s">
+        <v>315</v>
+      </c>
+      <c r="H67" t="s">
+        <v>984</v>
+      </c>
+      <c r="I67" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" t="s">
+        <v>449</v>
+      </c>
+      <c r="E68" t="s">
+        <v>657</v>
+      </c>
+      <c r="F68" t="s">
+        <v>861</v>
+      </c>
+      <c r="H68" t="s">
+        <v>983</v>
+      </c>
+      <c r="I68" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" t="s">
+        <v>344</v>
+      </c>
+      <c r="D69" t="s">
+        <v>450</v>
+      </c>
+      <c r="E69" t="s">
+        <v>658</v>
+      </c>
+      <c r="F69" t="s">
+        <v>861</v>
+      </c>
+      <c r="G69" t="s">
+        <v>352</v>
+      </c>
+      <c r="H69" t="s">
+        <v>984</v>
+      </c>
+      <c r="I69" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C70" t="s">
+        <v>352</v>
+      </c>
+      <c r="D70" t="s">
+        <v>451</v>
+      </c>
+      <c r="E70" t="s">
+        <v>659</v>
+      </c>
+      <c r="F70" t="s">
+        <v>861</v>
+      </c>
+      <c r="G70" t="s">
+        <v>352</v>
+      </c>
+      <c r="H70" t="s">
+        <v>984</v>
+      </c>
+      <c r="I70" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>321</v>
+      </c>
+      <c r="D71" t="s">
+        <v>452</v>
+      </c>
+      <c r="E71" t="s">
+        <v>660</v>
+      </c>
+      <c r="F71" t="s">
+        <v>861</v>
+      </c>
+      <c r="G71" t="s">
+        <v>344</v>
+      </c>
+      <c r="H71" t="s">
+        <v>984</v>
+      </c>
+      <c r="I71" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>340</v>
+      </c>
+      <c r="D72" t="s">
+        <v>449</v>
+      </c>
+      <c r="E72" t="s">
+        <v>657</v>
+      </c>
+      <c r="F72" t="s">
+        <v>861</v>
+      </c>
+      <c r="H72" t="s">
+        <v>983</v>
+      </c>
+      <c r="I72" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" t="s">
+        <v>353</v>
+      </c>
+      <c r="D73" t="s">
+        <v>453</v>
+      </c>
+      <c r="E73" t="s">
+        <v>661</v>
+      </c>
+      <c r="F73" t="s">
+        <v>862</v>
+      </c>
+      <c r="H73" t="s">
+        <v>983</v>
+      </c>
+      <c r="I73" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" t="s">
+        <v>312</v>
+      </c>
+      <c r="D74" t="s">
+        <v>454</v>
+      </c>
+      <c r="E74" t="s">
+        <v>662</v>
+      </c>
+      <c r="F74" t="s">
+        <v>863</v>
+      </c>
+      <c r="H74" t="s">
+        <v>983</v>
+      </c>
+      <c r="I74" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" t="s">
+        <v>455</v>
+      </c>
+      <c r="E75" t="s">
+        <v>663</v>
+      </c>
+      <c r="F75" t="s">
+        <v>864</v>
+      </c>
+      <c r="G75" t="s">
+        <v>375</v>
+      </c>
+      <c r="H75" t="s">
+        <v>984</v>
+      </c>
+      <c r="I75" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" t="s">
+        <v>354</v>
+      </c>
+      <c r="D76" t="s">
+        <v>456</v>
+      </c>
+      <c r="E76" t="s">
+        <v>664</v>
+      </c>
+      <c r="F76" t="s">
+        <v>864</v>
+      </c>
+      <c r="G76" t="s">
+        <v>367</v>
+      </c>
+      <c r="H76" t="s">
+        <v>984</v>
+      </c>
+      <c r="I76" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" t="s">
+        <v>665</v>
+      </c>
+      <c r="F77" t="s">
+        <v>864</v>
+      </c>
+      <c r="G77" t="s">
+        <v>379</v>
+      </c>
+      <c r="H77" t="s">
+        <v>984</v>
+      </c>
+      <c r="I77" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" t="s">
+        <v>355</v>
+      </c>
+      <c r="D78" t="s">
+        <v>457</v>
+      </c>
+      <c r="E78" t="s">
+        <v>666</v>
+      </c>
+      <c r="F78" t="s">
+        <v>864</v>
+      </c>
+      <c r="H78" t="s">
+        <v>983</v>
+      </c>
+      <c r="I78" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" t="s">
+        <v>458</v>
+      </c>
+      <c r="E79" t="s">
+        <v>667</v>
+      </c>
+      <c r="F79" t="s">
+        <v>864</v>
+      </c>
+      <c r="G79" t="s">
+        <v>325</v>
+      </c>
+      <c r="H79" t="s">
+        <v>984</v>
+      </c>
+      <c r="I79" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" t="s">
+        <v>459</v>
+      </c>
+      <c r="E80" t="s">
+        <v>668</v>
+      </c>
+      <c r="F80" t="s">
+        <v>864</v>
+      </c>
+      <c r="G80" t="s">
+        <v>974</v>
+      </c>
+      <c r="H80" t="s">
+        <v>984</v>
+      </c>
+      <c r="I80" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" t="s">
+        <v>460</v>
+      </c>
+      <c r="E81" t="s">
+        <v>669</v>
+      </c>
+      <c r="F81" t="s">
+        <v>865</v>
+      </c>
+      <c r="G81" t="s">
+        <v>975</v>
+      </c>
+      <c r="H81" t="s">
+        <v>984</v>
+      </c>
+      <c r="I81" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" t="s">
+        <v>330</v>
+      </c>
+      <c r="D82" t="s">
+        <v>461</v>
+      </c>
+      <c r="E82" t="s">
+        <v>670</v>
+      </c>
+      <c r="F82" t="s">
+        <v>866</v>
+      </c>
+      <c r="H82" t="s">
+        <v>983</v>
+      </c>
+      <c r="I82" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" t="s">
+        <v>357</v>
+      </c>
+      <c r="D83" t="s">
+        <v>462</v>
+      </c>
+      <c r="E83" t="s">
+        <v>671</v>
+      </c>
+      <c r="F83" t="s">
+        <v>867</v>
+      </c>
+      <c r="G83" t="s">
+        <v>964</v>
+      </c>
+      <c r="H83" t="s">
+        <v>984</v>
+      </c>
+      <c r="I83" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>341</v>
+      </c>
+      <c r="D84" t="s">
+        <v>463</v>
+      </c>
+      <c r="E84" t="s">
+        <v>672</v>
+      </c>
+      <c r="F84" t="s">
+        <v>868</v>
+      </c>
+      <c r="H84" t="s">
+        <v>983</v>
+      </c>
+      <c r="I84" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" t="s">
+        <v>340</v>
+      </c>
+      <c r="D85" t="s">
+        <v>464</v>
+      </c>
+      <c r="E85" t="s">
+        <v>673</v>
+      </c>
+      <c r="F85" t="s">
+        <v>868</v>
+      </c>
+      <c r="H85" t="s">
+        <v>983</v>
+      </c>
+      <c r="I85" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" t="s">
+        <v>340</v>
+      </c>
+      <c r="D86" t="s">
+        <v>465</v>
+      </c>
+      <c r="E86" t="s">
+        <v>674</v>
+      </c>
+      <c r="F86" t="s">
+        <v>868</v>
+      </c>
+      <c r="H86" t="s">
+        <v>983</v>
+      </c>
+      <c r="I86" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" t="s">
+        <v>466</v>
+      </c>
+      <c r="E87" t="s">
+        <v>675</v>
+      </c>
+      <c r="F87" t="s">
+        <v>868</v>
+      </c>
+      <c r="H87" t="s">
+        <v>983</v>
+      </c>
+      <c r="I87" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" t="s">
+        <v>358</v>
+      </c>
+      <c r="D88" t="s">
+        <v>467</v>
+      </c>
+      <c r="E88" t="s">
+        <v>676</v>
+      </c>
+      <c r="F88" t="s">
+        <v>869</v>
+      </c>
+      <c r="G88" t="s">
+        <v>345</v>
+      </c>
+      <c r="H88" t="s">
+        <v>984</v>
+      </c>
+      <c r="I88" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" t="s">
+        <v>341</v>
+      </c>
+      <c r="D89" t="s">
+        <v>468</v>
+      </c>
+      <c r="E89" t="s">
+        <v>677</v>
+      </c>
+      <c r="F89" t="s">
+        <v>870</v>
+      </c>
+      <c r="H89" t="s">
+        <v>983</v>
+      </c>
+      <c r="I89" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>216</v>
+      </c>
+      <c r="C90" t="s">
+        <v>339</v>
+      </c>
+      <c r="D90" t="s">
+        <v>469</v>
+      </c>
+      <c r="E90" t="s">
+        <v>678</v>
+      </c>
+      <c r="F90" t="s">
+        <v>870</v>
+      </c>
+      <c r="H90" t="s">
+        <v>983</v>
+      </c>
+      <c r="I90" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>216</v>
+      </c>
+      <c r="C91" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" t="s">
+        <v>468</v>
+      </c>
+      <c r="E91" t="s">
+        <v>677</v>
+      </c>
+      <c r="F91" t="s">
+        <v>870</v>
+      </c>
+      <c r="H91" t="s">
+        <v>983</v>
+      </c>
+      <c r="I91" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" t="s">
+        <v>470</v>
+      </c>
+      <c r="E92" t="s">
+        <v>679</v>
+      </c>
+      <c r="F92" t="s">
+        <v>871</v>
+      </c>
+      <c r="H92" t="s">
+        <v>983</v>
+      </c>
+      <c r="I92" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" t="s">
+        <v>471</v>
+      </c>
+      <c r="E93" t="s">
+        <v>680</v>
+      </c>
+      <c r="F93" t="s">
+        <v>872</v>
+      </c>
+      <c r="G93" t="s">
+        <v>311</v>
+      </c>
+      <c r="H93" t="s">
+        <v>984</v>
+      </c>
+      <c r="I93" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" t="s">
+        <v>360</v>
+      </c>
+      <c r="D94" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" t="s">
+        <v>681</v>
+      </c>
+      <c r="F94" t="s">
+        <v>873</v>
+      </c>
+      <c r="H94" t="s">
+        <v>983</v>
+      </c>
+      <c r="I94" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" t="s">
+        <v>332</v>
+      </c>
+      <c r="D95" t="s">
+        <v>473</v>
+      </c>
+      <c r="E95" t="s">
+        <v>682</v>
+      </c>
+      <c r="F95" t="s">
+        <v>874</v>
+      </c>
+      <c r="G95" t="s">
+        <v>976</v>
+      </c>
+      <c r="H95" t="s">
+        <v>984</v>
+      </c>
+      <c r="I95" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" t="s">
+        <v>474</v>
+      </c>
+      <c r="E96" t="s">
+        <v>683</v>
+      </c>
+      <c r="F96" t="s">
+        <v>875</v>
+      </c>
+      <c r="H96" t="s">
+        <v>983</v>
+      </c>
+      <c r="I96" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" t="s">
+        <v>312</v>
+      </c>
+      <c r="D97" t="s">
+        <v>475</v>
+      </c>
+      <c r="E97" t="s">
+        <v>684</v>
+      </c>
+      <c r="F97" t="s">
+        <v>876</v>
+      </c>
+      <c r="H97" t="s">
+        <v>983</v>
+      </c>
+      <c r="I97" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>72</v>
+      </c>
+      <c r="B98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C98" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" t="s">
+        <v>476</v>
+      </c>
+      <c r="E98" t="s">
+        <v>685</v>
+      </c>
+      <c r="F98" t="s">
+        <v>876</v>
+      </c>
+      <c r="G98" t="s">
+        <v>375</v>
+      </c>
+      <c r="H98" t="s">
+        <v>984</v>
+      </c>
+      <c r="I98" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" t="s">
+        <v>312</v>
+      </c>
+      <c r="D99" t="s">
+        <v>477</v>
+      </c>
+      <c r="E99" t="s">
+        <v>686</v>
+      </c>
+      <c r="F99" t="s">
+        <v>876</v>
+      </c>
+      <c r="H99" t="s">
+        <v>983</v>
+      </c>
+      <c r="I99" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B100" t="s">
+        <v>223</v>
+      </c>
+      <c r="C100" t="s">
+        <v>340</v>
+      </c>
+      <c r="D100" t="s">
+        <v>478</v>
+      </c>
+      <c r="E100" t="s">
+        <v>687</v>
+      </c>
+      <c r="F100" t="s">
+        <v>877</v>
+      </c>
+      <c r="G100" t="s">
+        <v>371</v>
+      </c>
+      <c r="H100" t="s">
+        <v>984</v>
+      </c>
+      <c r="I100" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" t="s">
+        <v>224</v>
+      </c>
+      <c r="C101" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" t="s">
+        <v>479</v>
+      </c>
+      <c r="E101" t="s">
+        <v>688</v>
+      </c>
+      <c r="F101" t="s">
+        <v>878</v>
+      </c>
+      <c r="G101" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" t="s">
+        <v>984</v>
+      </c>
+      <c r="I101" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102" t="s">
+        <v>332</v>
+      </c>
+      <c r="D102" t="s">
+        <v>480</v>
+      </c>
+      <c r="E102" t="s">
+        <v>689</v>
+      </c>
+      <c r="F102" t="s">
+        <v>879</v>
+      </c>
+      <c r="H102" t="s">
+        <v>983</v>
+      </c>
+      <c r="I102" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" t="s">
+        <v>354</v>
+      </c>
+      <c r="D103" t="s">
+        <v>481</v>
+      </c>
+      <c r="E103" t="s">
+        <v>690</v>
+      </c>
+      <c r="F103" t="s">
+        <v>880</v>
+      </c>
+      <c r="H103" t="s">
+        <v>983</v>
+      </c>
+      <c r="I103" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" t="s">
+        <v>363</v>
+      </c>
+      <c r="D104" t="s">
+        <v>482</v>
+      </c>
+      <c r="E104" t="s">
+        <v>691</v>
+      </c>
+      <c r="F104" t="s">
+        <v>881</v>
+      </c>
+      <c r="H104" t="s">
+        <v>983</v>
+      </c>
+      <c r="I104" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" t="s">
+        <v>483</v>
+      </c>
+      <c r="E105" t="s">
+        <v>692</v>
+      </c>
+      <c r="F105" t="s">
+        <v>882</v>
+      </c>
+      <c r="H105" t="s">
+        <v>983</v>
+      </c>
+      <c r="I105" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>364</v>
+      </c>
+      <c r="D106" t="s">
+        <v>484</v>
+      </c>
+      <c r="E106" t="s">
+        <v>693</v>
+      </c>
+      <c r="F106" t="s">
+        <v>883</v>
+      </c>
+      <c r="H106" t="s">
+        <v>983</v>
+      </c>
+      <c r="I106" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" t="s">
+        <v>325</v>
+      </c>
+      <c r="D107" t="s">
+        <v>485</v>
+      </c>
+      <c r="E107" t="s">
+        <v>694</v>
+      </c>
+      <c r="F107" t="s">
+        <v>883</v>
+      </c>
+      <c r="H107" t="s">
+        <v>983</v>
+      </c>
+      <c r="I107" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" t="s">
+        <v>365</v>
+      </c>
+      <c r="D108" t="s">
+        <v>486</v>
+      </c>
+      <c r="E108" t="s">
+        <v>695</v>
+      </c>
+      <c r="F108" t="s">
+        <v>883</v>
+      </c>
+      <c r="G108" t="s">
+        <v>355</v>
+      </c>
+      <c r="H108" t="s">
+        <v>984</v>
+      </c>
+      <c r="I108" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109" t="s">
+        <v>487</v>
+      </c>
+      <c r="E109" t="s">
+        <v>696</v>
+      </c>
+      <c r="F109" t="s">
+        <v>883</v>
+      </c>
+      <c r="G109" t="s">
+        <v>353</v>
+      </c>
+      <c r="H109" t="s">
+        <v>985</v>
+      </c>
+      <c r="I109" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" t="s">
+        <v>355</v>
+      </c>
+      <c r="D110" t="s">
+        <v>488</v>
+      </c>
+      <c r="E110" t="s">
+        <v>697</v>
+      </c>
+      <c r="F110" t="s">
+        <v>884</v>
+      </c>
+      <c r="H110" t="s">
+        <v>983</v>
+      </c>
+      <c r="I110" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" t="s">
+        <v>355</v>
+      </c>
+      <c r="D111" t="s">
+        <v>489</v>
+      </c>
+      <c r="E111" t="s">
+        <v>698</v>
+      </c>
+      <c r="F111" t="s">
+        <v>885</v>
+      </c>
+      <c r="H111" t="s">
+        <v>985</v>
+      </c>
+      <c r="I111" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>355</v>
+      </c>
+      <c r="D112" t="s">
+        <v>489</v>
+      </c>
+      <c r="E112" t="s">
+        <v>698</v>
+      </c>
+      <c r="F112" t="s">
+        <v>885</v>
+      </c>
+      <c r="G112" t="s">
+        <v>353</v>
+      </c>
+      <c r="H112" t="s">
+        <v>984</v>
+      </c>
+      <c r="I112" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" t="s">
+        <v>366</v>
+      </c>
+      <c r="D113" t="s">
+        <v>490</v>
+      </c>
+      <c r="E113" t="s">
+        <v>699</v>
+      </c>
+      <c r="F113" t="s">
+        <v>886</v>
+      </c>
+      <c r="H113" t="s">
+        <v>983</v>
+      </c>
+      <c r="I113" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>83</v>
+      </c>
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" t="s">
+        <v>365</v>
+      </c>
+      <c r="D114" t="s">
+        <v>491</v>
+      </c>
+      <c r="E114" t="s">
+        <v>700</v>
+      </c>
+      <c r="F114" t="s">
+        <v>887</v>
+      </c>
+      <c r="H114" t="s">
+        <v>983</v>
+      </c>
+      <c r="I114" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>83</v>
+      </c>
+      <c r="B115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" t="s">
+        <v>367</v>
+      </c>
+      <c r="D115" t="s">
+        <v>492</v>
+      </c>
+      <c r="E115" t="s">
+        <v>701</v>
+      </c>
+      <c r="F115" t="s">
+        <v>887</v>
+      </c>
+      <c r="H115" t="s">
+        <v>983</v>
+      </c>
+      <c r="I115" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>83</v>
+      </c>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="s">
+        <v>367</v>
+      </c>
+      <c r="D116" t="s">
+        <v>493</v>
+      </c>
+      <c r="E116" t="s">
+        <v>702</v>
+      </c>
+      <c r="F116" t="s">
+        <v>887</v>
+      </c>
+      <c r="H116" t="s">
+        <v>983</v>
+      </c>
+      <c r="I116" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>83</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>309</v>
+      </c>
+      <c r="D117" t="s">
+        <v>494</v>
+      </c>
+      <c r="E117" t="s">
+        <v>703</v>
+      </c>
+      <c r="F117" t="s">
+        <v>887</v>
+      </c>
+      <c r="H117" t="s">
+        <v>983</v>
+      </c>
+      <c r="I117" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" t="s">
+        <v>329</v>
+      </c>
+      <c r="D118" t="s">
+        <v>495</v>
+      </c>
+      <c r="E118" t="s">
+        <v>704</v>
+      </c>
+      <c r="F118" t="s">
+        <v>888</v>
+      </c>
+      <c r="H118" t="s">
+        <v>983</v>
+      </c>
+      <c r="I118" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>85</v>
+      </c>
+      <c r="B119" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" t="s">
+        <v>496</v>
+      </c>
+      <c r="E119" t="s">
+        <v>705</v>
+      </c>
+      <c r="F119" t="s">
+        <v>889</v>
+      </c>
+      <c r="H119" t="s">
+        <v>983</v>
+      </c>
+      <c r="I119" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" t="s">
+        <v>341</v>
+      </c>
+      <c r="D120" t="s">
+        <v>496</v>
+      </c>
+      <c r="E120" t="s">
+        <v>705</v>
+      </c>
+      <c r="F120" t="s">
+        <v>889</v>
+      </c>
+      <c r="H120" t="s">
+        <v>983</v>
+      </c>
+      <c r="I120" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" t="s">
+        <v>341</v>
+      </c>
+      <c r="D121" t="s">
+        <v>496</v>
+      </c>
+      <c r="E121" t="s">
+        <v>705</v>
+      </c>
+      <c r="F121" t="s">
+        <v>889</v>
+      </c>
+      <c r="H121" t="s">
+        <v>983</v>
+      </c>
+      <c r="I121" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" t="s">
+        <v>353</v>
+      </c>
+      <c r="D122" t="s">
+        <v>497</v>
+      </c>
+      <c r="E122" t="s">
+        <v>706</v>
+      </c>
+      <c r="F122" t="s">
+        <v>890</v>
+      </c>
+      <c r="G122" t="s">
+        <v>380</v>
+      </c>
+      <c r="H122" t="s">
+        <v>984</v>
+      </c>
+      <c r="I122" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" t="s">
+        <v>368</v>
+      </c>
+      <c r="D123" t="s">
+        <v>498</v>
+      </c>
+      <c r="E123" t="s">
+        <v>707</v>
+      </c>
+      <c r="F123" t="s">
+        <v>891</v>
+      </c>
+      <c r="G123" t="s">
+        <v>310</v>
+      </c>
+      <c r="H123" t="s">
+        <v>984</v>
+      </c>
+      <c r="I123" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>88</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" t="s">
+        <v>339</v>
+      </c>
+      <c r="D124" t="s">
+        <v>499</v>
+      </c>
+      <c r="E124" t="s">
+        <v>708</v>
+      </c>
+      <c r="F124" t="s">
+        <v>892</v>
+      </c>
+      <c r="H124" t="s">
+        <v>983</v>
+      </c>
+      <c r="I124" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>88</v>
+      </c>
+      <c r="B125" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" t="s">
+        <v>339</v>
+      </c>
+      <c r="D125" t="s">
+        <v>500</v>
+      </c>
+      <c r="E125" t="s">
+        <v>709</v>
+      </c>
+      <c r="F125" t="s">
+        <v>892</v>
+      </c>
+      <c r="H125" t="s">
+        <v>983</v>
+      </c>
+      <c r="I125" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>89</v>
+      </c>
+      <c r="B126" t="s">
+        <v>239</v>
+      </c>
+      <c r="C126" t="s">
+        <v>321</v>
+      </c>
+      <c r="D126" t="s">
+        <v>501</v>
+      </c>
+      <c r="E126" t="s">
+        <v>710</v>
+      </c>
+      <c r="F126" t="s">
+        <v>893</v>
+      </c>
+      <c r="G126" t="s">
+        <v>344</v>
+      </c>
+      <c r="H126" t="s">
+        <v>984</v>
+      </c>
+      <c r="I126" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" t="s">
+        <v>502</v>
+      </c>
+      <c r="E127" t="s">
+        <v>711</v>
+      </c>
+      <c r="F127" t="s">
+        <v>894</v>
+      </c>
+      <c r="G127" t="s">
+        <v>354</v>
+      </c>
+      <c r="H127" t="s">
+        <v>984</v>
+      </c>
+      <c r="I127" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" t="s">
+        <v>329</v>
+      </c>
+      <c r="D128" t="s">
+        <v>503</v>
+      </c>
+      <c r="E128" t="s">
+        <v>712</v>
+      </c>
+      <c r="F128" t="s">
+        <v>895</v>
+      </c>
+      <c r="H128" t="s">
+        <v>983</v>
+      </c>
+      <c r="I128" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" t="s">
+        <v>369</v>
+      </c>
+      <c r="D129" t="s">
+        <v>504</v>
+      </c>
+      <c r="E129" t="s">
+        <v>713</v>
+      </c>
+      <c r="F129" t="s">
+        <v>896</v>
+      </c>
+      <c r="H129" t="s">
+        <v>983</v>
+      </c>
+      <c r="I129" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" t="s">
+        <v>243</v>
+      </c>
+      <c r="C130" t="s">
+        <v>337</v>
+      </c>
+      <c r="D130" t="s">
+        <v>505</v>
+      </c>
+      <c r="E130" t="s">
+        <v>714</v>
+      </c>
+      <c r="F130" t="s">
+        <v>897</v>
+      </c>
+      <c r="H130" t="s">
+        <v>983</v>
+      </c>
+      <c r="I130" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>94</v>
+      </c>
+      <c r="B131" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" t="s">
+        <v>354</v>
+      </c>
+      <c r="D131" t="s">
+        <v>506</v>
+      </c>
+      <c r="E131" t="s">
+        <v>715</v>
+      </c>
+      <c r="F131" t="s">
+        <v>898</v>
+      </c>
+      <c r="G131" t="s">
+        <v>977</v>
+      </c>
+      <c r="H131" t="s">
+        <v>987</v>
+      </c>
+      <c r="I131" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132" t="s">
+        <v>244</v>
+      </c>
+      <c r="C132" t="s">
+        <v>354</v>
+      </c>
+      <c r="D132" t="s">
+        <v>506</v>
+      </c>
+      <c r="E132" t="s">
+        <v>715</v>
+      </c>
+      <c r="F132" t="s">
+        <v>898</v>
+      </c>
+      <c r="G132" t="s">
+        <v>339</v>
+      </c>
+      <c r="H132" t="s">
+        <v>984</v>
+      </c>
+      <c r="I132" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>94</v>
+      </c>
+      <c r="B133" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133" t="s">
+        <v>370</v>
+      </c>
+      <c r="D133" t="s">
+        <v>506</v>
+      </c>
+      <c r="E133" t="s">
+        <v>715</v>
+      </c>
+      <c r="F133" t="s">
+        <v>898</v>
+      </c>
+      <c r="G133" t="s">
+        <v>977</v>
+      </c>
+      <c r="H133" t="s">
+        <v>987</v>
+      </c>
+      <c r="I133" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134" t="s">
+        <v>370</v>
+      </c>
+      <c r="D134" t="s">
+        <v>506</v>
+      </c>
+      <c r="E134" t="s">
+        <v>715</v>
+      </c>
+      <c r="F134" t="s">
+        <v>898</v>
+      </c>
+      <c r="G134" t="s">
+        <v>339</v>
+      </c>
+      <c r="H134" t="s">
+        <v>984</v>
+      </c>
+      <c r="I134" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" t="s">
+        <v>245</v>
+      </c>
+      <c r="C135" t="s">
+        <v>341</v>
+      </c>
+      <c r="D135" t="s">
+        <v>507</v>
+      </c>
+      <c r="E135" t="s">
+        <v>716</v>
+      </c>
+      <c r="F135" t="s">
+        <v>899</v>
+      </c>
+      <c r="G135" t="s">
+        <v>363</v>
+      </c>
+      <c r="H135" t="s">
+        <v>984</v>
+      </c>
+      <c r="I135" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" t="s">
+        <v>371</v>
+      </c>
+      <c r="D136" t="s">
+        <v>508</v>
+      </c>
+      <c r="E136" t="s">
+        <v>717</v>
+      </c>
+      <c r="F136" t="s">
+        <v>900</v>
+      </c>
+      <c r="G136" t="s">
+        <v>331</v>
+      </c>
+      <c r="H136" t="s">
+        <v>984</v>
+      </c>
+      <c r="I136" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" t="s">
+        <v>372</v>
+      </c>
+      <c r="D137" t="s">
+        <v>509</v>
+      </c>
+      <c r="E137" t="s">
+        <v>718</v>
+      </c>
+      <c r="F137" t="s">
+        <v>900</v>
+      </c>
+      <c r="H137" t="s">
+        <v>983</v>
+      </c>
+      <c r="I137" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" t="s">
+        <v>247</v>
+      </c>
+      <c r="C138" t="s">
+        <v>373</v>
+      </c>
+      <c r="D138" t="s">
+        <v>510</v>
+      </c>
+      <c r="E138" t="s">
+        <v>719</v>
+      </c>
+      <c r="F138" t="s">
+        <v>901</v>
+      </c>
+      <c r="G138" t="s">
+        <v>978</v>
+      </c>
+      <c r="H138" t="s">
+        <v>984</v>
+      </c>
+      <c r="I138" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>98</v>
+      </c>
+      <c r="B139" t="s">
+        <v>248</v>
+      </c>
+      <c r="C139" t="s">
+        <v>325</v>
+      </c>
+      <c r="D139" t="s">
+        <v>511</v>
+      </c>
+      <c r="E139" t="s">
+        <v>720</v>
+      </c>
+      <c r="F139" t="s">
+        <v>902</v>
+      </c>
+      <c r="H139" t="s">
+        <v>983</v>
+      </c>
+      <c r="I139" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>99</v>
+      </c>
+      <c r="B140" t="s">
+        <v>249</v>
+      </c>
+      <c r="C140" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" t="s">
+        <v>512</v>
+      </c>
+      <c r="E140" t="s">
+        <v>721</v>
+      </c>
+      <c r="F140" t="s">
+        <v>903</v>
+      </c>
+      <c r="H140" t="s">
+        <v>983</v>
+      </c>
+      <c r="I140" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>100</v>
+      </c>
+      <c r="B141" t="s">
+        <v>250</v>
+      </c>
+      <c r="C141" t="s">
+        <v>332</v>
+      </c>
+      <c r="D141" t="s">
+        <v>513</v>
+      </c>
+      <c r="E141" t="s">
+        <v>722</v>
+      </c>
+      <c r="F141" t="s">
+        <v>904</v>
+      </c>
+      <c r="H141" t="s">
+        <v>983</v>
+      </c>
+      <c r="I141" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>101</v>
+      </c>
+      <c r="B142" t="s">
+        <v>251</v>
+      </c>
+      <c r="C142" t="s">
+        <v>353</v>
+      </c>
+      <c r="D142" t="s">
+        <v>514</v>
+      </c>
+      <c r="E142" t="s">
+        <v>723</v>
+      </c>
+      <c r="F142" t="s">
+        <v>905</v>
+      </c>
+      <c r="H142" t="s">
+        <v>985</v>
+      </c>
+      <c r="I142" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>101</v>
+      </c>
+      <c r="B143" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" t="s">
+        <v>353</v>
+      </c>
+      <c r="D143" t="s">
+        <v>514</v>
+      </c>
+      <c r="E143" t="s">
+        <v>723</v>
+      </c>
+      <c r="F143" t="s">
+        <v>905</v>
+      </c>
+      <c r="G143" t="s">
+        <v>976</v>
+      </c>
+      <c r="H143" t="s">
+        <v>984</v>
+      </c>
+      <c r="I143" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>102</v>
+      </c>
+      <c r="B144" t="s">
+        <v>252</v>
+      </c>
+      <c r="C144" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" t="s">
+        <v>515</v>
+      </c>
+      <c r="E144" t="s">
+        <v>724</v>
+      </c>
+      <c r="F144" t="s">
+        <v>906</v>
+      </c>
+      <c r="H144" t="s">
+        <v>983</v>
+      </c>
+      <c r="I144" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>102</v>
+      </c>
+      <c r="B145" t="s">
+        <v>252</v>
+      </c>
+      <c r="C145" t="s">
+        <v>312</v>
+      </c>
+      <c r="D145" t="s">
+        <v>516</v>
+      </c>
+      <c r="E145" t="s">
+        <v>725</v>
+      </c>
+      <c r="F145" t="s">
+        <v>906</v>
+      </c>
+      <c r="G145" t="s">
+        <v>979</v>
+      </c>
+      <c r="H145" t="s">
+        <v>984</v>
+      </c>
+      <c r="I145" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>102</v>
+      </c>
+      <c r="B146" t="s">
+        <v>252</v>
+      </c>
+      <c r="C146" t="s">
+        <v>312</v>
+      </c>
+      <c r="D146" t="s">
+        <v>517</v>
+      </c>
+      <c r="E146" t="s">
+        <v>726</v>
+      </c>
+      <c r="F146" t="s">
+        <v>906</v>
+      </c>
+      <c r="H146" t="s">
+        <v>983</v>
+      </c>
+      <c r="I146" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" t="s">
+        <v>252</v>
+      </c>
+      <c r="C147" t="s">
+        <v>312</v>
+      </c>
+      <c r="D147" t="s">
+        <v>518</v>
+      </c>
+      <c r="E147" t="s">
+        <v>727</v>
+      </c>
+      <c r="F147" t="s">
+        <v>906</v>
+      </c>
+      <c r="G147" t="s">
+        <v>314</v>
+      </c>
+      <c r="H147" t="s">
+        <v>984</v>
+      </c>
+      <c r="I147" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>102</v>
+      </c>
+      <c r="B148" t="s">
+        <v>252</v>
+      </c>
+      <c r="C148" t="s">
+        <v>362</v>
+      </c>
+      <c r="D148" t="s">
+        <v>519</v>
+      </c>
+      <c r="E148" t="s">
+        <v>728</v>
+      </c>
+      <c r="F148" t="s">
+        <v>906</v>
+      </c>
+      <c r="H148" t="s">
+        <v>983</v>
+      </c>
+      <c r="I148" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>103</v>
+      </c>
+      <c r="B149" t="s">
+        <v>253</v>
+      </c>
+      <c r="C149" t="s">
+        <v>370</v>
+      </c>
+      <c r="D149" t="s">
+        <v>520</v>
+      </c>
+      <c r="E149" t="s">
+        <v>729</v>
+      </c>
+      <c r="F149" t="s">
+        <v>907</v>
+      </c>
+      <c r="G149" t="s">
+        <v>371</v>
+      </c>
+      <c r="H149" t="s">
+        <v>984</v>
+      </c>
+      <c r="I149" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>103</v>
+      </c>
+      <c r="B150" t="s">
+        <v>253</v>
+      </c>
+      <c r="C150" t="s">
+        <v>370</v>
+      </c>
+      <c r="D150" t="s">
+        <v>521</v>
+      </c>
+      <c r="E150" t="s">
+        <v>730</v>
+      </c>
+      <c r="F150" t="s">
+        <v>907</v>
+      </c>
+      <c r="G150" t="s">
+        <v>371</v>
+      </c>
+      <c r="H150" t="s">
+        <v>984</v>
+      </c>
+      <c r="I150" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>103</v>
+      </c>
+      <c r="B151" t="s">
+        <v>253</v>
+      </c>
+      <c r="C151" t="s">
+        <v>341</v>
+      </c>
+      <c r="D151" t="s">
+        <v>520</v>
+      </c>
+      <c r="E151" t="s">
+        <v>731</v>
+      </c>
+      <c r="F151" t="s">
+        <v>907</v>
+      </c>
+      <c r="H151" t="s">
+        <v>983</v>
+      </c>
+      <c r="I151" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>104</v>
+      </c>
+      <c r="B152" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" t="s">
+        <v>374</v>
+      </c>
+      <c r="D152" t="s">
+        <v>58</v>
+      </c>
+      <c r="E152" t="s">
+        <v>732</v>
+      </c>
+      <c r="F152" t="s">
+        <v>908</v>
+      </c>
+      <c r="G152" t="s">
+        <v>365</v>
+      </c>
+      <c r="H152" t="s">
+        <v>984</v>
+      </c>
+      <c r="I152" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153" t="s">
+        <v>349</v>
+      </c>
+      <c r="D153" t="s">
+        <v>522</v>
+      </c>
+      <c r="E153" t="s">
+        <v>733</v>
+      </c>
+      <c r="F153" t="s">
+        <v>909</v>
+      </c>
+      <c r="H153" t="s">
+        <v>983</v>
+      </c>
+      <c r="I153" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>106</v>
+      </c>
+      <c r="B154" t="s">
+        <v>256</v>
+      </c>
+      <c r="C154" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" t="s">
+        <v>523</v>
+      </c>
+      <c r="E154" t="s">
+        <v>734</v>
+      </c>
+      <c r="F154" t="s">
+        <v>910</v>
+      </c>
+      <c r="H154" t="s">
+        <v>983</v>
+      </c>
+      <c r="I154" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" t="s">
+        <v>257</v>
+      </c>
+      <c r="C155" t="s">
+        <v>339</v>
+      </c>
+      <c r="D155" t="s">
+        <v>524</v>
+      </c>
+      <c r="E155" t="s">
+        <v>735</v>
+      </c>
+      <c r="F155" t="s">
+        <v>911</v>
+      </c>
+      <c r="G155" t="s">
+        <v>372</v>
+      </c>
+      <c r="H155" t="s">
+        <v>984</v>
+      </c>
+      <c r="I155" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>108</v>
+      </c>
+      <c r="B156" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" t="s">
+        <v>369</v>
+      </c>
+      <c r="D156" t="s">
+        <v>525</v>
+      </c>
+      <c r="E156" t="s">
+        <v>736</v>
+      </c>
+      <c r="F156" t="s">
+        <v>912</v>
+      </c>
+      <c r="H156" t="s">
+        <v>983</v>
+      </c>
+      <c r="I156" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>109</v>
+      </c>
+      <c r="B157" t="s">
+        <v>259</v>
+      </c>
+      <c r="C157" t="s">
+        <v>375</v>
+      </c>
+      <c r="D157" t="s">
+        <v>526</v>
+      </c>
+      <c r="E157" t="s">
+        <v>737</v>
+      </c>
+      <c r="F157" t="s">
+        <v>913</v>
+      </c>
+      <c r="H157" t="s">
+        <v>983</v>
+      </c>
+      <c r="I157" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>110</v>
+      </c>
+      <c r="B158" t="s">
+        <v>260</v>
+      </c>
+      <c r="C158" t="s">
+        <v>376</v>
+      </c>
+      <c r="D158" t="s">
+        <v>527</v>
+      </c>
+      <c r="E158" t="s">
+        <v>738</v>
+      </c>
+      <c r="F158" t="s">
+        <v>914</v>
+      </c>
+      <c r="G158" t="s">
+        <v>390</v>
+      </c>
+      <c r="H158" t="s">
+        <v>984</v>
+      </c>
+      <c r="I158" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>111</v>
+      </c>
+      <c r="B159" t="s">
+        <v>261</v>
+      </c>
+      <c r="C159" t="s">
+        <v>361</v>
+      </c>
+      <c r="D159" t="s">
+        <v>528</v>
+      </c>
+      <c r="E159" t="s">
+        <v>739</v>
+      </c>
+      <c r="F159" t="s">
+        <v>915</v>
+      </c>
+      <c r="H159" t="s">
+        <v>983</v>
+      </c>
+      <c r="I159" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>111</v>
+      </c>
+      <c r="B160" t="s">
+        <v>261</v>
+      </c>
+      <c r="C160" t="s">
+        <v>361</v>
+      </c>
+      <c r="D160" t="s">
+        <v>529</v>
+      </c>
+      <c r="E160" t="s">
+        <v>740</v>
+      </c>
+      <c r="F160" t="s">
+        <v>915</v>
+      </c>
+      <c r="H160" t="s">
+        <v>983</v>
+      </c>
+      <c r="I160" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" t="s">
+        <v>262</v>
+      </c>
+      <c r="C161" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161" t="s">
+        <v>530</v>
+      </c>
+      <c r="E161" t="s">
+        <v>741</v>
+      </c>
+      <c r="F161" t="s">
+        <v>916</v>
+      </c>
+      <c r="G161" t="s">
+        <v>339</v>
+      </c>
+      <c r="H161" t="s">
+        <v>984</v>
+      </c>
+      <c r="I161" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>112</v>
+      </c>
+      <c r="B162" t="s">
+        <v>262</v>
+      </c>
+      <c r="C162" t="s">
+        <v>347</v>
+      </c>
+      <c r="D162" t="s">
+        <v>531</v>
+      </c>
+      <c r="E162" t="s">
+        <v>742</v>
+      </c>
+      <c r="F162" t="s">
+        <v>916</v>
+      </c>
+      <c r="H162" t="s">
+        <v>983</v>
+      </c>
+      <c r="I162" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>112</v>
+      </c>
+      <c r="B163" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" t="s">
+        <v>350</v>
+      </c>
+      <c r="D163" t="s">
+        <v>532</v>
+      </c>
+      <c r="E163" t="s">
+        <v>742</v>
+      </c>
+      <c r="F163" t="s">
+        <v>916</v>
+      </c>
+      <c r="H163" t="s">
+        <v>983</v>
+      </c>
+      <c r="I163" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>112</v>
+      </c>
+      <c r="B164" t="s">
+        <v>262</v>
+      </c>
+      <c r="C164" t="s">
+        <v>347</v>
+      </c>
+      <c r="D164" t="s">
+        <v>533</v>
+      </c>
+      <c r="E164" t="s">
+        <v>743</v>
+      </c>
+      <c r="F164" t="s">
+        <v>916</v>
+      </c>
+      <c r="G164" t="s">
+        <v>965</v>
+      </c>
+      <c r="H164" t="s">
+        <v>984</v>
+      </c>
+      <c r="I164" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" t="s">
+        <v>262</v>
+      </c>
+      <c r="C165" t="s">
+        <v>362</v>
+      </c>
+      <c r="D165" t="s">
+        <v>534</v>
+      </c>
+      <c r="E165" t="s">
+        <v>744</v>
+      </c>
+      <c r="F165" t="s">
+        <v>916</v>
+      </c>
+      <c r="G165" t="s">
+        <v>334</v>
+      </c>
+      <c r="H165" t="s">
+        <v>984</v>
+      </c>
+      <c r="I165" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>112</v>
+      </c>
+      <c r="B166" t="s">
+        <v>262</v>
+      </c>
+      <c r="C166" t="s">
+        <v>347</v>
+      </c>
+      <c r="D166" t="s">
+        <v>535</v>
+      </c>
+      <c r="E166" t="s">
+        <v>745</v>
+      </c>
+      <c r="F166" t="s">
+        <v>916</v>
+      </c>
+      <c r="G166" t="s">
+        <v>352</v>
+      </c>
+      <c r="H166" t="s">
+        <v>984</v>
+      </c>
+      <c r="I166" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>112</v>
+      </c>
+      <c r="B167" t="s">
+        <v>262</v>
+      </c>
+      <c r="C167" t="s">
+        <v>347</v>
+      </c>
+      <c r="D167" t="s">
+        <v>535</v>
+      </c>
+      <c r="E167" t="s">
+        <v>745</v>
+      </c>
+      <c r="F167" t="s">
+        <v>916</v>
+      </c>
+      <c r="H167" t="s">
+        <v>985</v>
+      </c>
+      <c r="I167" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>112</v>
+      </c>
+      <c r="B168" t="s">
+        <v>262</v>
+      </c>
+      <c r="C168" t="s">
+        <v>362</v>
+      </c>
+      <c r="D168" t="s">
+        <v>536</v>
+      </c>
+      <c r="E168" t="s">
+        <v>746</v>
+      </c>
+      <c r="F168" t="s">
+        <v>916</v>
+      </c>
+      <c r="H168" t="s">
+        <v>985</v>
+      </c>
+      <c r="I168" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>112</v>
+      </c>
+      <c r="B169" t="s">
+        <v>262</v>
+      </c>
+      <c r="C169" t="s">
+        <v>347</v>
+      </c>
+      <c r="D169" t="s">
+        <v>537</v>
+      </c>
+      <c r="E169" t="s">
+        <v>747</v>
+      </c>
+      <c r="F169" t="s">
+        <v>916</v>
+      </c>
+      <c r="G169" t="s">
+        <v>329</v>
+      </c>
+      <c r="H169" t="s">
+        <v>984</v>
+      </c>
+      <c r="I169" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>113</v>
+      </c>
+      <c r="B170" t="s">
+        <v>263</v>
+      </c>
+      <c r="C170" t="s">
+        <v>377</v>
+      </c>
+      <c r="D170" t="s">
+        <v>538</v>
+      </c>
+      <c r="E170" t="s">
+        <v>748</v>
+      </c>
+      <c r="F170" t="s">
+        <v>917</v>
+      </c>
+      <c r="H170" t="s">
+        <v>983</v>
+      </c>
+      <c r="I170" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>114</v>
+      </c>
+      <c r="B171" t="s">
+        <v>264</v>
+      </c>
+      <c r="C171" t="s">
+        <v>378</v>
+      </c>
+      <c r="D171" t="s">
+        <v>539</v>
+      </c>
+      <c r="E171" t="s">
+        <v>749</v>
+      </c>
+      <c r="F171" t="s">
+        <v>918</v>
+      </c>
+      <c r="G171" t="s">
+        <v>359</v>
+      </c>
+      <c r="H171" t="s">
+        <v>984</v>
+      </c>
+      <c r="I171" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>115</v>
+      </c>
+      <c r="B172" t="s">
+        <v>265</v>
+      </c>
+      <c r="C172" t="s">
+        <v>355</v>
+      </c>
+      <c r="D172" t="s">
+        <v>540</v>
+      </c>
+      <c r="E172" t="s">
+        <v>750</v>
+      </c>
+      <c r="F172" t="s">
+        <v>919</v>
+      </c>
+      <c r="G172" t="s">
+        <v>976</v>
+      </c>
+      <c r="H172" t="s">
+        <v>984</v>
+      </c>
+      <c r="I172" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>116</v>
+      </c>
+      <c r="B173" t="s">
+        <v>266</v>
+      </c>
+      <c r="C173" t="s">
+        <v>379</v>
+      </c>
+      <c r="D173" t="s">
+        <v>541</v>
+      </c>
+      <c r="E173" t="s">
+        <v>751</v>
+      </c>
+      <c r="F173" t="s">
+        <v>920</v>
+      </c>
+      <c r="G173" t="s">
+        <v>347</v>
+      </c>
+      <c r="H173" t="s">
+        <v>984</v>
+      </c>
+      <c r="I173" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>117</v>
+      </c>
+      <c r="B174" t="s">
+        <v>267</v>
+      </c>
+      <c r="C174" t="s">
+        <v>328</v>
+      </c>
+      <c r="D174" t="s">
+        <v>542</v>
+      </c>
+      <c r="E174" t="s">
+        <v>752</v>
+      </c>
+      <c r="F174" t="s">
+        <v>921</v>
+      </c>
+      <c r="G174" t="s">
+        <v>312</v>
+      </c>
+      <c r="H174" t="s">
+        <v>984</v>
+      </c>
+      <c r="I174" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" t="s">
+        <v>268</v>
+      </c>
+      <c r="C175" t="s">
+        <v>366</v>
+      </c>
+      <c r="D175" t="s">
+        <v>543</v>
+      </c>
+      <c r="E175" t="s">
+        <v>753</v>
+      </c>
+      <c r="F175" t="s">
+        <v>922</v>
+      </c>
+      <c r="H175" t="s">
+        <v>983</v>
+      </c>
+      <c r="I175" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>119</v>
+      </c>
+      <c r="B176" t="s">
+        <v>269</v>
+      </c>
+      <c r="C176" t="s">
+        <v>312</v>
+      </c>
+      <c r="D176" t="s">
+        <v>544</v>
+      </c>
+      <c r="E176" t="s">
+        <v>754</v>
+      </c>
+      <c r="F176" t="s">
+        <v>923</v>
+      </c>
+      <c r="G176" t="s">
+        <v>314</v>
+      </c>
+      <c r="H176" t="s">
+        <v>984</v>
+      </c>
+      <c r="I176" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" t="s">
+        <v>120</v>
+      </c>
+      <c r="B177" t="s">
+        <v>270</v>
+      </c>
+      <c r="C177" t="s">
+        <v>339</v>
+      </c>
+      <c r="D177" t="s">
+        <v>545</v>
+      </c>
+      <c r="E177" t="s">
+        <v>755</v>
+      </c>
+      <c r="F177" t="s">
+        <v>924</v>
+      </c>
+      <c r="G177" t="s">
+        <v>373</v>
+      </c>
+      <c r="H177" t="s">
+        <v>984</v>
+      </c>
+      <c r="I177" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>121</v>
+      </c>
+      <c r="B178" t="s">
+        <v>271</v>
+      </c>
+      <c r="C178" t="s">
+        <v>325</v>
+      </c>
+      <c r="D178" t="s">
+        <v>546</v>
+      </c>
+      <c r="E178" t="s">
+        <v>756</v>
+      </c>
+      <c r="F178" t="s">
+        <v>925</v>
+      </c>
+      <c r="G178" t="s">
+        <v>976</v>
+      </c>
+      <c r="H178" t="s">
+        <v>984</v>
+      </c>
+      <c r="I178" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>121</v>
+      </c>
+      <c r="B179" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" t="s">
+        <v>325</v>
+      </c>
+      <c r="D179" t="s">
+        <v>113</v>
+      </c>
+      <c r="E179" t="s">
+        <v>757</v>
+      </c>
+      <c r="F179" t="s">
+        <v>925</v>
+      </c>
+      <c r="G179" t="s">
+        <v>380</v>
+      </c>
+      <c r="H179" t="s">
+        <v>984</v>
+      </c>
+      <c r="I179" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" t="s">
+        <v>122</v>
+      </c>
+      <c r="B180" t="s">
+        <v>272</v>
+      </c>
+      <c r="C180" t="s">
+        <v>366</v>
+      </c>
+      <c r="D180" t="s">
+        <v>547</v>
+      </c>
+      <c r="E180" t="s">
+        <v>758</v>
+      </c>
+      <c r="F180" t="s">
+        <v>926</v>
+      </c>
+      <c r="H180" t="s">
+        <v>983</v>
+      </c>
+      <c r="I180" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" t="s">
+        <v>123</v>
+      </c>
+      <c r="B181" t="s">
+        <v>273</v>
+      </c>
+      <c r="C181" t="s">
+        <v>380</v>
+      </c>
+      <c r="D181" t="s">
+        <v>548</v>
+      </c>
+      <c r="E181" t="s">
+        <v>759</v>
+      </c>
+      <c r="F181" t="s">
+        <v>927</v>
+      </c>
+      <c r="H181" t="s">
+        <v>983</v>
+      </c>
+      <c r="I181" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" t="s">
+        <v>124</v>
+      </c>
+      <c r="B182" t="s">
+        <v>274</v>
+      </c>
+      <c r="C182" t="s">
+        <v>381</v>
+      </c>
+      <c r="D182" t="s">
+        <v>549</v>
+      </c>
+      <c r="E182" t="s">
+        <v>760</v>
+      </c>
+      <c r="F182" t="s">
+        <v>928</v>
+      </c>
+      <c r="H182" t="s">
+        <v>983</v>
+      </c>
+      <c r="I182" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" t="s">
+        <v>124</v>
+      </c>
+      <c r="B183" t="s">
+        <v>274</v>
+      </c>
+      <c r="C183" t="s">
+        <v>378</v>
+      </c>
+      <c r="D183" t="s">
+        <v>550</v>
+      </c>
+      <c r="E183" t="s">
+        <v>761</v>
+      </c>
+      <c r="F183" t="s">
+        <v>928</v>
+      </c>
+      <c r="H183" t="s">
+        <v>983</v>
+      </c>
+      <c r="I183" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" t="s">
+        <v>124</v>
+      </c>
+      <c r="B184" t="s">
+        <v>274</v>
+      </c>
+      <c r="C184" t="s">
+        <v>339</v>
+      </c>
+      <c r="D184" t="s">
+        <v>551</v>
+      </c>
+      <c r="E184" t="s">
+        <v>762</v>
+      </c>
+      <c r="F184" t="s">
+        <v>928</v>
+      </c>
+      <c r="H184" t="s">
+        <v>983</v>
+      </c>
+      <c r="I184" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" t="s">
+        <v>125</v>
+      </c>
+      <c r="B185" t="s">
+        <v>275</v>
+      </c>
+      <c r="C185" t="s">
+        <v>365</v>
+      </c>
+      <c r="D185" t="s">
+        <v>552</v>
+      </c>
+      <c r="E185" t="s">
+        <v>763</v>
+      </c>
+      <c r="F185" t="s">
+        <v>929</v>
+      </c>
+      <c r="H185" t="s">
+        <v>983</v>
+      </c>
+      <c r="I185" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" t="s">
+        <v>125</v>
+      </c>
+      <c r="B186" t="s">
+        <v>275</v>
+      </c>
+      <c r="C186" t="s">
+        <v>382</v>
+      </c>
+      <c r="D186" t="s">
+        <v>553</v>
+      </c>
+      <c r="E186" t="s">
+        <v>764</v>
+      </c>
+      <c r="F186" t="s">
+        <v>929</v>
+      </c>
+      <c r="G186" t="s">
+        <v>980</v>
+      </c>
+      <c r="H186" t="s">
+        <v>984</v>
+      </c>
+      <c r="I186" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" t="s">
+        <v>126</v>
+      </c>
+      <c r="B187" t="s">
+        <v>276</v>
+      </c>
+      <c r="C187" t="s">
+        <v>319</v>
+      </c>
+      <c r="D187" t="s">
+        <v>554</v>
+      </c>
+      <c r="E187" t="s">
+        <v>765</v>
+      </c>
+      <c r="F187" t="s">
+        <v>930</v>
+      </c>
+      <c r="H187" t="s">
+        <v>983</v>
+      </c>
+      <c r="I187" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" t="s">
+        <v>127</v>
+      </c>
+      <c r="B188" t="s">
+        <v>277</v>
+      </c>
+      <c r="C188" t="s">
+        <v>370</v>
+      </c>
+      <c r="D188" t="s">
+        <v>555</v>
+      </c>
+      <c r="E188" t="s">
+        <v>766</v>
+      </c>
+      <c r="F188" t="s">
+        <v>931</v>
+      </c>
+      <c r="H188" t="s">
+        <v>983</v>
+      </c>
+      <c r="I188" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" t="s">
+        <v>128</v>
+      </c>
+      <c r="B189" t="s">
+        <v>278</v>
+      </c>
+      <c r="C189" t="s">
+        <v>350</v>
+      </c>
+      <c r="D189" t="s">
+        <v>556</v>
+      </c>
+      <c r="E189" t="s">
+        <v>767</v>
+      </c>
+      <c r="F189" t="s">
+        <v>932</v>
+      </c>
+      <c r="H189" t="s">
+        <v>983</v>
+      </c>
+      <c r="I189" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" t="s">
+        <v>129</v>
+      </c>
+      <c r="B190" t="s">
+        <v>279</v>
+      </c>
+      <c r="C190" t="s">
+        <v>371</v>
+      </c>
+      <c r="D190" t="s">
+        <v>557</v>
+      </c>
+      <c r="E190" t="s">
+        <v>768</v>
+      </c>
+      <c r="F190" t="s">
+        <v>933</v>
+      </c>
+      <c r="H190" t="s">
+        <v>983</v>
+      </c>
+      <c r="I190" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" t="s">
+        <v>130</v>
+      </c>
+      <c r="B191" t="s">
+        <v>280</v>
+      </c>
+      <c r="C191" t="s">
+        <v>314</v>
+      </c>
+      <c r="D191" t="s">
+        <v>558</v>
+      </c>
+      <c r="E191" t="s">
+        <v>769</v>
+      </c>
+      <c r="F191" t="s">
+        <v>934</v>
+      </c>
+      <c r="H191" t="s">
+        <v>983</v>
+      </c>
+      <c r="I191" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" t="s">
+        <v>130</v>
+      </c>
+      <c r="B192" t="s">
+        <v>280</v>
+      </c>
+      <c r="C192" t="s">
+        <v>314</v>
+      </c>
+      <c r="D192" t="s">
+        <v>559</v>
+      </c>
+      <c r="E192" t="s">
+        <v>770</v>
+      </c>
+      <c r="F192" t="s">
+        <v>934</v>
+      </c>
+      <c r="H192" t="s">
+        <v>983</v>
+      </c>
+      <c r="I192" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>130</v>
+      </c>
+      <c r="B193" t="s">
+        <v>280</v>
+      </c>
+      <c r="C193" t="s">
+        <v>314</v>
+      </c>
+      <c r="D193" t="s">
+        <v>560</v>
+      </c>
+      <c r="E193" t="s">
+        <v>771</v>
+      </c>
+      <c r="F193" t="s">
+        <v>934</v>
+      </c>
+      <c r="H193" t="s">
+        <v>983</v>
+      </c>
+      <c r="I193" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
+        <v>130</v>
+      </c>
+      <c r="B194" t="s">
+        <v>280</v>
+      </c>
+      <c r="C194" t="s">
+        <v>314</v>
+      </c>
+      <c r="D194" t="s">
+        <v>561</v>
+      </c>
+      <c r="E194" t="s">
+        <v>772</v>
+      </c>
+      <c r="F194" t="s">
+        <v>934</v>
+      </c>
+      <c r="H194" t="s">
+        <v>983</v>
+      </c>
+      <c r="I194" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" t="s">
+        <v>130</v>
+      </c>
+      <c r="B195" t="s">
+        <v>280</v>
+      </c>
+      <c r="C195" t="s">
+        <v>314</v>
+      </c>
+      <c r="D195" t="s">
+        <v>562</v>
+      </c>
+      <c r="E195" t="s">
+        <v>773</v>
+      </c>
+      <c r="F195" t="s">
+        <v>934</v>
+      </c>
+      <c r="H195" t="s">
+        <v>983</v>
+      </c>
+      <c r="I195" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" t="s">
+        <v>130</v>
+      </c>
+      <c r="B196" t="s">
+        <v>280</v>
+      </c>
+      <c r="C196" t="s">
+        <v>314</v>
+      </c>
+      <c r="D196" t="s">
+        <v>558</v>
+      </c>
+      <c r="E196" t="s">
+        <v>769</v>
+      </c>
+      <c r="F196" t="s">
+        <v>934</v>
+      </c>
+      <c r="H196" t="s">
+        <v>983</v>
+      </c>
+      <c r="I196" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" t="s">
+        <v>130</v>
+      </c>
+      <c r="B197" t="s">
+        <v>280</v>
+      </c>
+      <c r="C197" t="s">
+        <v>314</v>
+      </c>
+      <c r="D197" t="s">
+        <v>563</v>
+      </c>
+      <c r="E197" t="s">
+        <v>774</v>
+      </c>
+      <c r="F197" t="s">
+        <v>934</v>
+      </c>
+      <c r="H197" t="s">
+        <v>983</v>
+      </c>
+      <c r="I197" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" t="s">
+        <v>130</v>
+      </c>
+      <c r="B198" t="s">
+        <v>280</v>
+      </c>
+      <c r="C198" t="s">
+        <v>314</v>
+      </c>
+      <c r="D198" t="s">
+        <v>564</v>
+      </c>
+      <c r="E198" t="s">
+        <v>775</v>
+      </c>
+      <c r="F198" t="s">
+        <v>934</v>
+      </c>
+      <c r="H198" t="s">
+        <v>983</v>
+      </c>
+      <c r="I198" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>130</v>
+      </c>
+      <c r="B199" t="s">
+        <v>280</v>
+      </c>
+      <c r="C199" t="s">
+        <v>314</v>
+      </c>
+      <c r="D199" t="s">
+        <v>565</v>
+      </c>
+      <c r="E199" t="s">
+        <v>776</v>
+      </c>
+      <c r="F199" t="s">
+        <v>934</v>
+      </c>
+      <c r="H199" t="s">
+        <v>983</v>
+      </c>
+      <c r="I199" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>131</v>
+      </c>
+      <c r="B200" t="s">
+        <v>281</v>
+      </c>
+      <c r="C200" t="s">
+        <v>352</v>
+      </c>
+      <c r="D200" t="s">
+        <v>566</v>
+      </c>
+      <c r="E200" t="s">
+        <v>777</v>
+      </c>
+      <c r="F200" t="s">
+        <v>935</v>
+      </c>
+      <c r="G200" t="s">
+        <v>974</v>
+      </c>
+      <c r="H200" t="s">
+        <v>984</v>
+      </c>
+      <c r="I200" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" t="s">
+        <v>132</v>
+      </c>
+      <c r="B201" t="s">
+        <v>282</v>
+      </c>
+      <c r="C201" t="s">
+        <v>312</v>
+      </c>
+      <c r="D201" t="s">
+        <v>132</v>
+      </c>
+      <c r="E201" t="s">
+        <v>778</v>
+      </c>
+      <c r="F201" t="s">
+        <v>936</v>
+      </c>
+      <c r="G201" t="s">
+        <v>981</v>
+      </c>
+      <c r="H201" t="s">
+        <v>984</v>
+      </c>
+      <c r="I201" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" t="s">
+        <v>133</v>
+      </c>
+      <c r="B202" t="s">
+        <v>283</v>
+      </c>
+      <c r="C202" t="s">
+        <v>383</v>
+      </c>
+      <c r="D202" t="s">
+        <v>567</v>
+      </c>
+      <c r="E202" t="s">
+        <v>779</v>
+      </c>
+      <c r="F202" t="s">
+        <v>937</v>
+      </c>
+      <c r="H202" t="s">
+        <v>983</v>
+      </c>
+      <c r="I202" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" t="s">
+        <v>134</v>
+      </c>
+      <c r="B203" t="s">
+        <v>284</v>
+      </c>
+      <c r="C203" t="s">
+        <v>353</v>
+      </c>
+      <c r="D203" t="s">
+        <v>568</v>
+      </c>
+      <c r="E203" t="s">
+        <v>780</v>
+      </c>
+      <c r="F203" t="s">
+        <v>938</v>
+      </c>
+      <c r="G203" t="s">
+        <v>963</v>
+      </c>
+      <c r="H203" t="s">
+        <v>984</v>
+      </c>
+      <c r="I203" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" t="s">
+        <v>135</v>
+      </c>
+      <c r="B204" t="s">
+        <v>285</v>
+      </c>
+      <c r="C204" t="s">
+        <v>373</v>
+      </c>
+      <c r="D204" t="s">
+        <v>569</v>
+      </c>
+      <c r="E204" t="s">
+        <v>781</v>
+      </c>
+      <c r="F204" t="s">
+        <v>939</v>
+      </c>
+      <c r="H204" t="s">
+        <v>983</v>
+      </c>
+      <c r="I204" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" t="s">
+        <v>135</v>
+      </c>
+      <c r="B205" t="s">
+        <v>285</v>
+      </c>
+      <c r="C205" t="s">
+        <v>356</v>
+      </c>
+      <c r="D205" t="s">
+        <v>570</v>
+      </c>
+      <c r="E205" t="s">
+        <v>782</v>
+      </c>
+      <c r="F205" t="s">
+        <v>939</v>
+      </c>
+      <c r="H205" t="s">
+        <v>983</v>
+      </c>
+      <c r="I205" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" t="s">
+        <v>135</v>
+      </c>
+      <c r="B206" t="s">
+        <v>285</v>
+      </c>
+      <c r="C206" t="s">
+        <v>340</v>
+      </c>
+      <c r="D206" t="s">
+        <v>571</v>
+      </c>
+      <c r="E206" t="s">
+        <v>783</v>
+      </c>
+      <c r="F206" t="s">
+        <v>939</v>
+      </c>
+      <c r="G206" t="s">
+        <v>341</v>
+      </c>
+      <c r="H206" t="s">
+        <v>984</v>
+      </c>
+      <c r="I206" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" t="s">
+        <v>136</v>
+      </c>
+      <c r="B207" t="s">
+        <v>286</v>
+      </c>
+      <c r="C207" t="s">
+        <v>367</v>
+      </c>
+      <c r="D207" t="s">
+        <v>572</v>
+      </c>
+      <c r="E207" t="s">
+        <v>784</v>
+      </c>
+      <c r="F207" t="s">
+        <v>940</v>
+      </c>
+      <c r="G207" t="s">
+        <v>325</v>
+      </c>
+      <c r="H207" t="s">
+        <v>984</v>
+      </c>
+      <c r="I207" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" t="s">
+        <v>137</v>
+      </c>
+      <c r="B208" t="s">
+        <v>287</v>
+      </c>
+      <c r="C208" t="s">
+        <v>331</v>
+      </c>
+      <c r="D208" t="s">
+        <v>573</v>
+      </c>
+      <c r="E208" t="s">
+        <v>785</v>
+      </c>
+      <c r="F208" t="s">
+        <v>941</v>
+      </c>
+      <c r="H208" t="s">
+        <v>983</v>
+      </c>
+      <c r="I208" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>138</v>
+      </c>
+      <c r="B209" t="s">
+        <v>288</v>
+      </c>
+      <c r="C209" t="s">
+        <v>344</v>
+      </c>
+      <c r="D209" t="s">
+        <v>574</v>
+      </c>
+      <c r="E209" t="s">
+        <v>786</v>
+      </c>
+      <c r="F209" t="s">
+        <v>942</v>
+      </c>
+      <c r="H209" t="s">
+        <v>983</v>
+      </c>
+      <c r="I209" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>139</v>
+      </c>
+      <c r="B210" t="s">
+        <v>289</v>
+      </c>
+      <c r="C210" t="s">
+        <v>384</v>
+      </c>
+      <c r="D210" t="s">
+        <v>575</v>
+      </c>
+      <c r="E210" t="s">
+        <v>787</v>
+      </c>
+      <c r="F210" t="s">
+        <v>943</v>
+      </c>
+      <c r="H210" t="s">
+        <v>983</v>
+      </c>
+      <c r="I210" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" t="s">
+        <v>139</v>
+      </c>
+      <c r="B211" t="s">
+        <v>289</v>
+      </c>
+      <c r="C211" t="s">
+        <v>385</v>
+      </c>
+      <c r="D211" t="s">
+        <v>576</v>
+      </c>
+      <c r="E211" t="s">
+        <v>788</v>
+      </c>
+      <c r="F211" t="s">
+        <v>943</v>
+      </c>
+      <c r="H211" t="s">
+        <v>983</v>
+      </c>
+      <c r="I211" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" t="s">
+        <v>140</v>
+      </c>
+      <c r="B212" t="s">
+        <v>290</v>
+      </c>
+      <c r="C212" t="s">
+        <v>315</v>
+      </c>
+      <c r="D212" t="s">
+        <v>577</v>
+      </c>
+      <c r="E212" t="s">
+        <v>789</v>
+      </c>
+      <c r="F212" t="s">
+        <v>944</v>
+      </c>
+      <c r="H212" t="s">
+        <v>983</v>
+      </c>
+      <c r="I212" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" t="s">
+        <v>140</v>
+      </c>
+      <c r="B213" t="s">
+        <v>290</v>
+      </c>
+      <c r="C213" t="s">
+        <v>315</v>
+      </c>
+      <c r="D213" t="s">
+        <v>578</v>
+      </c>
+      <c r="E213" t="s">
+        <v>790</v>
+      </c>
+      <c r="F213" t="s">
+        <v>944</v>
+      </c>
+      <c r="H213" t="s">
+        <v>983</v>
+      </c>
+      <c r="I213" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" t="s">
+        <v>140</v>
+      </c>
+      <c r="B214" t="s">
+        <v>290</v>
+      </c>
+      <c r="C214" t="s">
+        <v>347</v>
+      </c>
+      <c r="D214" t="s">
+        <v>579</v>
+      </c>
+      <c r="E214" t="s">
+        <v>791</v>
+      </c>
+      <c r="F214" t="s">
+        <v>944</v>
+      </c>
+      <c r="H214" t="s">
+        <v>983</v>
+      </c>
+      <c r="I214" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" t="s">
+        <v>140</v>
+      </c>
+      <c r="B215" t="s">
+        <v>290</v>
+      </c>
+      <c r="C215" t="s">
+        <v>347</v>
+      </c>
+      <c r="D215" t="s">
+        <v>579</v>
+      </c>
+      <c r="E215" t="s">
+        <v>791</v>
+      </c>
+      <c r="F215" t="s">
+        <v>944</v>
+      </c>
+      <c r="H215" t="s">
+        <v>983</v>
+      </c>
+      <c r="I215" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" t="s">
+        <v>141</v>
+      </c>
+      <c r="B216" t="s">
+        <v>291</v>
+      </c>
+      <c r="C216" t="s">
+        <v>386</v>
+      </c>
+      <c r="D216" t="s">
+        <v>580</v>
+      </c>
+      <c r="E216" t="s">
+        <v>792</v>
+      </c>
+      <c r="F216" t="s">
+        <v>945</v>
+      </c>
+      <c r="H216" t="s">
+        <v>983</v>
+      </c>
+      <c r="I216" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" t="s">
+        <v>142</v>
+      </c>
+      <c r="B217" t="s">
+        <v>292</v>
+      </c>
+      <c r="C217" t="s">
+        <v>387</v>
+      </c>
+      <c r="D217" t="s">
+        <v>581</v>
+      </c>
+      <c r="E217" t="s">
+        <v>793</v>
+      </c>
+      <c r="F217" t="s">
+        <v>946</v>
+      </c>
+      <c r="H217" t="s">
+        <v>983</v>
+      </c>
+      <c r="I217" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" t="s">
+        <v>143</v>
+      </c>
+      <c r="B218" t="s">
+        <v>293</v>
+      </c>
+      <c r="C218" t="s">
+        <v>309</v>
+      </c>
+      <c r="D218" t="s">
+        <v>582</v>
+      </c>
+      <c r="E218" t="s">
+        <v>794</v>
+      </c>
+      <c r="F218" t="s">
+        <v>947</v>
+      </c>
+      <c r="G218" t="s">
+        <v>963</v>
+      </c>
+      <c r="H218" t="s">
+        <v>984</v>
+      </c>
+      <c r="I218" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" t="s">
+        <v>143</v>
+      </c>
+      <c r="B219" t="s">
+        <v>293</v>
+      </c>
+      <c r="C219" t="s">
+        <v>388</v>
+      </c>
+      <c r="D219" t="s">
+        <v>583</v>
+      </c>
+      <c r="E219" t="s">
+        <v>795</v>
+      </c>
+      <c r="F219" t="s">
+        <v>947</v>
+      </c>
+      <c r="H219" t="s">
+        <v>983</v>
+      </c>
+      <c r="I219" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" t="s">
+        <v>143</v>
+      </c>
+      <c r="B220" t="s">
+        <v>293</v>
+      </c>
+      <c r="C220" t="s">
+        <v>385</v>
+      </c>
+      <c r="D220" t="s">
+        <v>584</v>
+      </c>
+      <c r="E220" t="s">
+        <v>796</v>
+      </c>
+      <c r="F220" t="s">
+        <v>947</v>
+      </c>
+      <c r="G220" t="s">
+        <v>346</v>
+      </c>
+      <c r="H220" t="s">
+        <v>984</v>
+      </c>
+      <c r="I220" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" t="s">
+        <v>144</v>
+      </c>
+      <c r="B221" t="s">
+        <v>294</v>
+      </c>
+      <c r="C221" t="s">
+        <v>373</v>
+      </c>
+      <c r="D221" t="s">
+        <v>585</v>
+      </c>
+      <c r="E221" t="s">
+        <v>797</v>
+      </c>
+      <c r="F221" t="s">
+        <v>948</v>
+      </c>
+      <c r="G221" t="s">
+        <v>315</v>
+      </c>
+      <c r="H221" t="s">
+        <v>984</v>
+      </c>
+      <c r="I221" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" t="s">
+        <v>144</v>
+      </c>
+      <c r="B222" t="s">
+        <v>294</v>
+      </c>
+      <c r="C222" t="s">
+        <v>373</v>
+      </c>
+      <c r="D222" t="s">
+        <v>585</v>
+      </c>
+      <c r="E222" t="s">
+        <v>797</v>
+      </c>
+      <c r="F222" t="s">
+        <v>948</v>
+      </c>
+      <c r="G222" t="s">
+        <v>346</v>
+      </c>
+      <c r="H222" t="s">
+        <v>987</v>
+      </c>
+      <c r="I222" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" t="s">
+        <v>144</v>
+      </c>
+      <c r="B223" t="s">
+        <v>294</v>
+      </c>
+      <c r="C223" t="s">
+        <v>373</v>
+      </c>
+      <c r="D223" t="s">
+        <v>585</v>
+      </c>
+      <c r="E223" t="s">
+        <v>797</v>
+      </c>
+      <c r="F223" t="s">
+        <v>948</v>
+      </c>
+      <c r="G223" t="s">
+        <v>373</v>
+      </c>
+      <c r="H223" t="s">
+        <v>984</v>
+      </c>
+      <c r="I223" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" t="s">
+        <v>144</v>
+      </c>
+      <c r="B224" t="s">
+        <v>294</v>
+      </c>
+      <c r="C224" t="s">
+        <v>373</v>
+      </c>
+      <c r="D224" t="s">
+        <v>585</v>
+      </c>
+      <c r="E224" t="s">
+        <v>797</v>
+      </c>
+      <c r="F224" t="s">
+        <v>948</v>
+      </c>
+      <c r="G224" t="s">
+        <v>348</v>
+      </c>
+      <c r="H224" t="s">
+        <v>984</v>
+      </c>
+      <c r="I224" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" t="s">
+        <v>144</v>
+      </c>
+      <c r="B225" t="s">
+        <v>294</v>
+      </c>
+      <c r="C225" t="s">
+        <v>373</v>
+      </c>
+      <c r="D225" t="s">
+        <v>585</v>
+      </c>
+      <c r="E225" t="s">
+        <v>797</v>
+      </c>
+      <c r="F225" t="s">
+        <v>948</v>
+      </c>
+      <c r="H225" t="s">
+        <v>985</v>
+      </c>
+      <c r="I225" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" t="s">
+        <v>145</v>
+      </c>
+      <c r="B226" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" t="s">
+        <v>379</v>
+      </c>
+      <c r="D226" t="s">
+        <v>586</v>
+      </c>
+      <c r="E226" t="s">
+        <v>798</v>
+      </c>
+      <c r="F226" t="s">
+        <v>949</v>
+      </c>
+      <c r="G226" t="s">
+        <v>347</v>
+      </c>
+      <c r="H226" t="s">
+        <v>984</v>
+      </c>
+      <c r="I226" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" t="s">
+        <v>146</v>
+      </c>
+      <c r="B227" t="s">
+        <v>296</v>
+      </c>
+      <c r="C227" t="s">
+        <v>323</v>
+      </c>
+      <c r="D227" t="s">
+        <v>587</v>
+      </c>
+      <c r="E227" t="s">
+        <v>799</v>
+      </c>
+      <c r="F227" t="s">
+        <v>950</v>
+      </c>
+      <c r="H227" t="s">
+        <v>983</v>
+      </c>
+      <c r="I227" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" t="s">
+        <v>147</v>
+      </c>
+      <c r="B228" t="s">
+        <v>297</v>
+      </c>
+      <c r="C228" t="s">
+        <v>352</v>
+      </c>
+      <c r="D228" t="s">
+        <v>588</v>
+      </c>
+      <c r="E228" t="s">
+        <v>800</v>
+      </c>
+      <c r="F228" t="s">
+        <v>951</v>
+      </c>
+      <c r="G228" t="s">
+        <v>350</v>
+      </c>
+      <c r="H228" t="s">
+        <v>984</v>
+      </c>
+      <c r="I228" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" t="s">
+        <v>148</v>
+      </c>
+      <c r="B229" t="s">
+        <v>298</v>
+      </c>
+      <c r="C229" t="s">
+        <v>367</v>
+      </c>
+      <c r="D229" t="s">
+        <v>589</v>
+      </c>
+      <c r="E229" t="s">
+        <v>801</v>
+      </c>
+      <c r="F229" t="s">
+        <v>952</v>
+      </c>
+      <c r="G229" t="s">
+        <v>317</v>
+      </c>
+      <c r="H229" t="s">
+        <v>985</v>
+      </c>
+      <c r="I229" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" t="s">
+        <v>148</v>
+      </c>
+      <c r="B230" t="s">
+        <v>298</v>
+      </c>
+      <c r="C230" t="s">
+        <v>367</v>
+      </c>
+      <c r="D230" t="s">
+        <v>589</v>
+      </c>
+      <c r="E230" t="s">
+        <v>801</v>
+      </c>
+      <c r="F230" t="s">
+        <v>952</v>
+      </c>
+      <c r="G230" t="s">
+        <v>325</v>
+      </c>
+      <c r="H230" t="s">
+        <v>984</v>
+      </c>
+      <c r="I230" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" t="s">
+        <v>149</v>
+      </c>
+      <c r="B231" t="s">
+        <v>299</v>
+      </c>
+      <c r="C231" t="s">
+        <v>389</v>
+      </c>
+      <c r="D231" t="s">
+        <v>590</v>
+      </c>
+      <c r="E231" t="s">
+        <v>802</v>
+      </c>
+      <c r="F231" t="s">
+        <v>953</v>
+      </c>
+      <c r="H231" t="s">
+        <v>983</v>
+      </c>
+      <c r="I231" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" t="s">
+        <v>150</v>
+      </c>
+      <c r="B232" t="s">
+        <v>300</v>
+      </c>
+      <c r="C232" t="s">
+        <v>390</v>
+      </c>
+      <c r="D232" t="s">
+        <v>591</v>
+      </c>
+      <c r="E232" t="s">
+        <v>803</v>
+      </c>
+      <c r="F232" t="s">
+        <v>954</v>
+      </c>
+      <c r="G232" t="s">
+        <v>326</v>
+      </c>
+      <c r="H232" t="s">
+        <v>984</v>
+      </c>
+      <c r="I232" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" t="s">
+        <v>151</v>
+      </c>
+      <c r="B233" t="s">
+        <v>301</v>
+      </c>
+      <c r="C233" t="s">
+        <v>309</v>
+      </c>
+      <c r="D233" t="s">
+        <v>592</v>
+      </c>
+      <c r="E233" t="s">
+        <v>804</v>
+      </c>
+      <c r="F233" t="s">
+        <v>955</v>
+      </c>
+      <c r="G233" t="s">
+        <v>315</v>
+      </c>
+      <c r="H233" t="s">
+        <v>984</v>
+      </c>
+      <c r="I233" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" t="s">
+        <v>152</v>
+      </c>
+      <c r="B234" t="s">
+        <v>302</v>
+      </c>
+      <c r="C234" t="s">
+        <v>384</v>
+      </c>
+      <c r="D234" t="s">
+        <v>593</v>
+      </c>
+      <c r="E234" t="s">
+        <v>805</v>
+      </c>
+      <c r="F234" t="s">
+        <v>956</v>
+      </c>
+      <c r="G234" t="s">
+        <v>980</v>
+      </c>
+      <c r="H234" t="s">
+        <v>984</v>
+      </c>
+      <c r="I234" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" t="s">
+        <v>153</v>
+      </c>
+      <c r="B235" t="s">
+        <v>303</v>
+      </c>
+      <c r="C235" t="s">
+        <v>375</v>
+      </c>
+      <c r="D235" t="s">
+        <v>594</v>
+      </c>
+      <c r="E235" t="s">
+        <v>806</v>
+      </c>
+      <c r="F235" t="s">
+        <v>957</v>
+      </c>
+      <c r="H235" t="s">
+        <v>983</v>
+      </c>
+      <c r="I235" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" t="s">
+        <v>154</v>
+      </c>
+      <c r="B236" t="s">
+        <v>304</v>
+      </c>
+      <c r="C236" t="s">
+        <v>347</v>
+      </c>
+      <c r="D236" t="s">
+        <v>595</v>
+      </c>
+      <c r="E236" t="s">
+        <v>807</v>
+      </c>
+      <c r="F236" t="s">
+        <v>958</v>
+      </c>
+      <c r="H236" t="s">
+        <v>983</v>
+      </c>
+      <c r="I236" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" t="s">
+        <v>155</v>
+      </c>
+      <c r="B237" t="s">
+        <v>305</v>
+      </c>
+      <c r="C237" t="s">
+        <v>366</v>
+      </c>
+      <c r="D237" t="s">
+        <v>596</v>
+      </c>
+      <c r="E237" t="s">
+        <v>808</v>
+      </c>
+      <c r="F237" t="s">
+        <v>959</v>
+      </c>
+      <c r="G237" t="s">
+        <v>345</v>
+      </c>
+      <c r="H237" t="s">
+        <v>984</v>
+      </c>
+      <c r="I237" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" t="s">
+        <v>156</v>
+      </c>
+      <c r="B238" t="s">
+        <v>306</v>
+      </c>
+      <c r="C238" t="s">
+        <v>316</v>
+      </c>
+      <c r="D238" t="s">
+        <v>23</v>
+      </c>
+      <c r="E238" t="s">
+        <v>809</v>
+      </c>
+      <c r="F238" t="s">
+        <v>960</v>
+      </c>
+      <c r="G238" t="s">
+        <v>982</v>
+      </c>
+      <c r="H238" t="s">
+        <v>984</v>
+      </c>
+      <c r="I238" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" t="s">
+        <v>157</v>
+      </c>
+      <c r="B239" t="s">
+        <v>307</v>
+      </c>
+      <c r="C239" t="s">
+        <v>349</v>
+      </c>
+      <c r="D239" t="s">
+        <v>597</v>
+      </c>
+      <c r="E239" t="s">
+        <v>810</v>
+      </c>
+      <c r="F239" t="s">
+        <v>961</v>
+      </c>
+      <c r="G239" t="s">
+        <v>346</v>
+      </c>
+      <c r="H239" t="s">
+        <v>984</v>
+      </c>
+      <c r="I239" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" t="s">
+        <v>158</v>
+      </c>
+      <c r="B240" t="s">
+        <v>308</v>
+      </c>
+      <c r="C240" t="s">
+        <v>391</v>
+      </c>
+      <c r="D240" t="s">
+        <v>598</v>
+      </c>
+      <c r="E240" t="s">
+        <v>811</v>
+      </c>
+      <c r="F240" t="s">
+        <v>962</v>
+      </c>
+      <c r="H240" t="s">
+        <v>983</v>
+      </c>
+      <c r="I240" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" t="s">
+        <v>158</v>
+      </c>
+      <c r="B241" t="s">
+        <v>308</v>
+      </c>
+      <c r="C241" t="s">
+        <v>385</v>
+      </c>
+      <c r="D241" t="s">
+        <v>599</v>
+      </c>
+      <c r="E241" t="s">
+        <v>812</v>
+      </c>
+      <c r="F241" t="s">
+        <v>962</v>
+      </c>
+      <c r="H241" t="s">
+        <v>983</v>
+      </c>
+      <c r="I241" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/referidos.xlsx
+++ b/referidos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdalv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C682AA0C-4267-4A1B-9C62-440A7F34F11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2992,8 +2998,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3056,11 +3062,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3102,7 +3116,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3134,9 +3148,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3168,6 +3200,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3343,14 +3393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3405,7 +3457,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3434,7 +3486,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3460,7 +3512,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3486,7 +3538,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3512,7 +3564,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3538,7 +3590,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -3564,7 +3616,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -3590,7 +3642,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -3619,7 +3671,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3645,7 +3697,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3671,7 +3723,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3700,7 +3752,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3726,7 +3778,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3752,7 +3804,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -3781,7 +3833,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3810,7 +3862,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3839,7 +3891,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3865,7 +3917,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -3891,7 +3943,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3920,7 +3972,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -3949,7 +4001,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3978,7 +4030,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4004,7 +4056,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -4033,7 +4085,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4059,7 +4111,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -4085,7 +4137,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -4114,7 +4166,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -4140,7 +4192,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -4169,7 +4221,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -4198,7 +4250,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -4227,7 +4279,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -4256,7 +4308,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4282,7 +4334,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4308,7 +4360,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -4337,7 +4389,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -4363,7 +4415,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -4392,7 +4444,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -4418,7 +4470,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -4444,7 +4496,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -4470,7 +4522,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -4499,7 +4551,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -4528,7 +4580,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -4557,7 +4609,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -4586,7 +4638,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -4612,7 +4664,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -4638,7 +4690,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -4667,7 +4719,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -4693,7 +4745,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -4719,7 +4771,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -4748,7 +4800,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -4777,7 +4829,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -4803,7 +4855,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -4829,7 +4881,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -4855,7 +4907,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -4884,7 +4936,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>48</v>
       </c>
@@ -4910,7 +4962,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -4936,7 +4988,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -4962,7 +5014,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -4991,7 +5043,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -5017,7 +5069,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>53</v>
       </c>
@@ -5046,7 +5098,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -5075,7 +5127,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -5104,7 +5156,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -5130,7 +5182,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -5159,7 +5211,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>56</v>
       </c>
@@ -5188,7 +5240,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>57</v>
       </c>
@@ -5214,7 +5266,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -5243,7 +5295,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>57</v>
       </c>
@@ -5272,7 +5324,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -5301,7 +5353,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>57</v>
       </c>
@@ -5327,7 +5379,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>58</v>
       </c>
@@ -5353,7 +5405,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>59</v>
       </c>
@@ -5379,7 +5431,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -5408,7 +5460,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -5437,7 +5489,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -5466,7 +5518,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -5492,7 +5544,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -5521,7 +5573,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -5550,7 +5602,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -5579,7 +5631,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -5605,7 +5657,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -5634,7 +5686,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>64</v>
       </c>
@@ -5660,7 +5712,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>64</v>
       </c>
@@ -5686,7 +5738,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>64</v>
       </c>
@@ -5712,7 +5764,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>64</v>
       </c>
@@ -5738,7 +5790,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>65</v>
       </c>
@@ -5767,7 +5819,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>66</v>
       </c>
@@ -5793,7 +5845,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -5819,7 +5871,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -5845,7 +5897,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>67</v>
       </c>
@@ -5871,7 +5923,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>68</v>
       </c>
@@ -5900,7 +5952,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -5926,7 +5978,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -5955,7 +6007,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -5981,7 +6033,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -6007,7 +6059,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>72</v>
       </c>
@@ -6036,7 +6088,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>72</v>
       </c>
@@ -6062,7 +6114,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>73</v>
       </c>
@@ -6091,7 +6143,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>74</v>
       </c>
@@ -6120,7 +6172,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -6146,7 +6198,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>76</v>
       </c>
@@ -6172,7 +6224,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>77</v>
       </c>
@@ -6198,7 +6250,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -6224,7 +6276,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -6250,7 +6302,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>79</v>
       </c>
@@ -6276,7 +6328,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>79</v>
       </c>
@@ -6305,7 +6357,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>79</v>
       </c>
@@ -6334,7 +6386,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>80</v>
       </c>
@@ -6360,7 +6412,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>81</v>
       </c>
@@ -6386,7 +6438,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>81</v>
       </c>
@@ -6415,7 +6467,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>82</v>
       </c>
@@ -6441,7 +6493,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -6467,7 +6519,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>83</v>
       </c>
@@ -6493,7 +6545,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>83</v>
       </c>
@@ -6519,7 +6571,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -6545,7 +6597,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>84</v>
       </c>
@@ -6571,7 +6623,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>85</v>
       </c>
@@ -6597,7 +6649,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>85</v>
       </c>
@@ -6623,7 +6675,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>85</v>
       </c>
@@ -6649,7 +6701,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>86</v>
       </c>
@@ -6678,7 +6730,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>87</v>
       </c>
@@ -6707,7 +6759,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>88</v>
       </c>
@@ -6733,7 +6785,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -6759,7 +6811,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>89</v>
       </c>
@@ -6788,7 +6840,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>90</v>
       </c>
@@ -6817,7 +6869,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>91</v>
       </c>
@@ -6843,7 +6895,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>92</v>
       </c>
@@ -6869,7 +6921,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>93</v>
       </c>
@@ -6895,7 +6947,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>94</v>
       </c>
@@ -6924,7 +6976,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>94</v>
       </c>
@@ -6953,7 +7005,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>94</v>
       </c>
@@ -6982,7 +7034,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>94</v>
       </c>
@@ -7011,7 +7063,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>95</v>
       </c>
@@ -7040,7 +7092,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>96</v>
       </c>
@@ -7069,7 +7121,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>96</v>
       </c>
@@ -7095,7 +7147,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -7124,7 +7176,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>98</v>
       </c>
@@ -7150,7 +7202,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>99</v>
       </c>
@@ -7176,7 +7228,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>100</v>
       </c>
@@ -7202,7 +7254,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>101</v>
       </c>
@@ -7228,7 +7280,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>101</v>
       </c>
@@ -7257,7 +7309,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>102</v>
       </c>
@@ -7283,7 +7335,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>102</v>
       </c>
@@ -7312,7 +7364,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>102</v>
       </c>
@@ -7338,7 +7390,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>102</v>
       </c>
@@ -7367,7 +7419,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>102</v>
       </c>
@@ -7393,7 +7445,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -7422,7 +7474,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -7451,7 +7503,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -7477,7 +7529,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>104</v>
       </c>
@@ -7506,7 +7558,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>105</v>
       </c>
@@ -7532,7 +7584,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>106</v>
       </c>
@@ -7558,7 +7610,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>107</v>
       </c>
@@ -7587,7 +7639,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>108</v>
       </c>
@@ -7613,7 +7665,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>109</v>
       </c>
@@ -7639,7 +7691,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>110</v>
       </c>
@@ -7668,7 +7720,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>111</v>
       </c>
@@ -7694,7 +7746,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>111</v>
       </c>
@@ -7720,7 +7772,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -7749,7 +7801,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -7775,7 +7827,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>112</v>
       </c>
@@ -7801,7 +7853,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -7830,7 +7882,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -7859,7 +7911,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>112</v>
       </c>
@@ -7888,7 +7940,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>112</v>
       </c>
@@ -7914,7 +7966,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>112</v>
       </c>
@@ -7940,7 +7992,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>112</v>
       </c>
@@ -7969,7 +8021,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>113</v>
       </c>
@@ -7995,7 +8047,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>114</v>
       </c>
@@ -8024,7 +8076,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>115</v>
       </c>
@@ -8053,7 +8105,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>116</v>
       </c>
@@ -8082,7 +8134,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>117</v>
       </c>
@@ -8111,7 +8163,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>118</v>
       </c>
@@ -8137,7 +8189,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>119</v>
       </c>
@@ -8166,7 +8218,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>120</v>
       </c>
@@ -8195,7 +8247,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>121</v>
       </c>
@@ -8224,7 +8276,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>121</v>
       </c>
@@ -8253,7 +8305,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>122</v>
       </c>
@@ -8279,7 +8331,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>123</v>
       </c>
@@ -8305,7 +8357,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>124</v>
       </c>
@@ -8331,7 +8383,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>124</v>
       </c>
@@ -8357,7 +8409,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>124</v>
       </c>
@@ -8383,7 +8435,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>125</v>
       </c>
@@ -8409,7 +8461,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>125</v>
       </c>
@@ -8438,7 +8490,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>126</v>
       </c>
@@ -8464,7 +8516,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>127</v>
       </c>
@@ -8490,7 +8542,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>128</v>
       </c>
@@ -8516,7 +8568,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>129</v>
       </c>
@@ -8542,7 +8594,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>130</v>
       </c>
@@ -8568,7 +8620,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>130</v>
       </c>
@@ -8594,7 +8646,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>130</v>
       </c>
@@ -8620,7 +8672,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>130</v>
       </c>
@@ -8646,7 +8698,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>130</v>
       </c>
@@ -8672,7 +8724,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>130</v>
       </c>
@@ -8698,7 +8750,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>130</v>
       </c>
@@ -8724,7 +8776,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>130</v>
       </c>
@@ -8750,7 +8802,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>130</v>
       </c>
@@ -8776,7 +8828,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>131</v>
       </c>
@@ -8805,7 +8857,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -8834,7 +8886,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>133</v>
       </c>
@@ -8860,7 +8912,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>134</v>
       </c>
@@ -8889,7 +8941,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>135</v>
       </c>
@@ -8915,7 +8967,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>135</v>
       </c>
@@ -8941,7 +8993,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>135</v>
       </c>
@@ -8970,7 +9022,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>136</v>
       </c>
@@ -8999,7 +9051,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>137</v>
       </c>
@@ -9025,7 +9077,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>138</v>
       </c>
@@ -9051,7 +9103,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>139</v>
       </c>
@@ -9077,7 +9129,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>139</v>
       </c>
@@ -9103,7 +9155,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>140</v>
       </c>
@@ -9129,7 +9181,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>140</v>
       </c>
@@ -9155,7 +9207,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>140</v>
       </c>
@@ -9181,7 +9233,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>140</v>
       </c>
@@ -9207,7 +9259,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>141</v>
       </c>
@@ -9233,7 +9285,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>142</v>
       </c>
@@ -9259,7 +9311,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>143</v>
       </c>
@@ -9288,7 +9340,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>143</v>
       </c>
@@ -9314,7 +9366,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>143</v>
       </c>
@@ -9343,7 +9395,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>144</v>
       </c>
@@ -9372,7 +9424,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>144</v>
       </c>
@@ -9401,7 +9453,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>144</v>
       </c>
@@ -9430,7 +9482,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>144</v>
       </c>
@@ -9459,7 +9511,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>144</v>
       </c>
@@ -9485,7 +9537,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>145</v>
       </c>
@@ -9514,7 +9566,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>146</v>
       </c>
@@ -9540,7 +9592,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>147</v>
       </c>
@@ -9569,7 +9621,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>148</v>
       </c>
@@ -9598,7 +9650,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>148</v>
       </c>
@@ -9627,7 +9679,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>149</v>
       </c>
@@ -9653,7 +9705,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>150</v>
       </c>
@@ -9682,7 +9734,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>151</v>
       </c>
@@ -9711,7 +9763,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>152</v>
       </c>
@@ -9740,7 +9792,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>153</v>
       </c>
@@ -9766,7 +9818,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>154</v>
       </c>
@@ -9792,7 +9844,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>155</v>
       </c>
@@ -9821,7 +9873,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>156</v>
       </c>
@@ -9850,7 +9902,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>157</v>
       </c>
@@ -9879,7 +9931,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>158</v>
       </c>
@@ -9905,7 +9957,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>158</v>
       </c>

--- a/referidos.xlsx
+++ b/referidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="1046">
   <si>
     <t>nombre_del_cliente_referidor</t>
   </si>
@@ -427,6 +427,9 @@
     <t>Martha Liliana Patiño</t>
   </si>
   <si>
+    <t>IVAN DARIO ZABALA DELGADO</t>
+  </si>
+  <si>
     <t>Juan David Agudelo</t>
   </si>
   <si>
@@ -898,6 +901,9 @@
     <t>Lianpatty@hotmail.com</t>
   </si>
   <si>
+    <t>arq.ivanzabala@gmail.com</t>
+  </si>
+  <si>
     <t>jagudelo@piedadbotero.com</t>
   </si>
   <si>
@@ -1216,12 +1222,12 @@
     <t>2022-12-05</t>
   </si>
   <si>
+    <t>2023-03-16</t>
+  </si>
+  <si>
     <t>2022-12-30</t>
   </si>
   <si>
-    <t>2023-03-16</t>
-  </si>
-  <si>
     <t>2022-12-03</t>
   </si>
   <si>
@@ -1786,6 +1792,9 @@
     <t xml:space="preserve">Katerine  Cañola López </t>
   </si>
   <si>
+    <t xml:space="preserve">Catalina Zabala delgado </t>
+  </si>
+  <si>
     <t xml:space="preserve">Luz adriana Puerta </t>
   </si>
   <si>
@@ -1810,6 +1819,9 @@
     <t>Andreas Gluch</t>
   </si>
   <si>
+    <t xml:space="preserve">Gladys Gutiérrez Celis </t>
+  </si>
+  <si>
     <t>Wilton Garcia</t>
   </si>
   <si>
@@ -2443,6 +2455,9 @@
     <t>3143043272</t>
   </si>
   <si>
+    <t>3016059753</t>
+  </si>
+  <si>
     <t>3108451569</t>
   </si>
   <si>
@@ -2470,6 +2485,9 @@
     <t>3245971172</t>
   </si>
   <si>
+    <t>3203694711</t>
+  </si>
+  <si>
     <t>3015463117</t>
   </si>
   <si>
@@ -2941,6 +2959,9 @@
     <t>MarPat2931</t>
   </si>
   <si>
+    <t>IvaZab0273</t>
+  </si>
+  <si>
     <t>JuaAgu0315</t>
   </si>
   <si>
@@ -3122,6 +3143,9 @@
   </si>
   <si>
     <t>Inactivo</t>
+  </si>
+  <si>
+    <t>Pendiente por instalar</t>
   </si>
   <si>
     <t>Suspendido</t>
@@ -3485,7 +3509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3528,28 +3552,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="F2" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="H2" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I2" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J2" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3557,31 +3581,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E3" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="F3" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="G3" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="H3" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I3" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J3" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3589,28 +3613,28 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E4" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F4" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="H4" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I4" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J4" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3618,28 +3642,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F5" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="H5" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I5" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J5" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3647,28 +3671,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E6" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="F6" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="H6" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I6" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J6" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3676,28 +3700,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F7" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="H7" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I7" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J7" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3705,28 +3729,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E8" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F8" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="H8" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I8" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J8" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3734,28 +3758,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E9" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="F9" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="H9" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I9" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J9" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3763,31 +3787,31 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E10" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F10" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="G10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H10" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I10" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="J10" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3795,28 +3819,28 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E11" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F11" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="H11" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I11" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J11" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3824,28 +3848,28 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E12" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F12" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="H12" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I12" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J12" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3853,31 +3877,31 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E13" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="F13" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="G13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H13" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I13" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="J13" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3885,28 +3909,28 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D14" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="F14" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="H14" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I14" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J14" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3914,28 +3938,28 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D15" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E15" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F15" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="H15" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I15" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J15" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3943,31 +3967,31 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D16" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E16" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F16" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="G16" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="H16" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I16" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J16" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3975,31 +3999,31 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E17" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F17" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="G17" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H17" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I17" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J17" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4007,31 +4031,31 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E18" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F18" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="G18" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H18" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I18" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="J18" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4039,28 +4063,28 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D19" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E19" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F19" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="H19" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I19" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J19" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4068,28 +4092,28 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D20" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E20" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F20" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="H20" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I20" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J20" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4097,31 +4121,31 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F21" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="G21" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H21" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I21" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J21" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4129,31 +4153,31 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D22" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E22" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F22" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="G22" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H22" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I22" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J22" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4161,31 +4185,31 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D23" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E23" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F23" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H23" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I23" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J23" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4193,28 +4217,28 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D24" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E24" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F24" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="H24" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I24" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J24" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4222,31 +4246,31 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E25" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F25" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="G25" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H25" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I25" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J25" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4254,28 +4278,28 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D26" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E26" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="F26" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="H26" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I26" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J26" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4283,28 +4307,28 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D27" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E27" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="F27" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="H27" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I27" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J27" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4312,31 +4336,31 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D28" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E28" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F28" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="G28" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="H28" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I28" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J28" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4344,28 +4368,28 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D29" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E29" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F29" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="H29" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I29" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J29" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -4373,31 +4397,31 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D30" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E30" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F30" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="G30" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="H30" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="I30" t="s">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="J30" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -4405,31 +4429,31 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D31" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E31" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F31" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="G31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H31" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I31" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J31" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -4437,31 +4461,31 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D32" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E32" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F32" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="G32" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H32" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I32" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J32" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -4469,31 +4493,31 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E33" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F33" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="G33" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H33" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I33" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J33" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4501,28 +4525,28 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D34" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E34" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F34" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="H34" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I34" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J34" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -4530,28 +4554,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D35" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E35" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F35" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="H35" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I35" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J35" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4559,31 +4583,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E36" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="F36" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="G36" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H36" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I36" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J36" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4591,28 +4615,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D37" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E37" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F37" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="H37" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I37" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J37" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -4620,31 +4644,31 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C38" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D38" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E38" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F38" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="G38" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="H38" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I38" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J38" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4652,28 +4676,28 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D39" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E39" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F39" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="H39" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I39" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J39" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -4681,28 +4705,28 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D40" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E40" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F40" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="H40" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I40" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J40" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -4710,28 +4734,28 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D41" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E41" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F41" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="H41" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I41" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J41" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4739,31 +4763,31 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C42" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D42" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E42" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="F42" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="G42" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H42" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I42" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J42" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -4771,31 +4795,31 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C43" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D43" t="s">
         <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F43" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="G43" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="H43" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I43" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="J43" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4803,31 +4827,31 @@
         <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C44" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
         <v>104</v>
       </c>
       <c r="E44" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F44" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="G44" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H44" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I44" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J44" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -4835,31 +4859,31 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C45" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D45" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E45" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="F45" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="G45" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="H45" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="I45" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J45" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -4867,28 +4891,28 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D46" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E46" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="F46" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="H46" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I46" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J46" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4896,28 +4920,28 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D47" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E47" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F47" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="H47" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I47" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J47" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4925,31 +4949,31 @@
         <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C48" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D48" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E48" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="F48" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="G48" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="H48" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I48" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J48" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -4957,28 +4981,28 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D49" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E49" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F49" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="H49" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I49" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J49" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -4986,28 +5010,28 @@
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D50" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E50" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="F50" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="H50" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I50" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J50" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5015,31 +5039,31 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D51" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E51" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F51" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="G51" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="H51" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I51" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J51" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5047,31 +5071,31 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D52" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E52" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="F52" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="G52" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="H52" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I52" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J52" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5079,28 +5103,28 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D53" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E53" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="F53" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="H53" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I53" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J53" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -5108,28 +5132,28 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D54" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E54" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F54" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="H54" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I54" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J54" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -5137,28 +5161,28 @@
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D55" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E55" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F55" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="H55" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I55" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J55" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -5166,31 +5190,31 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D56" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E56" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="F56" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="G56" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H56" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I56" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J56" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -5198,28 +5222,28 @@
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D57" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E57" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F57" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="H57" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I57" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J57" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -5227,28 +5251,28 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C58" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D58" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E58" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="F58" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="H58" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I58" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J58" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -5256,28 +5280,28 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D59" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E59" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="F59" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="H59" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I59" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J59" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -5285,31 +5309,31 @@
         <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C60" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D60" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E60" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="F60" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="G60" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H60" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I60" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J60" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -5317,28 +5341,28 @@
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D61" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E61" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="F61" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="H61" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I61" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J61" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -5346,31 +5370,31 @@
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D62" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E62" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F62" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="G62" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H62" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I62" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J62" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -5378,31 +5402,31 @@
         <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C63" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D63" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E63" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="F63" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="G63" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="H63" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I63" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J63" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -5410,31 +5434,31 @@
         <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C64" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D64" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E64" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F64" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="G64" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H64" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I64" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J64" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -5442,28 +5466,28 @@
         <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D65" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E65" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F65" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="H65" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I65" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J65" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -5471,31 +5495,31 @@
         <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E66" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="F66" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="G66" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H66" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I66" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J66" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -5503,31 +5527,31 @@
         <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C67" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D67" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E67" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="F67" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="G67" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H67" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I67" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="J67" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -5535,28 +5559,28 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D68" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E68" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F68" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="H68" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I68" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J68" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -5564,31 +5588,31 @@
         <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D69" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E69" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="F69" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="G69" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H69" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I69" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J69" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5596,31 +5620,31 @@
         <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D70" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E70" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F70" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="G70" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H70" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I70" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J70" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -5628,31 +5652,31 @@
         <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D71" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E71" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F71" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="G71" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H71" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I71" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="J71" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -5660,28 +5684,28 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D72" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E72" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F72" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="H72" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I72" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J72" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -5689,28 +5713,28 @@
         <v>59</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D73" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E73" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="F73" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="H73" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I73" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J73" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -5718,28 +5742,28 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D74" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E74" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F74" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="H74" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I74" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J74" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -5747,31 +5771,31 @@
         <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D75" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E75" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="F75" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="G75" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H75" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I75" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J75" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -5779,31 +5803,31 @@
         <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C76" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D76" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E76" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F76" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="G76" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H76" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I76" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J76" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -5811,31 +5835,31 @@
         <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C77" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D77" t="s">
         <v>71</v>
       </c>
       <c r="E77" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="F77" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="G77" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H77" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I77" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J77" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -5843,28 +5867,28 @@
         <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D78" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E78" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F78" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="H78" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I78" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J78" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -5872,31 +5896,31 @@
         <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C79" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D79" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E79" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F79" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="G79" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H79" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I79" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J79" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -5904,31 +5928,31 @@
         <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C80" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D80" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E80" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="F80" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="G80" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="H80" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I80" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J80" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -5936,31 +5960,31 @@
         <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D81" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E81" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F81" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="G81" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="H81" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I81" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J81" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -5968,28 +5992,28 @@
         <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C82" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D82" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E82" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F82" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="H82" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I82" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J82" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -5997,31 +6021,31 @@
         <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D83" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E83" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F83" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="G83" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="H83" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I83" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J83" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -6029,28 +6053,28 @@
         <v>65</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D84" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E84" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="F84" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="H84" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I84" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J84" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -6058,28 +6082,28 @@
         <v>65</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D85" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E85" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F85" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="H85" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I85" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J85" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -6087,28 +6111,28 @@
         <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C86" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D86" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E86" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F86" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="H86" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I86" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J86" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -6116,28 +6140,28 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C87" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D87" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E87" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="F87" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="H87" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I87" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J87" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -6145,31 +6169,31 @@
         <v>66</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D88" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E88" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="F88" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="G88" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H88" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I88" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J88" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -6177,28 +6201,28 @@
         <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C89" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D89" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E89" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F89" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="H89" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I89" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J89" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -6206,28 +6230,28 @@
         <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D90" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E90" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F90" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="H90" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I90" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J90" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -6235,28 +6259,28 @@
         <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D91" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E91" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F91" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="H91" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I91" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J91" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -6264,28 +6288,28 @@
         <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D92" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E92" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F92" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="H92" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I92" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J92" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -6293,31 +6317,31 @@
         <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D93" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E93" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F93" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="G93" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H93" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I93" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J93" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -6325,28 +6349,28 @@
         <v>70</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D94" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E94" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F94" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H94" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I94" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J94" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -6354,28 +6378,28 @@
         <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D95" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E95" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F95" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H95" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I95" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J95" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -6383,28 +6407,28 @@
         <v>70</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C96" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D96" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E96" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F96" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="H96" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I96" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J96" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -6412,31 +6436,31 @@
         <v>71</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D97" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E97" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F97" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="G97" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="H97" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I97" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J97" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6444,28 +6468,28 @@
         <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C98" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D98" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E98" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F98" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="H98" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I98" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J98" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -6473,28 +6497,28 @@
         <v>73</v>
       </c>
       <c r="B99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E99" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F99" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="H99" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I99" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J99" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -6502,28 +6526,28 @@
         <v>74</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C100" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D100" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E100" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="F100" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="H100" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I100" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J100" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -6531,31 +6555,31 @@
         <v>74</v>
       </c>
       <c r="B101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C101" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D101" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E101" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F101" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="G101" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H101" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I101" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J101" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -6563,28 +6587,28 @@
         <v>74</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D102" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E102" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F102" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="H102" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I102" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J102" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -6592,31 +6616,31 @@
         <v>75</v>
       </c>
       <c r="B103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D103" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E103" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="F103" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="G103" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H103" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I103" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J103" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -6624,31 +6648,31 @@
         <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C104" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D104" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E104" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="F104" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="G104" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H104" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I104" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J104" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -6656,28 +6680,28 @@
         <v>77</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C105" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D105" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E105" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="F105" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="H105" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I105" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J105" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -6685,28 +6709,28 @@
         <v>78</v>
       </c>
       <c r="B106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C106" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D106" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E106" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="F106" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="H106" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I106" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J106" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -6714,28 +6738,28 @@
         <v>79</v>
       </c>
       <c r="B107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C107" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D107" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E107" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="F107" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="H107" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I107" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J107" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -6743,28 +6767,28 @@
         <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D108" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E108" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F108" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="H108" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I108" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J108" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -6772,28 +6796,28 @@
         <v>81</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C109" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D109" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E109" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F109" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="H109" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I109" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J109" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -6801,28 +6825,28 @@
         <v>81</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C110" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D110" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E110" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F110" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="H110" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I110" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J110" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -6830,31 +6854,31 @@
         <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C111" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D111" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E111" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="F111" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="G111" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H111" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I111" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J111" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -6862,31 +6886,31 @@
         <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C112" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D112" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E112" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="F112" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="G112" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H112" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I112" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="J112" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -6894,28 +6918,28 @@
         <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D113" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E113" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F113" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="H113" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I113" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J113" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -6923,28 +6947,28 @@
         <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C114" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E114" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="F114" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="H114" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I114" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J114" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -6952,31 +6976,31 @@
         <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C115" t="s">
+        <v>372</v>
+      </c>
+      <c r="D115" t="s">
+        <v>511</v>
+      </c>
+      <c r="E115" t="s">
+        <v>731</v>
+      </c>
+      <c r="F115" t="s">
+        <v>927</v>
+      </c>
+      <c r="G115" t="s">
         <v>370</v>
       </c>
-      <c r="D115" t="s">
-        <v>509</v>
-      </c>
-      <c r="E115" t="s">
-        <v>727</v>
-      </c>
-      <c r="F115" t="s">
-        <v>921</v>
-      </c>
-      <c r="G115" t="s">
-        <v>368</v>
-      </c>
       <c r="H115" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I115" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J115" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -6984,31 +7008,31 @@
         <v>84</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C116" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D116" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E116" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="F116" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="G116" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H116" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="I116" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J116" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -7016,28 +7040,28 @@
         <v>85</v>
       </c>
       <c r="B117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C117" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D117" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E117" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="F117" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="H117" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I117" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J117" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -7045,28 +7069,28 @@
         <v>86</v>
       </c>
       <c r="B118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C118" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D118" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E118" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F118" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="H118" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I118" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J118" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -7074,28 +7098,28 @@
         <v>86</v>
       </c>
       <c r="B119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C119" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D119" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E119" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="F119" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="H119" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I119" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J119" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -7103,28 +7127,28 @@
         <v>86</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C120" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D120" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E120" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="F120" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="H120" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I120" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J120" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -7132,28 +7156,28 @@
         <v>86</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D121" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E121" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="F121" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="H121" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I121" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J121" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -7161,28 +7185,28 @@
         <v>87</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D122" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E122" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="F122" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="H122" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I122" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J122" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -7190,28 +7214,28 @@
         <v>88</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D123" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E123" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F123" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="H123" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I123" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J123" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -7219,28 +7243,28 @@
         <v>88</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D124" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E124" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F124" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="H124" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I124" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J124" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7248,28 +7272,28 @@
         <v>88</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D125" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E125" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F125" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="H125" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I125" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J125" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -7277,31 +7301,31 @@
         <v>89</v>
       </c>
       <c r="B126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D126" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E126" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="F126" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="G126" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H126" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I126" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J126" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7309,31 +7333,31 @@
         <v>90</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C127" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D127" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E127" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="F127" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="G127" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H127" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I127" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J127" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -7341,28 +7365,28 @@
         <v>91</v>
       </c>
       <c r="B128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C128" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D128" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E128" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="F128" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H128" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I128" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J128" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -7370,28 +7394,28 @@
         <v>91</v>
       </c>
       <c r="B129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C129" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D129" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E129" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="F129" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H129" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I129" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J129" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -7399,31 +7423,31 @@
         <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D130" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E130" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="F130" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="G130" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H130" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I130" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J130" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -7431,31 +7455,31 @@
         <v>93</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C131" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D131" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E131" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="F131" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="G131" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H131" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I131" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J131" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -7463,28 +7487,28 @@
         <v>94</v>
       </c>
       <c r="B132" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C132" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D132" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E132" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F132" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="H132" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I132" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J132" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -7492,28 +7516,28 @@
         <v>95</v>
       </c>
       <c r="B133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C133" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D133" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E133" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="F133" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="H133" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I133" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J133" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -7521,28 +7545,28 @@
         <v>96</v>
       </c>
       <c r="B134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D134" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E134" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="F134" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="H134" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I134" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J134" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -7550,31 +7574,31 @@
         <v>97</v>
       </c>
       <c r="B135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C135" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D135" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E135" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="F135" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="G135" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="H135" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="I135" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="J135" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -7582,31 +7606,31 @@
         <v>97</v>
       </c>
       <c r="B136" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C136" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D136" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E136" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="F136" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="G136" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H136" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I136" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J136" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -7614,31 +7638,31 @@
         <v>97</v>
       </c>
       <c r="B137" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C137" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D137" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E137" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="F137" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="G137" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="H137" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="I137" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="J137" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -7646,31 +7670,31 @@
         <v>97</v>
       </c>
       <c r="B138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C138" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D138" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E138" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="F138" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="G138" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H138" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I138" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J138" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -7678,31 +7702,31 @@
         <v>98</v>
       </c>
       <c r="B139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C139" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D139" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E139" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="F139" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="G139" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H139" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I139" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J139" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -7710,31 +7734,31 @@
         <v>99</v>
       </c>
       <c r="B140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D140" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E140" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="F140" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="G140" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H140" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I140" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J140" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -7742,28 +7766,28 @@
         <v>99</v>
       </c>
       <c r="B141" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C141" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D141" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E141" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="F141" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="H141" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I141" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J141" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -7771,31 +7795,31 @@
         <v>100</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C142" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D142" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E142" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F142" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="G142" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="H142" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I142" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J142" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -7803,28 +7827,28 @@
         <v>101</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C143" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D143" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E143" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="F143" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="H143" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I143" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J143" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -7832,28 +7856,28 @@
         <v>102</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C144" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D144" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E144" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="F144" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="H144" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I144" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J144" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -7861,28 +7885,28 @@
         <v>103</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C145" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D145" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E145" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F145" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="H145" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I145" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J145" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -7890,28 +7914,28 @@
         <v>104</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C146" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D146" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E146" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F146" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="H146" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I146" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J146" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -7919,31 +7943,31 @@
         <v>104</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C147" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D147" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E147" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="F147" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="G147" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="H147" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I147" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J147" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -7951,28 +7975,28 @@
         <v>105</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C148" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D148" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E148" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F148" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H148" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I148" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J148" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -7980,31 +8004,31 @@
         <v>105</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C149" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D149" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E149" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F149" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="G149" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="H149" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I149" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J149" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -8012,28 +8036,28 @@
         <v>105</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C150" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D150" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E150" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="F150" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H150" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I150" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J150" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -8041,31 +8065,31 @@
         <v>105</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C151" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D151" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E151" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="F151" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="G151" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H151" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I151" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J151" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -8073,28 +8097,28 @@
         <v>105</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C152" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D152" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E152" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F152" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="H152" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I152" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J152" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -8102,31 +8126,31 @@
         <v>106</v>
       </c>
       <c r="B153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C153" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D153" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E153" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="F153" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="G153" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H153" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I153" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J153" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -8134,31 +8158,31 @@
         <v>106</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C154" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D154" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E154" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="F154" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="G154" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H154" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I154" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J154" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -8166,31 +8190,31 @@
         <v>107</v>
       </c>
       <c r="B155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C155" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D155" t="s">
         <v>59</v>
       </c>
       <c r="E155" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F155" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="G155" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H155" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I155" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J155" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -8198,28 +8222,28 @@
         <v>108</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C156" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D156" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E156" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F156" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="H156" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I156" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J156" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -8227,31 +8251,31 @@
         <v>109</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C157" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D157" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E157" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="F157" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="G157" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="H157" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="I157" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="J157" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -8259,28 +8283,28 @@
         <v>109</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C158" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D158" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E158" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="F158" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="H158" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I158" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J158" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -8288,28 +8312,28 @@
         <v>110</v>
       </c>
       <c r="B159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C159" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D159" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E159" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F159" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="H159" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I159" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J159" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -8317,31 +8341,31 @@
         <v>111</v>
       </c>
       <c r="B160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C160" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D160" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E160" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="F160" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="G160" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H160" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I160" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J160" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -8349,28 +8373,28 @@
         <v>112</v>
       </c>
       <c r="B161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C161" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D161" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E161" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="F161" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="H161" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I161" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J161" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -8378,28 +8402,28 @@
         <v>113</v>
       </c>
       <c r="B162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C162" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D162" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E162" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F162" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="H162" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I162" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J162" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -8407,31 +8431,31 @@
         <v>114</v>
       </c>
       <c r="B163" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C163" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D163" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E163" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="F163" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="G163" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H163" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I163" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J163" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -8439,28 +8463,28 @@
         <v>115</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C164" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D164" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E164" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="F164" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="H164" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I164" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J164" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -8468,28 +8492,28 @@
         <v>115</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D165" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E165" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F165" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="H165" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I165" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J165" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -8497,31 +8521,31 @@
         <v>116</v>
       </c>
       <c r="B166" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C166" t="s">
+        <v>358</v>
+      </c>
+      <c r="D166" t="s">
+        <v>554</v>
+      </c>
+      <c r="E166" t="s">
+        <v>775</v>
+      </c>
+      <c r="F166" t="s">
+        <v>960</v>
+      </c>
+      <c r="G166" t="s">
         <v>356</v>
       </c>
-      <c r="D166" t="s">
-        <v>552</v>
-      </c>
-      <c r="E166" t="s">
-        <v>771</v>
-      </c>
-      <c r="F166" t="s">
-        <v>954</v>
-      </c>
-      <c r="G166" t="s">
-        <v>354</v>
-      </c>
       <c r="H166" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I166" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J166" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -8529,28 +8553,28 @@
         <v>116</v>
       </c>
       <c r="B167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C167" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D167" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E167" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="F167" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="H167" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I167" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J167" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -8558,28 +8582,28 @@
         <v>116</v>
       </c>
       <c r="B168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C168" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D168" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E168" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="F168" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="H168" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I168" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J168" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -8587,31 +8611,31 @@
         <v>116</v>
       </c>
       <c r="B169" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C169" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D169" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E169" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="F169" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="G169" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="H169" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I169" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J169" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -8619,31 +8643,31 @@
         <v>116</v>
       </c>
       <c r="B170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C170" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D170" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E170" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F170" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="G170" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H170" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I170" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J170" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -8651,31 +8675,31 @@
         <v>116</v>
       </c>
       <c r="B171" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C171" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D171" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E171" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="F171" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="G171" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H171" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I171" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J171" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -8683,28 +8707,28 @@
         <v>116</v>
       </c>
       <c r="B172" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C172" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D172" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E172" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="F172" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="H172" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I172" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="J172" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -8712,28 +8736,28 @@
         <v>116</v>
       </c>
       <c r="B173" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C173" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D173" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E173" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="F173" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="H173" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="I173" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J173" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -8741,31 +8765,31 @@
         <v>116</v>
       </c>
       <c r="B174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C174" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D174" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E174" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F174" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="G174" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H174" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I174" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J174" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -8773,28 +8797,28 @@
         <v>117</v>
       </c>
       <c r="B175" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C175" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D175" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E175" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="F175" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="H175" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I175" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J175" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -8802,31 +8826,31 @@
         <v>118</v>
       </c>
       <c r="B176" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C176" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D176" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E176" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="F176" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="G176" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H176" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I176" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J176" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -8834,31 +8858,31 @@
         <v>119</v>
       </c>
       <c r="B177" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C177" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D177" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E177" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F177" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="G177" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="H177" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I177" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J177" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -8866,31 +8890,31 @@
         <v>120</v>
       </c>
       <c r="B178" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C178" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D178" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E178" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="F178" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="G178" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H178" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I178" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J178" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -8898,31 +8922,31 @@
         <v>121</v>
       </c>
       <c r="B179" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C179" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D179" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E179" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="F179" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="G179" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H179" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I179" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J179" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -8930,28 +8954,28 @@
         <v>122</v>
       </c>
       <c r="B180" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D180" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E180" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="F180" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="H180" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I180" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J180" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -8959,31 +8983,31 @@
         <v>123</v>
       </c>
       <c r="B181" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C181" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D181" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E181" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="F181" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="G181" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H181" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I181" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J181" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -8991,31 +9015,31 @@
         <v>124</v>
       </c>
       <c r="B182" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C182" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D182" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E182" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="F182" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="G182" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H182" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I182" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J182" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -9023,31 +9047,31 @@
         <v>125</v>
       </c>
       <c r="B183" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C183" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D183" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E183" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="F183" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="G183" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="H183" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I183" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J183" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -9055,31 +9079,31 @@
         <v>125</v>
       </c>
       <c r="B184" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C184" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D184" t="s">
         <v>117</v>
       </c>
       <c r="E184" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F184" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="G184" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H184" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I184" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J184" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -9087,28 +9111,28 @@
         <v>126</v>
       </c>
       <c r="B185" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C185" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D185" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E185" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="F185" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="H185" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I185" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J185" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -9116,28 +9140,28 @@
         <v>127</v>
       </c>
       <c r="B186" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C186" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D186" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E186" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="F186" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="H186" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I186" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J186" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -9145,28 +9169,28 @@
         <v>128</v>
       </c>
       <c r="B187" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C187" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D187" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E187" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F187" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="H187" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I187" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J187" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -9174,28 +9198,28 @@
         <v>128</v>
       </c>
       <c r="B188" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C188" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D188" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E188" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="F188" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="H188" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I188" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J188" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -9203,28 +9227,28 @@
         <v>128</v>
       </c>
       <c r="B189" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C189" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D189" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E189" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="F189" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="H189" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I189" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J189" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -9232,28 +9256,28 @@
         <v>129</v>
       </c>
       <c r="B190" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C190" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D190" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E190" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="F190" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="H190" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I190" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J190" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -9261,31 +9285,31 @@
         <v>129</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C191" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D191" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E191" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="F191" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="G191" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="H191" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I191" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J191" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -9293,28 +9317,28 @@
         <v>130</v>
       </c>
       <c r="B192" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C192" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D192" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E192" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F192" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="H192" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I192" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J192" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -9322,28 +9346,28 @@
         <v>131</v>
       </c>
       <c r="B193" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C193" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D193" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E193" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="F193" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="H193" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I193" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J193" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -9351,28 +9375,28 @@
         <v>132</v>
       </c>
       <c r="B194" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C194" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D194" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E194" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="F194" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="H194" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I194" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J194" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -9380,28 +9404,28 @@
         <v>133</v>
       </c>
       <c r="B195" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C195" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D195" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E195" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="F195" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="H195" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I195" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J195" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -9409,28 +9433,28 @@
         <v>134</v>
       </c>
       <c r="B196" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C196" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D196" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E196" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F196" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="H196" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I196" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J196" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -9438,28 +9462,28 @@
         <v>135</v>
       </c>
       <c r="B197" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C197" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D197" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E197" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="F197" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H197" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I197" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J197" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -9467,28 +9491,28 @@
         <v>135</v>
       </c>
       <c r="B198" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C198" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D198" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E198" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="F198" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H198" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I198" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J198" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -9496,28 +9520,28 @@
         <v>135</v>
       </c>
       <c r="B199" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C199" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D199" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E199" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="F199" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H199" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I199" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J199" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -9525,28 +9549,28 @@
         <v>135</v>
       </c>
       <c r="B200" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C200" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D200" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E200" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="F200" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H200" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I200" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J200" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -9554,28 +9578,28 @@
         <v>135</v>
       </c>
       <c r="B201" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C201" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D201" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E201" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F201" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H201" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I201" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J201" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -9583,28 +9607,28 @@
         <v>135</v>
       </c>
       <c r="B202" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C202" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D202" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E202" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="F202" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H202" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I202" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J202" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -9612,28 +9636,28 @@
         <v>135</v>
       </c>
       <c r="B203" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C203" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D203" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E203" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F203" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H203" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I203" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J203" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -9641,28 +9665,28 @@
         <v>135</v>
       </c>
       <c r="B204" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C204" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D204" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E204" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="F204" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H204" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I204" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J204" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -9670,28 +9694,28 @@
         <v>135</v>
       </c>
       <c r="B205" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C205" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D205" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E205" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F205" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="H205" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I205" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J205" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -9699,31 +9723,31 @@
         <v>136</v>
       </c>
       <c r="B206" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C206" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D206" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E206" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F206" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="G206" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="H206" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I206" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J206" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -9731,31 +9755,28 @@
         <v>137</v>
       </c>
       <c r="B207" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C207" t="s">
-        <v>327</v>
+        <v>402</v>
       </c>
       <c r="D207" t="s">
-        <v>137</v>
+        <v>592</v>
       </c>
       <c r="E207" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F207" t="s">
-        <v>975</v>
-      </c>
-      <c r="G207" t="s">
-        <v>1024</v>
+        <v>981</v>
       </c>
       <c r="H207" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="I207" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J207" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -9763,28 +9784,31 @@
         <v>138</v>
       </c>
       <c r="B208" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C208" t="s">
-        <v>400</v>
+        <v>329</v>
       </c>
       <c r="D208" t="s">
-        <v>590</v>
+        <v>138</v>
       </c>
       <c r="E208" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="F208" t="s">
-        <v>976</v>
+        <v>982</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1031</v>
       </c>
       <c r="H208" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="I208" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J208" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -9792,60 +9816,60 @@
         <v>139</v>
       </c>
       <c r="B209" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C209" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="D209" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E209" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="F209" t="s">
-        <v>977</v>
-      </c>
-      <c r="G209" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
       <c r="H209" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="I209" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J209" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C210" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="D210" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E210" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F210" t="s">
-        <v>977</v>
+        <v>984</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1012</v>
       </c>
       <c r="H210" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="I210" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J210" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -9853,89 +9877,86 @@
         <v>140</v>
       </c>
       <c r="B211" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C211" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D211" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E211" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="F211" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="H211" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I211" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J211" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C212" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="D212" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E212" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="F212" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="H212" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I212" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J212" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B213" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C213" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="D213" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E213" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="F213" t="s">
-        <v>978</v>
-      </c>
-      <c r="G213" t="s">
-        <v>356</v>
+        <v>985</v>
       </c>
       <c r="H213" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="I213" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J213" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -9943,31 +9964,31 @@
         <v>141</v>
       </c>
       <c r="B214" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C214" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="D214" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E214" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="F214" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="G214" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="H214" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I214" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J214" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -9975,28 +9996,31 @@
         <v>142</v>
       </c>
       <c r="B215" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C215" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="D215" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E215" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="F215" t="s">
-        <v>980</v>
+        <v>986</v>
+      </c>
+      <c r="G215" t="s">
+        <v>342</v>
       </c>
       <c r="H215" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="I215" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J215" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -10004,86 +10028,86 @@
         <v>143</v>
       </c>
       <c r="B216" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C216" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="D216" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E216" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="F216" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="H216" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I216" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J216" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B217" t="s">
         <v>301</v>
       </c>
       <c r="C217" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="D217" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E217" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="F217" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="H217" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I217" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J217" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B218" t="s">
         <v>302</v>
       </c>
       <c r="C218" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="D218" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="E218" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="F218" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="H218" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I218" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J218" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -10091,28 +10115,28 @@
         <v>145</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C219" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="D219" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E219" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="F219" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="H219" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I219" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J219" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -10120,60 +10144,57 @@
         <v>146</v>
       </c>
       <c r="B220" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C220" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D220" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E220" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F220" t="s">
-        <v>984</v>
-      </c>
-      <c r="G220" t="s">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="H220" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="I220" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J220" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B221" t="s">
         <v>304</v>
       </c>
       <c r="C221" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="D221" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E221" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="F221" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="H221" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I221" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J221" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -10181,86 +10202,89 @@
         <v>147</v>
       </c>
       <c r="B222" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C222" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="D222" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E222" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F222" t="s">
-        <v>985</v>
+        <v>991</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1032</v>
       </c>
       <c r="H222" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="I222" t="s">
-        <v>1027</v>
+        <v>1043</v>
       </c>
       <c r="J222" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B223" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C223" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="D223" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E223" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F223" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="H223" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I223" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J223" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B224" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C224" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
       <c r="D224" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E224" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="F224" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="H224" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I224" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J224" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -10268,89 +10292,86 @@
         <v>148</v>
       </c>
       <c r="B225" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C225" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="D225" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E225" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="F225" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="H225" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I225" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J225" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B226" t="s">
         <v>306</v>
       </c>
       <c r="C226" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="D226" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E226" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F226" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="H226" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I226" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J226" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B227" t="s">
         <v>307</v>
       </c>
       <c r="C227" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
       <c r="D227" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E227" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="F227" t="s">
-        <v>988</v>
-      </c>
-      <c r="G227" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="H227" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="I227" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J227" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -10358,60 +10379,60 @@
         <v>150</v>
       </c>
       <c r="B228" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C228" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D228" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E228" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="F228" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="H228" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I228" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J228" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B229" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C229" t="s">
-        <v>403</v>
+        <v>326</v>
       </c>
       <c r="D229" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E229" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="F229" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="G229" t="s">
-        <v>361</v>
+        <v>1012</v>
       </c>
       <c r="H229" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I229" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J229" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -10419,31 +10440,28 @@
         <v>151</v>
       </c>
       <c r="B230" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C230" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="D230" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E230" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F230" t="s">
-        <v>989</v>
-      </c>
-      <c r="G230" t="s">
-        <v>330</v>
+        <v>995</v>
       </c>
       <c r="H230" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="I230" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J230" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -10451,124 +10469,127 @@
         <v>151</v>
       </c>
       <c r="B231" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C231" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="D231" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E231" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="F231" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="G231" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H231" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="I231" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J231" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B232" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C232" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D232" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E232" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="F232" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="G232" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="H232" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I232" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J232" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B233" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C233" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D233" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E233" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="F233" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="G233" t="s">
         <v>363</v>
       </c>
       <c r="H233" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="I233" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J233" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B234" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C234" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D234" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="E234" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="F234" t="s">
-        <v>989</v>
+        <v>996</v>
+      </c>
+      <c r="G234" t="s">
+        <v>392</v>
       </c>
       <c r="H234" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="I234" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J234" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -10576,124 +10597,121 @@
         <v>152</v>
       </c>
       <c r="B235" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C235" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D235" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E235" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="F235" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="G235" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H235" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I235" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J235" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="236" spans="1:10">
       <c r="A236" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B236" t="s">
         <v>310</v>
       </c>
       <c r="C236" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="D236" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E236" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="F236" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="H236" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="I236" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J236" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B237" t="s">
         <v>311</v>
       </c>
       <c r="C237" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="D237" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E237" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F237" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="G237" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H237" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I237" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="J237" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B238" t="s">
         <v>312</v>
       </c>
       <c r="C238" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="D238" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E238" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="F238" t="s">
-        <v>993</v>
-      </c>
-      <c r="G238" t="s">
-        <v>332</v>
+        <v>998</v>
       </c>
       <c r="H238" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="I238" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J238" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -10701,31 +10719,31 @@
         <v>155</v>
       </c>
       <c r="B239" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C239" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D239" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="E239" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F239" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="G239" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="H239" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I239" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="J239" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -10733,336 +10751,339 @@
         <v>156</v>
       </c>
       <c r="B240" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C240" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="D240" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E240" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="F240" t="s">
-        <v>994</v>
+        <v>1000</v>
+      </c>
+      <c r="G240" t="s">
+        <v>334</v>
       </c>
       <c r="H240" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="I240" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="J240" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="241" spans="1:10">
       <c r="A241" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B241" t="s">
         <v>314</v>
       </c>
       <c r="C241" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="D241" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E241" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="F241" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="G241" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H241" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I241" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J241" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="242" spans="1:10">
       <c r="A242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B242" t="s">
         <v>315</v>
       </c>
       <c r="C242" t="s">
-        <v>324</v>
+        <v>409</v>
       </c>
       <c r="D242" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E242" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="F242" t="s">
-        <v>996</v>
-      </c>
-      <c r="G242" t="s">
-        <v>330</v>
+        <v>1001</v>
       </c>
       <c r="H242" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="I242" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J242" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="243" spans="1:10">
       <c r="A243" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B243" t="s">
         <v>316</v>
       </c>
       <c r="C243" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D243" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E243" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F243" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="G243" t="s">
-        <v>1023</v>
+        <v>343</v>
       </c>
       <c r="H243" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I243" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J243" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="244" spans="1:10">
       <c r="A244" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B244" t="s">
         <v>317</v>
       </c>
       <c r="C244" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="D244" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E244" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="F244" t="s">
-        <v>998</v>
+        <v>1003</v>
+      </c>
+      <c r="G244" t="s">
+        <v>332</v>
       </c>
       <c r="H244" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="I244" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J244" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="245" spans="1:10">
       <c r="A245" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B245" t="s">
         <v>318</v>
       </c>
       <c r="C245" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="D245" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E245" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="F245" t="s">
-        <v>999</v>
+        <v>1004</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1030</v>
       </c>
       <c r="H245" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="I245" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J245" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B246" t="s">
         <v>319</v>
       </c>
       <c r="C246" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="D246" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E246" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F246" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="H246" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="I246" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="J246" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="247" spans="1:10">
       <c r="A247" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B247" t="s">
         <v>320</v>
       </c>
       <c r="C247" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="D247" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E247" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F247" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G247" t="s">
-        <v>360</v>
+        <v>1006</v>
       </c>
       <c r="H247" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="I247" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J247" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="248" spans="1:10">
       <c r="A248" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B248" t="s">
         <v>321</v>
       </c>
       <c r="C248" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="D248" t="s">
-        <v>24</v>
+        <v>626</v>
       </c>
       <c r="E248" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F248" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G248" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
       <c r="H248" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="I248" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="J248" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="249" spans="1:10">
       <c r="A249" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B249" t="s">
         <v>322</v>
       </c>
       <c r="C249" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="D249" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E249" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F249" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="G249" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H249" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="I249" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="J249" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="250" spans="1:10">
       <c r="A250" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B250" t="s">
         <v>323</v>
       </c>
       <c r="C250" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="D250" t="s">
-        <v>625</v>
+        <v>24</v>
       </c>
       <c r="E250" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F250" t="s">
-        <v>1004</v>
+        <v>1009</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1033</v>
       </c>
       <c r="H250" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="I250" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J250" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -11070,28 +11091,89 @@
         <v>166</v>
       </c>
       <c r="B251" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C251" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="D251" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E251" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="F251" t="s">
-        <v>1004</v>
+        <v>1010</v>
+      </c>
+      <c r="G251" t="s">
+        <v>363</v>
       </c>
       <c r="H251" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="I251" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
       <c r="J251" t="s">
-        <v>1035</v>
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252" t="s">
+        <v>167</v>
+      </c>
+      <c r="B252" t="s">
+        <v>325</v>
+      </c>
+      <c r="C252" t="s">
+        <v>411</v>
+      </c>
+      <c r="D252" t="s">
+        <v>629</v>
+      </c>
+      <c r="E252" t="s">
+        <v>852</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I252" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J252" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253" t="s">
+        <v>167</v>
+      </c>
+      <c r="B253" t="s">
+        <v>325</v>
+      </c>
+      <c r="C253" t="s">
+        <v>405</v>
+      </c>
+      <c r="D253" t="s">
+        <v>630</v>
+      </c>
+      <c r="E253" t="s">
+        <v>853</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>
